--- a/tx.xlsx
+++ b/tx.xlsx
@@ -823,7 +823,7 @@
       <c r="J2" s="10" t="inlineStr"/>
       <c r="K2" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1942 </t>
+          <t>00.01.1942</t>
         </is>
       </c>
       <c r="L2" s="12" t="inlineStr">
@@ -910,7 +910,7 @@
       <c r="J3" s="10" t="inlineStr"/>
       <c r="K3" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1942 </t>
+          <t>00.01.1942</t>
         </is>
       </c>
       <c r="L3" s="12" t="inlineStr">
@@ -993,12 +993,12 @@
           <t xml:space="preserve"> гв. ефрейтор</t>
         </is>
       </c>
-      <c r="I4" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 123 гв. сп</t>
-        </is>
-      </c>
-      <c r="J4" s="10" t="inlineStr"/>
+      <c r="I4" s="10" t="inlineStr"/>
+      <c r="J4" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 43 стрелковая дивизия  123 гв. стрелковый полк </t>
+        </is>
+      </c>
       <c r="K4" s="10" t="inlineStr">
         <is>
           <t>14.01.1944</t>
@@ -1092,7 +1092,7 @@
       <c r="J5" s="10" t="inlineStr"/>
       <c r="K5" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1943 </t>
+          <t>00.01.1943</t>
         </is>
       </c>
       <c r="L5" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       <c r="J7" s="10" t="inlineStr"/>
       <c r="K7" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.07.е 1942 </t>
+          <t>00.07.1942</t>
         </is>
       </c>
       <c r="L7" s="12" t="inlineStr">
@@ -1432,7 +1432,7 @@
       <c r="J9" s="10" t="inlineStr"/>
       <c r="K9" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1941 </t>
+          <t>00.08.1941</t>
         </is>
       </c>
       <c r="L9" s="12" t="inlineStr">
@@ -1519,12 +1519,12 @@
           <t>старший сержант</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>3 иак</t>
-        </is>
-      </c>
-      <c r="J10" s="10" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr"/>
+      <c r="J10" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 274 истребительный авиационный полк 3 иавиационный корпус </t>
+        </is>
+      </c>
       <c r="K10" s="10" t="inlineStr">
         <is>
           <t>12.03.1943</t>
@@ -1610,12 +1610,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I11" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 164 сд</t>
-        </is>
-      </c>
-      <c r="J11" s="10" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr"/>
+      <c r="J11" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 620 стрелковый полк  164 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K11" s="10" t="inlineStr">
         <is>
           <t>18.11.1943</t>
@@ -1796,12 +1796,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I13" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 172 сд</t>
-        </is>
-      </c>
-      <c r="J13" s="10" t="inlineStr"/>
+      <c r="I13" s="10" t="inlineStr"/>
+      <c r="J13" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 172 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K13" s="10" t="inlineStr">
         <is>
           <t>10.12.1942</t>
@@ -1895,12 +1895,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I14" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 324 сд</t>
-        </is>
-      </c>
-      <c r="J14" s="10" t="inlineStr"/>
+      <c r="I14" s="10" t="inlineStr"/>
+      <c r="J14" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1095 стрелковый полк  324 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K14" s="10" t="inlineStr">
         <is>
           <t>8.01.1942</t>
@@ -1990,12 +1990,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I15" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 63А</t>
-        </is>
-      </c>
-      <c r="J15" s="10" t="inlineStr"/>
+      <c r="I15" s="10" t="inlineStr"/>
+      <c r="J15" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 стрелковая дивизия  63армия </t>
+        </is>
+      </c>
       <c r="K15" s="10" t="inlineStr">
         <is>
           <t>7.09.1942</t>
@@ -2085,12 +2085,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I16" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 244 сд</t>
-        </is>
-      </c>
-      <c r="J16" s="10" t="inlineStr"/>
+      <c r="I16" s="10" t="inlineStr"/>
+      <c r="J16" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 907 стрелковый полк  244 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K16" s="10" t="inlineStr">
         <is>
           <t>24.02.1943</t>
@@ -2168,12 +2168,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I17" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 804 отд.</t>
-        </is>
-      </c>
-      <c r="J17" s="10" t="inlineStr"/>
+      <c r="I17" s="10" t="inlineStr"/>
+      <c r="J17" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 804 отанковая дивизия. </t>
+        </is>
+      </c>
       <c r="K17" s="10" t="inlineStr"/>
       <c r="L17" s="12" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
       <c r="J19" s="10" t="inlineStr"/>
       <c r="K19" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1943 </t>
+          <t>00.12.1943</t>
         </is>
       </c>
       <c r="L19" s="12" t="inlineStr">
@@ -2437,12 +2437,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I20" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 17 сд</t>
-        </is>
-      </c>
-      <c r="J20" s="10" t="inlineStr"/>
+      <c r="I20" s="10" t="inlineStr"/>
+      <c r="J20" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1316 стрелковый полк  17 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K20" s="10" t="inlineStr">
         <is>
           <t>6.03.1943</t>
@@ -2528,12 +2528,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I21" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 290 сд</t>
-        </is>
-      </c>
-      <c r="J21" s="10" t="inlineStr"/>
+      <c r="I21" s="10" t="inlineStr"/>
+      <c r="J21" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 882 стрелковый полк  290 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K21" s="10" t="inlineStr">
         <is>
           <t>1.04.1942</t>
@@ -2623,17 +2623,13 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I22" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 93 сд</t>
-        </is>
-      </c>
-      <c r="J22" s="10" t="inlineStr"/>
-      <c r="K22" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00.09.е 1943 </t>
-        </is>
-      </c>
+      <c r="I22" s="10" t="inlineStr"/>
+      <c r="J22" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 266 стрелковый полк  93 стрелковая дивизия  погиб в сентябригадае 1943 г.  место захоронения Полтавстрелковый корпусая обл. </t>
+        </is>
+      </c>
+      <c r="K22" s="10" t="inlineStr"/>
       <c r="L22" s="12" t="inlineStr">
         <is>
           <t>погиб</t>
@@ -2641,7 +2637,7 @@
       </c>
       <c r="M22" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Полтавская обл.,  г. Зеньков.</t>
+          <t>Полтавская обл., г. Зеньков</t>
         </is>
       </c>
       <c r="N22" s="10" t="inlineStr"/>
@@ -2714,7 +2710,7 @@
       <c r="J23" s="10" t="inlineStr"/>
       <c r="K23" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1941 </t>
+          <t>00.08.1941</t>
         </is>
       </c>
       <c r="L23" s="12" t="inlineStr">
@@ -2797,7 +2793,7 @@
       <c r="J24" s="10" t="inlineStr"/>
       <c r="K24" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.05.е 1942 </t>
+          <t>00.05.1942</t>
         </is>
       </c>
       <c r="L24" s="12" t="inlineStr">
@@ -2884,7 +2880,7 @@
       <c r="J25" s="10" t="inlineStr"/>
       <c r="K25" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L25" s="12" t="inlineStr">
@@ -2967,7 +2963,7 @@
       <c r="J26" s="10" t="inlineStr"/>
       <c r="K26" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1942 </t>
+          <t>00.12.1942</t>
         </is>
       </c>
       <c r="L26" s="12" t="inlineStr">
@@ -3043,7 +3039,11 @@
       <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="10" t="inlineStr"/>
       <c r="I27" s="10" t="inlineStr"/>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1291 стрелковый полк  110 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr">
         <is>
           <t>23.02.1945</t>
@@ -3224,7 +3224,7 @@
       <c r="J29" s="10" t="inlineStr"/>
       <c r="K29" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1943 </t>
+          <t>00.10.1943</t>
         </is>
       </c>
       <c r="L29" s="12" t="inlineStr">
@@ -3311,7 +3311,7 @@
       <c r="J30" s="10" t="inlineStr"/>
       <c r="K30" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L30" s="12" t="inlineStr">
@@ -3390,12 +3390,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I31" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 49936М</t>
-        </is>
-      </c>
-      <c r="J31" s="10" t="inlineStr"/>
+      <c r="I31" s="10" t="inlineStr"/>
+      <c r="J31" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта49936М </t>
+        </is>
+      </c>
       <c r="K31" s="10" t="inlineStr">
         <is>
           <t>6.03.1943</t>
@@ -3572,7 +3572,7 @@
       <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1943 </t>
+          <t>00.04.1943</t>
         </is>
       </c>
       <c r="L33" s="12" t="inlineStr">
@@ -3655,7 +3655,7 @@
       <c r="J34" s="10" t="inlineStr"/>
       <c r="K34" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1943 </t>
+          <t>00.04.1943</t>
         </is>
       </c>
       <c r="L34" s="12" t="inlineStr">
@@ -3735,7 +3735,11 @@
         </is>
       </c>
       <c r="I35" s="10" t="inlineStr"/>
-      <c r="J35" s="10" t="inlineStr"/>
+      <c r="J35" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 36 отдельный разведывательный батальон </t>
+        </is>
+      </c>
       <c r="K35" s="10" t="inlineStr">
         <is>
           <t>7.04.1942</t>
@@ -3821,12 +3825,12 @@
         </is>
       </c>
       <c r="H36" s="10" t="inlineStr"/>
-      <c r="I36" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 267 сд</t>
-        </is>
-      </c>
-      <c r="J36" s="10" t="inlineStr"/>
+      <c r="I36" s="10" t="inlineStr"/>
+      <c r="J36" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 267 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K36" s="10" t="inlineStr">
         <is>
           <t>7.04.1942</t>
@@ -4082,7 +4086,7 @@
       <c r="J39" s="10" t="inlineStr"/>
       <c r="K39" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1943 </t>
+          <t>00.02.1943</t>
         </is>
       </c>
       <c r="L39" s="12" t="inlineStr">
@@ -4169,7 +4173,7 @@
       <c r="J40" s="10" t="inlineStr"/>
       <c r="K40" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1943 </t>
+          <t>00.02.1943</t>
         </is>
       </c>
       <c r="L40" s="12" t="inlineStr">
@@ -4248,12 +4252,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I41" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 33 гв. сд</t>
-        </is>
-      </c>
-      <c r="J41" s="10" t="inlineStr"/>
+      <c r="I41" s="10" t="inlineStr"/>
+      <c r="J41" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33 гв. стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K41" s="10" t="inlineStr">
         <is>
           <t>19.01.1943</t>
@@ -4343,7 +4347,7 @@
       <c r="J42" s="10" t="inlineStr"/>
       <c r="K42" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1943 </t>
+          <t>00.12.1943</t>
         </is>
       </c>
       <c r="L42" s="12" t="inlineStr">
@@ -4513,12 +4517,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I44" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 290 сд</t>
-        </is>
-      </c>
-      <c r="J44" s="10" t="inlineStr"/>
+      <c r="I44" s="10" t="inlineStr"/>
+      <c r="J44" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 882 стрелковый полк  290 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K44" s="10" t="inlineStr">
         <is>
           <t>1.04.1942</t>
@@ -4608,7 +4612,7 @@
       <c r="J45" s="10" t="inlineStr"/>
       <c r="K45" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L45" s="12" t="inlineStr">
@@ -4691,12 +4695,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I46" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11А</t>
-        </is>
-      </c>
-      <c r="J46" s="10" t="inlineStr"/>
+      <c r="I46" s="10" t="inlineStr"/>
+      <c r="J46" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 642 стрелковый полк  200 стрелковая дивизия  11армия </t>
+        </is>
+      </c>
       <c r="K46" s="10" t="inlineStr">
         <is>
           <t>10.05.1942</t>
@@ -4786,12 +4790,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I47" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 27 гв. кп</t>
-        </is>
-      </c>
-      <c r="J47" s="10" t="inlineStr"/>
+      <c r="I47" s="10" t="inlineStr"/>
+      <c r="J47" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 гв. кавалерийский полк </t>
+        </is>
+      </c>
       <c r="K47" s="10" t="inlineStr">
         <is>
           <t>5.03.1944</t>
@@ -4885,17 +4889,13 @@
           <t xml:space="preserve"> рядовой 414 сп</t>
         </is>
       </c>
-      <c r="I48" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 18 сд</t>
-        </is>
-      </c>
-      <c r="J48" s="10" t="inlineStr"/>
-      <c r="K48" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00.10.е 1942 </t>
-        </is>
-      </c>
+      <c r="I48" s="10" t="inlineStr"/>
+      <c r="J48" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18 стрелковая дивизия  пропал без вести в октябригадае 1942 г. </t>
+        </is>
+      </c>
+      <c r="K48" s="10" t="inlineStr"/>
       <c r="L48" s="12" t="inlineStr">
         <is>
           <t>пропал без вести</t>
@@ -4976,7 +4976,7 @@
       <c r="J49" s="10" t="inlineStr"/>
       <c r="K49" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L49" s="12" t="inlineStr">
@@ -5055,7 +5055,7 @@
       <c r="J50" s="10" t="inlineStr"/>
       <c r="K50" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1942 </t>
+          <t>00.08.1942</t>
         </is>
       </c>
       <c r="L50" s="12" t="inlineStr">
@@ -5138,7 +5138,7 @@
       <c r="J51" s="10" t="inlineStr"/>
       <c r="K51" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.07.е 1942 </t>
+          <t>00.07.1942</t>
         </is>
       </c>
       <c r="L51" s="12" t="inlineStr">
@@ -5225,12 +5225,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I52" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 46 осб</t>
-        </is>
-      </c>
-      <c r="J52" s="10" t="inlineStr"/>
+      <c r="I52" s="10" t="inlineStr"/>
+      <c r="J52" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 46 отдельный стрелковый батальон </t>
+        </is>
+      </c>
       <c r="K52" s="10" t="inlineStr">
         <is>
           <t>21.03.1942</t>
@@ -5324,12 +5324,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I53" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23А</t>
-        </is>
-      </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="I53" s="10" t="inlineStr"/>
+      <c r="J53" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10 одорожно-строительный батальон  23армия </t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr">
         <is>
           <t>3.09.1941</t>
@@ -5415,12 +5415,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I54" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 310 сб</t>
-        </is>
-      </c>
-      <c r="J54" s="10" t="inlineStr"/>
+      <c r="I54" s="10" t="inlineStr"/>
+      <c r="J54" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 310 стрелковый батальон </t>
+        </is>
+      </c>
       <c r="K54" s="10" t="inlineStr">
         <is>
           <t>31.01.1942</t>
@@ -5514,7 +5514,7 @@
       <c r="J55" s="10" t="inlineStr"/>
       <c r="K55" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L55" s="12" t="inlineStr">
@@ -5685,7 +5685,11 @@
         </is>
       </c>
       <c r="I57" s="10" t="inlineStr"/>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 285 гв. стрелковый полк  93 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr">
         <is>
           <t>21.12.1943</t>
@@ -5779,12 +5783,12 @@
           <t xml:space="preserve"> ефрейтор</t>
         </is>
       </c>
-      <c r="I58" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 110 сд</t>
-        </is>
-      </c>
-      <c r="J58" s="10" t="inlineStr"/>
+      <c r="I58" s="10" t="inlineStr"/>
+      <c r="J58" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1291 стрелковый полк  110 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K58" s="10" t="inlineStr">
         <is>
           <t>23.02.1945</t>
@@ -5878,12 +5882,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I59" s="10" t="inlineStr">
-        <is>
-          <t>1 осб</t>
-        </is>
-      </c>
-      <c r="J59" s="10" t="inlineStr"/>
+      <c r="I59" s="10" t="inlineStr"/>
+      <c r="J59" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 отдельный стрелковый батальон </t>
+        </is>
+      </c>
       <c r="K59" s="10" t="inlineStr">
         <is>
           <t>28.08.1942</t>
@@ -5969,12 +5973,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I60" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 804 оатб</t>
-        </is>
-      </c>
-      <c r="J60" s="10" t="inlineStr"/>
+      <c r="I60" s="10" t="inlineStr"/>
+      <c r="J60" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 804 оатанковый батальон </t>
+        </is>
+      </c>
       <c r="K60" s="10" t="inlineStr">
         <is>
           <t>8.10.1942</t>
@@ -6056,12 +6060,12 @@
           <t xml:space="preserve"> старший сержант</t>
         </is>
       </c>
-      <c r="I61" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> орр 14</t>
-        </is>
-      </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="I61" s="10" t="inlineStr"/>
+      <c r="J61" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> отдельная разведывательная рота 14 </t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr">
         <is>
           <t>10.09.1943</t>
@@ -6147,12 +6151,12 @@
           <t xml:space="preserve"> старший сержант</t>
         </is>
       </c>
-      <c r="I62" s="10" t="inlineStr">
-        <is>
-          <t>1 свкд</t>
-        </is>
-      </c>
-      <c r="J62" s="10" t="inlineStr"/>
+      <c r="I62" s="10" t="inlineStr"/>
+      <c r="J62" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 свкавалерийская дивизия </t>
+        </is>
+      </c>
       <c r="K62" s="10" t="inlineStr">
         <is>
           <t>20.03.1945</t>
@@ -6242,12 +6246,12 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I63" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1258 сп</t>
-        </is>
-      </c>
-      <c r="J63" s="10" t="inlineStr"/>
+      <c r="I63" s="10" t="inlineStr"/>
+      <c r="J63" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта07745  378 стрелковая дивизия  1258 стрелковый полк </t>
+        </is>
+      </c>
       <c r="K63" s="10" t="inlineStr">
         <is>
           <t>12.08.1944</t>
@@ -6416,12 +6420,12 @@
           <t xml:space="preserve"> майор</t>
         </is>
       </c>
-      <c r="I65" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 18 сд</t>
-        </is>
-      </c>
-      <c r="J65" s="10" t="inlineStr"/>
+      <c r="I65" s="10" t="inlineStr"/>
+      <c r="J65" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K65" s="10" t="inlineStr">
         <is>
           <t>26.03.1943</t>
@@ -6515,7 +6519,7 @@
       <c r="J66" s="10" t="inlineStr"/>
       <c r="K66" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L66" s="12" t="inlineStr">
@@ -6685,11 +6689,7 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I68" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 94 инталп</t>
-        </is>
-      </c>
+      <c r="I68" s="10" t="inlineStr"/>
       <c r="J68" s="10" t="inlineStr"/>
       <c r="K68" s="10" t="inlineStr">
         <is>
@@ -6776,12 +6776,12 @@
           <t xml:space="preserve"> гв. ефрейтор</t>
         </is>
       </c>
-      <c r="I69" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 326 гв. минп</t>
-        </is>
-      </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="I69" s="10" t="inlineStr"/>
+      <c r="J69" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 326 гв. минометный полк </t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr">
         <is>
           <t>30.07.1944</t>
@@ -6875,7 +6875,7 @@
       <c r="J70" s="10" t="inlineStr"/>
       <c r="K70" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L70" s="12" t="inlineStr">
@@ -6958,7 +6958,7 @@
       <c r="J71" s="10" t="inlineStr"/>
       <c r="K71" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.05.е 1942 </t>
+          <t>00.05.1942</t>
         </is>
       </c>
       <c r="L71" s="12" t="inlineStr">
@@ -7041,12 +7041,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I72" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 49867</t>
-        </is>
-      </c>
-      <c r="J72" s="10" t="inlineStr"/>
+      <c r="I72" s="10" t="inlineStr"/>
+      <c r="J72" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта49867 </t>
+        </is>
+      </c>
       <c r="K72" s="10" t="inlineStr">
         <is>
           <t>18.03.1942</t>
@@ -7136,12 +7136,12 @@
           <t xml:space="preserve"> старший сержант</t>
         </is>
       </c>
-      <c r="I73" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 290 сд</t>
-        </is>
-      </c>
-      <c r="J73" s="10" t="inlineStr"/>
+      <c r="I73" s="10" t="inlineStr"/>
+      <c r="J73" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 878 стрелковый полк  290 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K73" s="10" t="inlineStr">
         <is>
           <t>17.08.1943</t>
@@ -7239,7 +7239,7 @@
       <c r="J74" s="10" t="inlineStr"/>
       <c r="K74" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L74" s="12" t="inlineStr">
@@ -7326,7 +7326,7 @@
       <c r="J75" s="10" t="inlineStr"/>
       <c r="K75" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L75" s="12" t="inlineStr">
@@ -7409,7 +7409,7 @@
       <c r="J76" s="10" t="inlineStr"/>
       <c r="K76" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L76" s="12" t="inlineStr">
@@ -7583,7 +7583,7 @@
       <c r="J78" s="10" t="inlineStr"/>
       <c r="K78" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1945 </t>
+          <t>00.03.1945</t>
         </is>
       </c>
       <c r="L78" s="12" t="inlineStr">
@@ -7662,12 +7662,12 @@
           <t xml:space="preserve"> гв. лейтенант</t>
         </is>
       </c>
-      <c r="I79" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 322 отмд</t>
-        </is>
-      </c>
-      <c r="J79" s="10" t="inlineStr"/>
+      <c r="I79" s="10" t="inlineStr"/>
+      <c r="J79" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 322 отмоторизованная дивизия </t>
+        </is>
+      </c>
       <c r="K79" s="10" t="inlineStr">
         <is>
           <t>5.01.1943</t>
@@ -7761,7 +7761,7 @@
       <c r="J80" s="10" t="inlineStr"/>
       <c r="K80" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L80" s="12" t="inlineStr">
@@ -7931,7 +7931,7 @@
       <c r="J82" s="10" t="inlineStr"/>
       <c r="K82" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1942 </t>
+          <t>00.11.1942</t>
         </is>
       </c>
       <c r="L82" s="12" t="inlineStr">
@@ -8018,7 +8018,7 @@
       <c r="J83" s="10" t="inlineStr"/>
       <c r="K83" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L83" s="12" t="inlineStr">
@@ -8101,12 +8101,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I84" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 256 сд</t>
-        </is>
-      </c>
-      <c r="J84" s="10" t="inlineStr"/>
+      <c r="I84" s="10" t="inlineStr"/>
+      <c r="J84" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 937 стрелковый полк  256 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K84" s="10" t="inlineStr">
         <is>
           <t>7.04.1944</t>
@@ -8196,7 +8196,7 @@
       <c r="J85" s="10" t="inlineStr"/>
       <c r="K85" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L85" s="12" t="inlineStr">
@@ -8283,7 +8283,7 @@
       <c r="J86" s="10" t="inlineStr"/>
       <c r="K86" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L86" s="12" t="inlineStr">
@@ -8370,12 +8370,12 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I87" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 288 сд</t>
-        </is>
-      </c>
-      <c r="J87" s="10" t="inlineStr"/>
+      <c r="I87" s="10" t="inlineStr"/>
+      <c r="J87" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 288 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K87" s="10" t="inlineStr">
         <is>
           <t>27.03.1942</t>
@@ -8465,7 +8465,7 @@
       <c r="J88" s="10" t="inlineStr"/>
       <c r="K88" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.06.е 1943 </t>
+          <t>00.06.1943</t>
         </is>
       </c>
       <c r="L88" s="12" t="inlineStr">
@@ -8631,7 +8631,7 @@
       <c r="J90" s="10" t="inlineStr"/>
       <c r="K90" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1943 </t>
+          <t>00.02.1943</t>
         </is>
       </c>
       <c r="L90" s="12" t="inlineStr">
@@ -8718,7 +8718,7 @@
       <c r="J91" s="10" t="inlineStr"/>
       <c r="K91" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L91" s="12" t="inlineStr">
@@ -8801,7 +8801,7 @@
       <c r="J92" s="10" t="inlineStr"/>
       <c r="K92" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1943 </t>
+          <t>00.04.1943</t>
         </is>
       </c>
       <c r="L92" s="12" t="inlineStr">
@@ -8884,12 +8884,12 @@
           <t xml:space="preserve"> мл. лейтенант</t>
         </is>
       </c>
-      <c r="I93" s="10" t="inlineStr">
-        <is>
-          <t>1 гв. кд</t>
-        </is>
-      </c>
-      <c r="J93" s="10" t="inlineStr"/>
+      <c r="I93" s="10" t="inlineStr"/>
+      <c r="J93" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 гв. кавалерийский полк 1 гв. кавалерийская дивизия </t>
+        </is>
+      </c>
       <c r="K93" s="10" t="inlineStr">
         <is>
           <t>12.08.1942</t>
@@ -9058,7 +9058,7 @@
       <c r="J95" s="10" t="inlineStr"/>
       <c r="K95" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1945 </t>
+          <t>00.01.1945</t>
         </is>
       </c>
       <c r="L95" s="12" t="inlineStr">
@@ -9141,12 +9141,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I96" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 сд</t>
-        </is>
-      </c>
-      <c r="J96" s="10" t="inlineStr"/>
+      <c r="I96" s="10" t="inlineStr"/>
+      <c r="J96" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K96" s="10" t="inlineStr">
         <is>
           <t>2.03.1942</t>
@@ -9232,12 +9232,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I97" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 49861а</t>
-        </is>
-      </c>
-      <c r="J97" s="10" t="inlineStr"/>
+      <c r="I97" s="10" t="inlineStr"/>
+      <c r="J97" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта49861а </t>
+        </is>
+      </c>
       <c r="K97" s="10" t="inlineStr">
         <is>
           <t>25.10.1943</t>
@@ -9327,17 +9327,13 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I98" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 сд</t>
-        </is>
-      </c>
-      <c r="J98" s="10" t="inlineStr"/>
-      <c r="K98" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00.11.е 1945 </t>
-        </is>
-      </c>
+      <c r="I98" s="10" t="inlineStr"/>
+      <c r="J98" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 стрелковая дивизия  погиб в ноябригадае 1945 г. </t>
+        </is>
+      </c>
+      <c r="K98" s="10" t="inlineStr"/>
       <c r="L98" s="12" t="inlineStr">
         <is>
           <t>погиб</t>
@@ -9426,7 +9422,7 @@
       <c r="J99" s="10" t="inlineStr"/>
       <c r="K99" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1941 </t>
+          <t>00.09.1941</t>
         </is>
       </c>
       <c r="L99" s="12" t="inlineStr">
@@ -9513,12 +9509,12 @@
           <t xml:space="preserve"> ефрейтор</t>
         </is>
       </c>
-      <c r="I100" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 314 сд</t>
-        </is>
-      </c>
-      <c r="J100" s="10" t="inlineStr"/>
+      <c r="I100" s="10" t="inlineStr"/>
+      <c r="J100" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1078 стрелковый полк  314 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K100" s="10" t="inlineStr">
         <is>
           <t>30.03.1945</t>
@@ -9952,11 +9948,7 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I105" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> д. Новоселки</t>
-        </is>
-      </c>
+      <c r="I105" s="10" t="inlineStr"/>
       <c r="J105" s="10" t="inlineStr"/>
       <c r="K105" s="10" t="inlineStr">
         <is>
@@ -10047,7 +10039,7 @@
       <c r="J106" s="10" t="inlineStr"/>
       <c r="K106" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.06.е 1942 </t>
+          <t>00.06.1942</t>
         </is>
       </c>
       <c r="L106" s="12" t="inlineStr">
@@ -10126,12 +10118,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I107" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 36517</t>
-        </is>
-      </c>
-      <c r="J107" s="10" t="inlineStr"/>
+      <c r="I107" s="10" t="inlineStr"/>
+      <c r="J107" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта36517 </t>
+        </is>
+      </c>
       <c r="K107" s="10" t="inlineStr">
         <is>
           <t>5.01.1944</t>
@@ -10221,12 +10213,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I108" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 214 сд</t>
-        </is>
-      </c>
-      <c r="J108" s="10" t="inlineStr"/>
+      <c r="I108" s="10" t="inlineStr"/>
+      <c r="J108" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 780 стрелковый полк  214 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K108" s="10" t="inlineStr">
         <is>
           <t>28.04.1945</t>
@@ -10411,12 +10403,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I110" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 125 сд</t>
-        </is>
-      </c>
-      <c r="J110" s="10" t="inlineStr"/>
+      <c r="I110" s="10" t="inlineStr"/>
+      <c r="J110" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 657 стрелковый полк  125 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K110" s="10" t="inlineStr">
         <is>
           <t>5.12.1941</t>
@@ -10506,11 +10498,7 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I111" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> умер 22. 04. 42 г.</t>
-        </is>
-      </c>
+      <c r="I111" s="10" t="inlineStr"/>
       <c r="J111" s="10" t="inlineStr"/>
       <c r="K111" s="10" t="inlineStr">
         <is>
@@ -10601,12 +10589,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I112" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 98 сд</t>
-        </is>
-      </c>
-      <c r="J112" s="10" t="inlineStr"/>
+      <c r="I112" s="10" t="inlineStr"/>
+      <c r="J112" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 98 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K112" s="10" t="inlineStr">
         <is>
           <t>7.01.1944</t>
@@ -10700,7 +10688,7 @@
       <c r="J113" s="10" t="inlineStr"/>
       <c r="K113" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1943 </t>
+          <t>00.02.1943</t>
         </is>
       </c>
       <c r="L113" s="12" t="inlineStr">
@@ -10787,7 +10775,7 @@
       <c r="J114" s="10" t="inlineStr"/>
       <c r="K114" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1943 </t>
+          <t>00.03.1943</t>
         </is>
       </c>
       <c r="L114" s="12" t="inlineStr">
@@ -10957,15 +10945,15 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I116" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> д. Авдотьино</t>
-        </is>
-      </c>
-      <c r="J116" s="10" t="inlineStr"/>
+      <c r="I116" s="10" t="inlineStr"/>
+      <c r="J116" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> д. армиявдотьино </t>
+        </is>
+      </c>
       <c r="K116" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1945 </t>
+          <t>00.04.1945</t>
         </is>
       </c>
       <c r="L116" s="12" t="inlineStr">
@@ -11135,12 +11123,12 @@
           <t xml:space="preserve"> мл. лейтенант</t>
         </is>
       </c>
-      <c r="I118" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 268 сд</t>
-        </is>
-      </c>
-      <c r="J118" s="10" t="inlineStr"/>
+      <c r="I118" s="10" t="inlineStr"/>
+      <c r="J118" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 952 стрелковый полк  268 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K118" s="10" t="inlineStr">
         <is>
           <t>31.08.1943</t>
@@ -11400,12 +11388,12 @@
           <t>младший сержант</t>
         </is>
       </c>
-      <c r="I121" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 294 сд</t>
-        </is>
-      </c>
-      <c r="J121" s="10" t="inlineStr"/>
+      <c r="I121" s="10" t="inlineStr"/>
+      <c r="J121" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 85 стрелковый полк  294 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K121" s="10" t="inlineStr">
         <is>
           <t>22.04.1945</t>
@@ -11495,7 +11483,7 @@
       <c r="J122" s="10" t="inlineStr"/>
       <c r="K122" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1942 </t>
+          <t>00.01.1942</t>
         </is>
       </c>
       <c r="L122" s="12" t="inlineStr">
@@ -11582,12 +11570,12 @@
           <t xml:space="preserve"> гв. младший лейтенант</t>
         </is>
       </c>
-      <c r="I123" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 20 гв. сд</t>
-        </is>
-      </c>
-      <c r="J123" s="10" t="inlineStr"/>
+      <c r="I123" s="10" t="inlineStr"/>
+      <c r="J123" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57 гв. стрелковый полк  20 гв. стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K123" s="10" t="inlineStr">
         <is>
           <t>20.08.1943</t>
@@ -11677,12 +11665,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I124" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 30663</t>
-        </is>
-      </c>
-      <c r="J124" s="10" t="inlineStr"/>
+      <c r="I124" s="10" t="inlineStr"/>
+      <c r="J124" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта30663 </t>
+        </is>
+      </c>
       <c r="K124" s="10" t="inlineStr">
         <is>
           <t>9.04.1944</t>
@@ -11780,7 +11768,7 @@
       <c r="J125" s="10" t="inlineStr"/>
       <c r="K125" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L125" s="12" t="inlineStr">
@@ -11950,7 +11938,7 @@
       <c r="J127" s="10" t="inlineStr"/>
       <c r="K127" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1942 </t>
+          <t>00.01.1942</t>
         </is>
       </c>
       <c r="L127" s="12" t="inlineStr">
@@ -12033,12 +12021,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I128" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 68463</t>
-        </is>
-      </c>
-      <c r="J128" s="10" t="inlineStr"/>
+      <c r="I128" s="10" t="inlineStr"/>
+      <c r="J128" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта68463 </t>
+        </is>
+      </c>
       <c r="K128" s="10" t="inlineStr">
         <is>
           <t>в1944</t>
@@ -12132,7 +12120,7 @@
       <c r="J129" s="10" t="inlineStr"/>
       <c r="K129" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L129" s="12" t="inlineStr">
@@ -12215,7 +12203,7 @@
       <c r="J130" s="10" t="inlineStr"/>
       <c r="K130" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1942 </t>
+          <t>00.11.1942</t>
         </is>
       </c>
       <c r="L130" s="12" t="inlineStr">
@@ -12298,7 +12286,7 @@
       <c r="J131" s="10" t="inlineStr"/>
       <c r="K131" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1943 </t>
+          <t>00.12.1943</t>
         </is>
       </c>
       <c r="L131" s="12" t="inlineStr">
@@ -12460,12 +12448,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I133" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 42626</t>
-        </is>
-      </c>
-      <c r="J133" s="10" t="inlineStr"/>
+      <c r="I133" s="10" t="inlineStr"/>
+      <c r="J133" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта42626 </t>
+        </is>
+      </c>
       <c r="K133" s="10" t="inlineStr">
         <is>
           <t>28.04.1943</t>
@@ -12638,7 +12626,7 @@
       <c r="J135" s="10" t="inlineStr"/>
       <c r="K135" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1943 </t>
+          <t>00.12.1943</t>
         </is>
       </c>
       <c r="L135" s="12" t="inlineStr">
@@ -12725,12 +12713,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I136" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 38А</t>
-        </is>
-      </c>
-      <c r="J136" s="10" t="inlineStr"/>
+      <c r="I136" s="10" t="inlineStr"/>
+      <c r="J136" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 492 стрелковый полк  199 стрелковая дивизия  38армия </t>
+        </is>
+      </c>
       <c r="K136" s="10" t="inlineStr">
         <is>
           <t>16.11.1941</t>
@@ -12824,7 +12812,7 @@
       <c r="J137" s="10" t="inlineStr"/>
       <c r="K137" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1942 </t>
+          <t>00.12.1942</t>
         </is>
       </c>
       <c r="L137" s="12" t="inlineStr">
@@ -13152,12 +13140,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I141" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2й отд. орд. А. Невского полк спецслужбы МГБ</t>
-        </is>
-      </c>
-      <c r="J141" s="10" t="inlineStr"/>
+      <c r="I141" s="10" t="inlineStr"/>
+      <c r="J141" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2й отд. орд. армия. Невского полк спецслужбы МГБ </t>
+        </is>
+      </c>
       <c r="K141" s="10" t="inlineStr"/>
       <c r="L141" s="12" t="inlineStr">
         <is>
@@ -13243,7 +13231,7 @@
       <c r="J142" s="10" t="inlineStr"/>
       <c r="K142" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1943 </t>
+          <t>00.04.1943</t>
         </is>
       </c>
       <c r="L142" s="12" t="inlineStr">
@@ -13326,7 +13314,7 @@
       <c r="J143" s="10" t="inlineStr"/>
       <c r="K143" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L143" s="12" t="inlineStr">
@@ -13413,7 +13401,7 @@
       <c r="J144" s="10" t="inlineStr"/>
       <c r="K144" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L144" s="12" t="inlineStr">
@@ -13583,12 +13571,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I146" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ленинградский фронт</t>
-        </is>
-      </c>
-      <c r="J146" s="10" t="inlineStr"/>
+      <c r="I146" s="10" t="inlineStr"/>
+      <c r="J146" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 136 район авиационного базированияочий бат.  Ленинграртиллерийская дивизияский фронт </t>
+        </is>
+      </c>
       <c r="K146" s="10" t="inlineStr">
         <is>
           <t>9.12.1944</t>
@@ -13678,7 +13666,7 @@
       <c r="J147" s="10" t="inlineStr"/>
       <c r="K147" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1942 </t>
+          <t>00.09.1942</t>
         </is>
       </c>
       <c r="L147" s="12" t="inlineStr">
@@ -13761,7 +13749,7 @@
       <c r="J148" s="10" t="inlineStr"/>
       <c r="K148" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1944 </t>
+          <t>00.08.1944</t>
         </is>
       </c>
       <c r="L148" s="12" t="inlineStr">
@@ -13844,7 +13832,7 @@
       <c r="J149" s="10" t="inlineStr"/>
       <c r="K149" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L149" s="12" t="inlineStr">
@@ -13923,12 +13911,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I150" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 84 сд</t>
-        </is>
-      </c>
-      <c r="J150" s="10" t="inlineStr"/>
+      <c r="I150" s="10" t="inlineStr"/>
+      <c r="J150" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 31 стрелковый полк  84 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K150" s="10" t="inlineStr">
         <is>
           <t>16.04.1945</t>
@@ -14018,7 +14006,7 @@
       <c r="J151" s="10" t="inlineStr"/>
       <c r="K151" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1943 </t>
+          <t>00.02.1943</t>
         </is>
       </c>
       <c r="L151" s="12" t="inlineStr">
@@ -14101,7 +14089,7 @@
       <c r="J152" s="10" t="inlineStr"/>
       <c r="K152" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1941 </t>
+          <t>00.09.1941</t>
         </is>
       </c>
       <c r="L152" s="12" t="inlineStr">
@@ -14184,7 +14172,7 @@
       <c r="J153" s="10" t="inlineStr"/>
       <c r="K153" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1941 </t>
+          <t>00.09.1941</t>
         </is>
       </c>
       <c r="L153" s="12" t="inlineStr">
@@ -14445,12 +14433,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I156" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 46 осбр</t>
-        </is>
-      </c>
-      <c r="J156" s="10" t="inlineStr"/>
+      <c r="I156" s="10" t="inlineStr"/>
+      <c r="J156" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 46 осбригада </t>
+        </is>
+      </c>
       <c r="K156" s="10" t="inlineStr">
         <is>
           <t>2.03.1943</t>
@@ -14540,11 +14528,7 @@
         </is>
       </c>
       <c r="H157" s="10" t="inlineStr"/>
-      <c r="I157" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> д. Калтырино</t>
-        </is>
-      </c>
+      <c r="I157" s="10" t="inlineStr"/>
       <c r="J157" s="10" t="inlineStr"/>
       <c r="K157" s="10" t="inlineStr">
         <is>
@@ -14639,7 +14623,7 @@
       <c r="J158" s="10" t="inlineStr"/>
       <c r="K158" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1941 </t>
+          <t>00.08.1941</t>
         </is>
       </c>
       <c r="L158" s="12" t="inlineStr">
@@ -14719,7 +14703,11 @@
         </is>
       </c>
       <c r="I159" s="10" t="inlineStr"/>
-      <c r="J159" s="10" t="inlineStr"/>
+      <c r="J159" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта1626 </t>
+        </is>
+      </c>
       <c r="K159" s="10" t="inlineStr">
         <is>
           <t>20.02.1943</t>
@@ -14809,7 +14797,7 @@
       <c r="J160" s="10" t="inlineStr"/>
       <c r="K160" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1942 </t>
+          <t>00.12.1942</t>
         </is>
       </c>
       <c r="L160" s="12" t="inlineStr">
@@ -14896,7 +14884,7 @@
       <c r="J161" s="10" t="inlineStr"/>
       <c r="K161" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1943 </t>
+          <t>00.03.1943</t>
         </is>
       </c>
       <c r="L161" s="12" t="inlineStr">
@@ -14980,7 +14968,11 @@
         </is>
       </c>
       <c r="I162" s="10" t="inlineStr"/>
-      <c r="J162" s="10" t="inlineStr"/>
+      <c r="J162" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 132 гв. стрелковый полк  42 гв. стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K162" s="10" t="inlineStr"/>
       <c r="L162" s="12" t="inlineStr">
         <is>
@@ -15062,12 +15054,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I163" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 71 сд</t>
-        </is>
-      </c>
-      <c r="J163" s="10" t="inlineStr"/>
+      <c r="I163" s="10" t="inlineStr"/>
+      <c r="J163" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 126 стрелковый полк  71 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K163" s="10" t="inlineStr">
         <is>
           <t>5.02.1945</t>
@@ -15165,7 +15157,7 @@
       <c r="J164" s="10" t="inlineStr"/>
       <c r="K164" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L164" s="12" t="inlineStr">
@@ -15331,7 +15323,7 @@
       <c r="J166" s="10" t="inlineStr"/>
       <c r="K166" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L166" s="12" t="inlineStr">
@@ -15414,7 +15406,7 @@
       <c r="J167" s="10" t="inlineStr"/>
       <c r="K167" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1942 </t>
+          <t>00.01.1942</t>
         </is>
       </c>
       <c r="L167" s="12" t="inlineStr">
@@ -15501,12 +15493,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I168" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 34 мсбр</t>
-        </is>
-      </c>
-      <c r="J168" s="10" t="inlineStr"/>
+      <c r="I168" s="10" t="inlineStr"/>
+      <c r="J168" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34 мсбригада </t>
+        </is>
+      </c>
       <c r="K168" s="10" t="inlineStr">
         <is>
           <t>11.02.1943</t>
@@ -15592,7 +15584,7 @@
       <c r="J169" s="10" t="inlineStr"/>
       <c r="K169" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1943 </t>
+          <t>00.02.1943</t>
         </is>
       </c>
       <c r="L169" s="12" t="inlineStr">
@@ -15758,15 +15750,15 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I171" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 51876</t>
-        </is>
-      </c>
-      <c r="J171" s="10" t="inlineStr"/>
+      <c r="I171" s="10" t="inlineStr"/>
+      <c r="J171" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта51876 </t>
+        </is>
+      </c>
       <c r="K171" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.06.е 1943 </t>
+          <t>00.06.1943</t>
         </is>
       </c>
       <c r="L171" s="12" t="inlineStr">
@@ -15857,7 +15849,7 @@
       <c r="J172" s="10" t="inlineStr"/>
       <c r="K172" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1943 </t>
+          <t>00.03.1943</t>
         </is>
       </c>
       <c r="L172" s="12" t="inlineStr">
@@ -16031,7 +16023,7 @@
       <c r="J174" s="10" t="inlineStr"/>
       <c r="K174" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L174" s="12" t="inlineStr">
@@ -16197,7 +16189,7 @@
       <c r="J176" s="10" t="inlineStr"/>
       <c r="K176" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1944 </t>
+          <t>00.09.1944</t>
         </is>
       </c>
       <c r="L176" s="12" t="inlineStr">
@@ -16277,7 +16269,11 @@
       <c r="G177" s="10" t="inlineStr"/>
       <c r="H177" s="10" t="inlineStr"/>
       <c r="I177" s="10" t="inlineStr"/>
-      <c r="J177" s="10" t="inlineStr"/>
+      <c r="J177" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Белорусстрелковый корпусий штаб партизанстрелковый корпусого движения </t>
+        </is>
+      </c>
       <c r="K177" s="10" t="inlineStr">
         <is>
           <t>18.12.1943</t>
@@ -16367,12 +16363,12 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I178" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 290 сд</t>
-        </is>
-      </c>
-      <c r="J178" s="10" t="inlineStr"/>
+      <c r="I178" s="10" t="inlineStr"/>
+      <c r="J178" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 882 кстрелковый полк  290 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K178" s="10" t="inlineStr">
         <is>
           <t>24.12.1954</t>
@@ -16466,7 +16462,7 @@
       <c r="J179" s="10" t="inlineStr"/>
       <c r="K179" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1942 </t>
+          <t>00.09.1942</t>
         </is>
       </c>
       <c r="L179" s="12" t="inlineStr">
@@ -16636,15 +16632,11 @@
           <t>младший сержант</t>
         </is>
       </c>
-      <c r="I181" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> мл. сержант</t>
-        </is>
-      </c>
+      <c r="I181" s="10" t="inlineStr"/>
       <c r="J181" s="10" t="inlineStr"/>
       <c r="K181" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L181" s="12" t="inlineStr">
@@ -16727,12 +16719,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I182" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 252 сд</t>
-        </is>
-      </c>
-      <c r="J182" s="10" t="inlineStr"/>
+      <c r="I182" s="10" t="inlineStr"/>
+      <c r="J182" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 252 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K182" s="10" t="inlineStr">
         <is>
           <t>7.01.1942</t>
@@ -16917,12 +16909,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I184" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> захоронен в Ленинградской обл.</t>
-        </is>
-      </c>
-      <c r="J184" s="10" t="inlineStr"/>
+      <c r="I184" s="10" t="inlineStr"/>
+      <c r="J184" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> захоронен в Ленинграртиллерийская дивизияской обл. </t>
+        </is>
+      </c>
       <c r="K184" s="10" t="inlineStr">
         <is>
           <t>23.02.1944</t>
@@ -17016,12 +17008,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I185" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 13 вс</t>
-        </is>
-      </c>
-      <c r="J185" s="10" t="inlineStr"/>
+      <c r="I185" s="10" t="inlineStr"/>
+      <c r="J185" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 обмоторизованный полк </t>
+        </is>
+      </c>
       <c r="K185" s="10" t="inlineStr">
         <is>
           <t>0.12.1941</t>
@@ -17111,12 +17103,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I186" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 285 сд</t>
-        </is>
-      </c>
-      <c r="J186" s="10" t="inlineStr"/>
+      <c r="I186" s="10" t="inlineStr"/>
+      <c r="J186" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1013 стрелковый полк  285 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K186" s="10" t="inlineStr">
         <is>
           <t>4.11.1941</t>
@@ -17202,7 +17194,7 @@
       <c r="J187" s="10" t="inlineStr"/>
       <c r="K187" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L187" s="12" t="inlineStr">
@@ -17289,12 +17281,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I188" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11 гв. сд</t>
-        </is>
-      </c>
-      <c r="J188" s="10" t="inlineStr"/>
+      <c r="I188" s="10" t="inlineStr"/>
+      <c r="J188" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 гв. стрелковый полк  11 гв. стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K188" s="10" t="inlineStr">
         <is>
           <t>8.03.1942</t>
@@ -17388,12 +17380,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I189" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 173 Оршанская сд</t>
-        </is>
-      </c>
-      <c r="J189" s="10" t="inlineStr"/>
+      <c r="I189" s="10" t="inlineStr"/>
+      <c r="J189" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 173 Оршанская стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K189" s="10" t="inlineStr">
         <is>
           <t>21.08.1942</t>
@@ -17487,12 +17479,12 @@
           <t xml:space="preserve"> гв. ефрейтор</t>
         </is>
       </c>
-      <c r="I190" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 26 гв. сд</t>
-        </is>
-      </c>
-      <c r="J190" s="10" t="inlineStr"/>
+      <c r="I190" s="10" t="inlineStr"/>
+      <c r="J190" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 77 гв. стрелковый полк  26 гв. стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K190" s="10" t="inlineStr">
         <is>
           <t>25.11.1942</t>
@@ -17586,12 +17578,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I191" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 172 сд</t>
-        </is>
-      </c>
-      <c r="J191" s="10" t="inlineStr"/>
+      <c r="I191" s="10" t="inlineStr"/>
+      <c r="J191" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 172 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K191" s="10" t="inlineStr">
         <is>
           <t>120.12.1942</t>
@@ -17681,7 +17673,7 @@
       <c r="J192" s="10" t="inlineStr"/>
       <c r="K192" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1942 </t>
+          <t>00.01.1942</t>
         </is>
       </c>
       <c r="L192" s="12" t="inlineStr">
@@ -17768,12 +17760,12 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I193" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16А</t>
-        </is>
-      </c>
-      <c r="J193" s="10" t="inlineStr"/>
+      <c r="I193" s="10" t="inlineStr"/>
+      <c r="J193" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16армия </t>
+        </is>
+      </c>
       <c r="K193" s="10" t="inlineStr">
         <is>
           <t>31.05.1942</t>
@@ -17863,7 +17855,7 @@
       <c r="J194" s="10" t="inlineStr"/>
       <c r="K194" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1944 </t>
+          <t>00.03.1944</t>
         </is>
       </c>
       <c r="L194" s="12" t="inlineStr">
@@ -17950,12 +17942,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I195" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 29 гв. Ельнинская сд</t>
-        </is>
-      </c>
-      <c r="J195" s="10" t="inlineStr"/>
+      <c r="I195" s="10" t="inlineStr"/>
+      <c r="J195" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93 гв. стрелковый полк  29 гв. Ельнинская стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K195" s="10" t="inlineStr">
         <is>
           <t>25.09.1944</t>
@@ -18049,12 +18041,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I196" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 171 ч сп</t>
-        </is>
-      </c>
-      <c r="J196" s="10" t="inlineStr"/>
+      <c r="I196" s="10" t="inlineStr"/>
+      <c r="J196" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 171 ч стрелковый полк </t>
+        </is>
+      </c>
       <c r="K196" s="10" t="inlineStr">
         <is>
           <t>2.08.1944</t>
@@ -18148,12 +18140,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I197" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 233 азсп</t>
-        </is>
-      </c>
-      <c r="J197" s="10" t="inlineStr"/>
+      <c r="I197" s="10" t="inlineStr"/>
+      <c r="J197" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 233 армейский запасной стрелковый полк </t>
+        </is>
+      </c>
       <c r="K197" s="10" t="inlineStr">
         <is>
           <t>23.01.1943</t>
@@ -18243,12 +18235,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I198" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 314 сд</t>
-        </is>
-      </c>
-      <c r="J198" s="10" t="inlineStr"/>
+      <c r="I198" s="10" t="inlineStr"/>
+      <c r="J198" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1016 стрелковый полк  314 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K198" s="10" t="inlineStr">
         <is>
           <t>13.06.1942</t>
@@ -18338,12 +18330,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I199" s="10" t="inlineStr">
-        <is>
-          <t>1 гв. мсд</t>
-        </is>
-      </c>
-      <c r="J199" s="10" t="inlineStr"/>
+      <c r="I199" s="10" t="inlineStr"/>
+      <c r="J199" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 гв. мотострелковый полк 1 гв. мстрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K199" s="10" t="inlineStr">
         <is>
           <t>29.02.1942</t>
@@ -18513,7 +18505,11 @@
         </is>
       </c>
       <c r="I201" s="10" t="inlineStr"/>
-      <c r="J201" s="10" t="inlineStr"/>
+      <c r="J201" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта43156 </t>
+        </is>
+      </c>
       <c r="K201" s="10" t="inlineStr">
         <is>
           <t>30.11.1943</t>
@@ -18607,7 +18603,7 @@
       <c r="J202" s="10" t="inlineStr"/>
       <c r="K202" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1943 </t>
+          <t>00.09.1943</t>
         </is>
       </c>
       <c r="L202" s="12" t="inlineStr">
@@ -18690,7 +18686,7 @@
       <c r="J203" s="10" t="inlineStr"/>
       <c r="K203" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1944 </t>
+          <t>00.04.1944</t>
         </is>
       </c>
       <c r="L203" s="12" t="inlineStr">
@@ -18777,7 +18773,7 @@
       <c r="J204" s="10" t="inlineStr"/>
       <c r="K204" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L204" s="12" t="inlineStr">
@@ -18864,7 +18860,7 @@
       <c r="J205" s="10" t="inlineStr"/>
       <c r="K205" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L205" s="12" t="inlineStr">
@@ -18947,12 +18943,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I206" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 324 сд</t>
-        </is>
-      </c>
-      <c r="J206" s="10" t="inlineStr"/>
+      <c r="I206" s="10" t="inlineStr"/>
+      <c r="J206" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1093 стрелковый полк  324 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K206" s="10" t="inlineStr">
         <is>
           <t>14.07.1942</t>
@@ -19129,12 +19125,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I208" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 290 сд</t>
-        </is>
-      </c>
-      <c r="J208" s="10" t="inlineStr"/>
+      <c r="I208" s="10" t="inlineStr"/>
+      <c r="J208" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 885 стрелковый полк  290 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K208" s="10" t="inlineStr">
         <is>
           <t>11.04.1942</t>
@@ -19307,7 +19303,7 @@
       <c r="J210" s="10" t="inlineStr"/>
       <c r="K210" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1942 </t>
+          <t>00.10.1942</t>
         </is>
       </c>
       <c r="L210" s="12" t="inlineStr">
@@ -19394,12 +19390,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I211" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185 сд</t>
-        </is>
-      </c>
-      <c r="J211" s="10" t="inlineStr"/>
+      <c r="I211" s="10" t="inlineStr"/>
+      <c r="J211" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 280 стрелковый полк  185 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K211" s="10" t="inlineStr">
         <is>
           <t>10.04.1944</t>
@@ -19493,7 +19489,7 @@
       <c r="J212" s="10" t="inlineStr"/>
       <c r="K212" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1944 </t>
+          <t>00.02.1944</t>
         </is>
       </c>
       <c r="L212" s="12" t="inlineStr">
@@ -19580,12 +19576,12 @@
           <t>старший сержант</t>
         </is>
       </c>
-      <c r="I213" s="10" t="inlineStr">
-        <is>
-          <t>3 Укр. ф.</t>
-        </is>
-      </c>
-      <c r="J213" s="10" t="inlineStr"/>
+      <c r="I213" s="10" t="inlineStr"/>
+      <c r="J213" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта31059 </t>
+        </is>
+      </c>
       <c r="K213" s="10" t="inlineStr">
         <is>
           <t>22.12.1943</t>
@@ -19679,7 +19675,7 @@
       <c r="J214" s="10" t="inlineStr"/>
       <c r="K214" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L214" s="12" t="inlineStr">
@@ -19853,12 +19849,12 @@
           <t xml:space="preserve"> лейтенант</t>
         </is>
       </c>
-      <c r="I216" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 416 сп</t>
-        </is>
-      </c>
-      <c r="J216" s="10" t="inlineStr"/>
+      <c r="I216" s="10" t="inlineStr"/>
+      <c r="J216" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 112 стрелковая дивизия  416 стрелковый полк </t>
+        </is>
+      </c>
       <c r="K216" s="10" t="inlineStr">
         <is>
           <t>3.10.1943</t>
@@ -19940,12 +19936,12 @@
           <t xml:space="preserve"> старшина</t>
         </is>
       </c>
-      <c r="I217" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 28655</t>
-        </is>
-      </c>
-      <c r="J217" s="10" t="inlineStr"/>
+      <c r="I217" s="10" t="inlineStr"/>
+      <c r="J217" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта28655 </t>
+        </is>
+      </c>
       <c r="K217" s="10" t="inlineStr">
         <is>
           <t>18.10.1943</t>
@@ -20035,7 +20031,7 @@
       <c r="J218" s="10" t="inlineStr"/>
       <c r="K218" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1942 </t>
+          <t>00.08.1942</t>
         </is>
       </c>
       <c r="L218" s="12" t="inlineStr">
@@ -20118,7 +20114,7 @@
       <c r="J219" s="10" t="inlineStr"/>
       <c r="K219" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1941 </t>
+          <t>00.09.1941</t>
         </is>
       </c>
       <c r="L219" s="12" t="inlineStr">
@@ -20201,12 +20197,12 @@
           <t xml:space="preserve"> ефрейтор</t>
         </is>
       </c>
-      <c r="I220" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 348 сд</t>
-        </is>
-      </c>
-      <c r="J220" s="10" t="inlineStr"/>
+      <c r="I220" s="10" t="inlineStr"/>
+      <c r="J220" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1174 стрелковый полк  348 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K220" s="10" t="inlineStr">
         <is>
           <t>13.07.1943</t>
@@ -20300,12 +20296,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I221" s="10" t="inlineStr">
-        <is>
-          <t>2 осб</t>
-        </is>
-      </c>
-      <c r="J221" s="10" t="inlineStr"/>
+      <c r="I221" s="10" t="inlineStr"/>
+      <c r="J221" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 отдельный стрелковый батальон </t>
+        </is>
+      </c>
       <c r="K221" s="10" t="inlineStr">
         <is>
           <t>15.09.1943</t>
@@ -20399,12 +20395,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I222" s="10" t="inlineStr">
-        <is>
-          <t>9 сд</t>
-        </is>
-      </c>
-      <c r="J222" s="10" t="inlineStr"/>
+      <c r="I222" s="10" t="inlineStr"/>
+      <c r="J222" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 230 гаубичный артиллерийский полк 9 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K222" s="10" t="inlineStr">
         <is>
           <t>5.02.1945</t>
@@ -20498,12 +20494,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I223" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 244 сд</t>
-        </is>
-      </c>
-      <c r="J223" s="10" t="inlineStr"/>
+      <c r="I223" s="10" t="inlineStr"/>
+      <c r="J223" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 914 стрелковый полк  244 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K223" s="10" t="inlineStr">
         <is>
           <t>24.2.1943</t>
@@ -20589,7 +20585,7 @@
       <c r="J224" s="10" t="inlineStr"/>
       <c r="K224" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1943 </t>
+          <t>00.08.1943</t>
         </is>
       </c>
       <c r="L224" s="12" t="inlineStr">
@@ -20672,12 +20668,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I225" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 244 сд</t>
-        </is>
-      </c>
-      <c r="J225" s="10" t="inlineStr"/>
+      <c r="I225" s="10" t="inlineStr"/>
+      <c r="J225" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 907 стрелковый полк  244 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K225" s="10" t="inlineStr">
         <is>
           <t>24.02.1943</t>
@@ -20767,12 +20763,12 @@
           <t xml:space="preserve"> лейтенант</t>
         </is>
       </c>
-      <c r="I226" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 229 сд</t>
-        </is>
-      </c>
-      <c r="J226" s="10" t="inlineStr"/>
+      <c r="I226" s="10" t="inlineStr"/>
+      <c r="J226" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 783 стрелковый полк  229 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K226" s="10" t="inlineStr">
         <is>
           <t>в1942</t>
@@ -20941,12 +20937,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I228" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 39378</t>
-        </is>
-      </c>
-      <c r="J228" s="10" t="inlineStr"/>
+      <c r="I228" s="10" t="inlineStr"/>
+      <c r="J228" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта39378 </t>
+        </is>
+      </c>
       <c r="K228" s="10" t="inlineStr">
         <is>
           <t>23.04.1945</t>
@@ -21028,7 +21024,7 @@
       <c r="J229" s="10" t="inlineStr"/>
       <c r="K229" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1943 </t>
+          <t>00.08.1943</t>
         </is>
       </c>
       <c r="L229" s="12" t="inlineStr">
@@ -21269,7 +21265,7 @@
       <c r="J232" s="10" t="inlineStr"/>
       <c r="K232" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1942 </t>
+          <t>00.04.1942</t>
         </is>
       </c>
       <c r="L232" s="12" t="inlineStr">
@@ -21356,12 +21352,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I233" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 344 сд</t>
-        </is>
-      </c>
-      <c r="J233" s="10" t="inlineStr"/>
+      <c r="I233" s="10" t="inlineStr"/>
+      <c r="J233" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 384 стрелковый полк  344 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K233" s="10" t="inlineStr">
         <is>
           <t>2.03.1942</t>
@@ -21451,7 +21447,7 @@
       <c r="J234" s="10" t="inlineStr"/>
       <c r="K234" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1942 </t>
+          <t>00.09.1942</t>
         </is>
       </c>
       <c r="L234" s="12" t="inlineStr">
@@ -21629,12 +21625,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I236" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 193 сд</t>
-        </is>
-      </c>
-      <c r="J236" s="10" t="inlineStr"/>
+      <c r="I236" s="10" t="inlineStr"/>
+      <c r="J236" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 193 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K236" s="10" t="inlineStr">
         <is>
           <t>18.10.1942</t>
@@ -21728,12 +21724,12 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I237" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 291 сд</t>
-        </is>
-      </c>
-      <c r="J237" s="10" t="inlineStr"/>
+      <c r="I237" s="10" t="inlineStr"/>
+      <c r="J237" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 181 стрелковый полк  291 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K237" s="10" t="inlineStr">
         <is>
           <t>20.12.1941</t>
@@ -21827,12 +21823,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I238" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 139 сд</t>
-        </is>
-      </c>
-      <c r="J238" s="10" t="inlineStr"/>
+      <c r="I238" s="10" t="inlineStr"/>
+      <c r="J238" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 609 стрелковый полк  139 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K238" s="10" t="inlineStr"/>
       <c r="L238" s="12" t="inlineStr">
         <is>
@@ -21922,7 +21918,7 @@
       <c r="J239" s="10" t="inlineStr"/>
       <c r="K239" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L239" s="12" t="inlineStr">
@@ -22005,7 +22001,7 @@
       <c r="J240" s="10" t="inlineStr"/>
       <c r="K240" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1943 </t>
+          <t>00.02.1943</t>
         </is>
       </c>
       <c r="L240" s="12" t="inlineStr">
@@ -22175,12 +22171,12 @@
           <t xml:space="preserve"> мл. лейтенант</t>
         </is>
       </c>
-      <c r="I242" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5А</t>
-        </is>
-      </c>
-      <c r="J242" s="10" t="inlineStr"/>
+      <c r="I242" s="10" t="inlineStr"/>
+      <c r="J242" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40 стрелковый полк  50 стрелковая дивизия  5армия </t>
+        </is>
+      </c>
       <c r="K242" s="10" t="inlineStr">
         <is>
           <t>в1941</t>
@@ -22270,15 +22266,11 @@
           <t>младший сержант</t>
         </is>
       </c>
-      <c r="I243" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> мл. сержант</t>
-        </is>
-      </c>
+      <c r="I243" s="10" t="inlineStr"/>
       <c r="J243" s="10" t="inlineStr"/>
       <c r="K243" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L243" s="12" t="inlineStr">
@@ -22361,7 +22353,7 @@
       <c r="J244" s="10" t="inlineStr"/>
       <c r="K244" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1942 </t>
+          <t>00.04.1942</t>
         </is>
       </c>
       <c r="L244" s="12" t="inlineStr">
@@ -22614,12 +22606,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I247" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 173 сп</t>
-        </is>
-      </c>
-      <c r="J247" s="10" t="inlineStr"/>
+      <c r="I247" s="10" t="inlineStr"/>
+      <c r="J247" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 стрелковая дивизия  173 стрелковый полк </t>
+        </is>
+      </c>
       <c r="K247" s="10" t="inlineStr">
         <is>
           <t>13.03.1945</t>
@@ -22804,12 +22796,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I249" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16А</t>
-        </is>
-      </c>
-      <c r="J249" s="10" t="inlineStr"/>
+      <c r="I249" s="10" t="inlineStr"/>
+      <c r="J249" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1091 стрелковый полк  324 стрелковая дивизия  16армия </t>
+        </is>
+      </c>
       <c r="K249" s="10" t="inlineStr">
         <is>
           <t>28.03.1942</t>
@@ -23081,7 +23073,7 @@
       <c r="J252" s="10" t="inlineStr"/>
       <c r="K252" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L252" s="12" t="inlineStr">
@@ -23160,15 +23152,15 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I253" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 42621</t>
-        </is>
-      </c>
-      <c r="J253" s="10" t="inlineStr"/>
+      <c r="I253" s="10" t="inlineStr"/>
+      <c r="J253" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта42621 </t>
+        </is>
+      </c>
       <c r="K253" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1944 </t>
+          <t>00.01.1944</t>
         </is>
       </c>
       <c r="L253" s="12" t="inlineStr">
@@ -23255,12 +23247,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I254" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 321 сд</t>
-        </is>
-      </c>
-      <c r="J254" s="10" t="inlineStr"/>
+      <c r="I254" s="10" t="inlineStr"/>
+      <c r="J254" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 79 стрелковый полк  321 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K254" s="10" t="inlineStr">
         <is>
           <t>30.07.1944</t>
@@ -23346,12 +23338,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I255" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 163 сд</t>
-        </is>
-      </c>
-      <c r="J255" s="10" t="inlineStr"/>
+      <c r="I255" s="10" t="inlineStr"/>
+      <c r="J255" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1318 стрелковый полк  163 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K255" s="10" t="inlineStr">
         <is>
           <t>17.07.1942</t>
@@ -23445,7 +23437,7 @@
       <c r="J256" s="10" t="inlineStr"/>
       <c r="K256" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1943 </t>
+          <t>00.01.1943</t>
         </is>
       </c>
       <c r="L256" s="12" t="inlineStr">
@@ -23528,7 +23520,7 @@
       <c r="J257" s="10" t="inlineStr"/>
       <c r="K257" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L257" s="12" t="inlineStr">
@@ -23687,7 +23679,11 @@
       <c r="G259" s="10" t="inlineStr"/>
       <c r="H259" s="10" t="inlineStr"/>
       <c r="I259" s="10" t="inlineStr"/>
-      <c r="J259" s="10" t="inlineStr"/>
+      <c r="J259" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1095 стрелковый полк  324 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K259" s="10" t="inlineStr">
         <is>
           <t>25.01.1942</t>
@@ -23959,12 +23955,12 @@
           <t xml:space="preserve"> лейтенант</t>
         </is>
       </c>
-      <c r="I262" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 51А</t>
-        </is>
-      </c>
-      <c r="J262" s="10" t="inlineStr"/>
+      <c r="I262" s="10" t="inlineStr"/>
+      <c r="J262" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 366 стрелковый полк  126 стрелковая дивизия  51армия </t>
+        </is>
+      </c>
       <c r="K262" s="10" t="inlineStr">
         <is>
           <t>1.12.1942</t>
@@ -24133,12 +24129,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I264" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 324 сд</t>
-        </is>
-      </c>
-      <c r="J264" s="10" t="inlineStr"/>
+      <c r="I264" s="10" t="inlineStr"/>
+      <c r="J264" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1095 стрелковый полк  324 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K264" s="10" t="inlineStr">
         <is>
           <t>25.01.1942</t>
@@ -24406,7 +24402,7 @@
       <c r="J267" s="10" t="inlineStr"/>
       <c r="K267" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L267" s="12" t="inlineStr">
@@ -24493,12 +24489,12 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I268" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 338 сд</t>
-        </is>
-      </c>
-      <c r="J268" s="10" t="inlineStr"/>
+      <c r="I268" s="10" t="inlineStr"/>
+      <c r="J268" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 338 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K268" s="10" t="inlineStr">
         <is>
           <t>27.01.1945</t>
@@ -24675,7 +24671,7 @@
       <c r="J270" s="10" t="inlineStr"/>
       <c r="K270" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1942 </t>
+          <t>00.08.1942</t>
         </is>
       </c>
       <c r="L270" s="12" t="inlineStr">
@@ -24758,7 +24754,7 @@
       <c r="J271" s="10" t="inlineStr"/>
       <c r="K271" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L271" s="12" t="inlineStr">
@@ -24845,12 +24841,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I272" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 269 птдн</t>
-        </is>
-      </c>
-      <c r="J272" s="10" t="inlineStr"/>
+      <c r="I272" s="10" t="inlineStr"/>
+      <c r="J272" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 269 птанковая дивизиян  пропал без вести 10. 08. 42 г. в Калининстрелковый корпусой обл. </t>
+        </is>
+      </c>
       <c r="K272" s="10" t="inlineStr">
         <is>
           <t>10.08.1942</t>
@@ -24932,12 +24928,12 @@
           <t>лейтенант</t>
         </is>
       </c>
-      <c r="I273" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 247 мсб.</t>
-        </is>
-      </c>
-      <c r="J273" s="10" t="inlineStr"/>
+      <c r="I273" s="10" t="inlineStr"/>
+      <c r="J273" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 247 мотострелковый батальон. </t>
+        </is>
+      </c>
       <c r="K273" s="10" t="inlineStr">
         <is>
           <t>30.09.1944</t>
@@ -25197,7 +25193,7 @@
       <c r="J276" s="10" t="inlineStr"/>
       <c r="K276" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L276" s="12" t="inlineStr">
@@ -25530,7 +25526,11 @@
         </is>
       </c>
       <c r="I280" s="10" t="inlineStr"/>
-      <c r="J280" s="10" t="inlineStr"/>
+      <c r="J280" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта2542 </t>
+        </is>
+      </c>
       <c r="K280" s="10" t="inlineStr">
         <is>
           <t>23.05.1942</t>
@@ -25699,7 +25699,7 @@
       <c r="J282" s="10" t="inlineStr"/>
       <c r="K282" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L282" s="12" t="inlineStr">
@@ -25779,7 +25779,11 @@
         </is>
       </c>
       <c r="I283" s="10" t="inlineStr"/>
-      <c r="J283" s="10" t="inlineStr"/>
+      <c r="J283" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта41141 </t>
+        </is>
+      </c>
       <c r="K283" s="10" t="inlineStr">
         <is>
           <t>7.09.1943</t>
@@ -25873,12 +25877,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I284" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 40А</t>
-        </is>
-      </c>
-      <c r="J284" s="10" t="inlineStr"/>
+      <c r="I284" s="10" t="inlineStr"/>
+      <c r="J284" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1032 стрелковый полк  293 стрелковая дивизия  40армия </t>
+        </is>
+      </c>
       <c r="K284" s="10" t="inlineStr">
         <is>
           <t>28.12.1941</t>
@@ -26055,7 +26059,7 @@
       <c r="J286" s="10" t="inlineStr"/>
       <c r="K286" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1942 </t>
+          <t>00.08.1942</t>
         </is>
       </c>
       <c r="L286" s="12" t="inlineStr">
@@ -26138,7 +26142,7 @@
       <c r="J287" s="10" t="inlineStr"/>
       <c r="K287" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.07.е 1942 </t>
+          <t>00.07.1942</t>
         </is>
       </c>
       <c r="L287" s="12" t="inlineStr">
@@ -26225,12 +26229,12 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I288" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 21460</t>
-        </is>
-      </c>
-      <c r="J288" s="10" t="inlineStr"/>
+      <c r="I288" s="10" t="inlineStr"/>
+      <c r="J288" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта21460 </t>
+        </is>
+      </c>
       <c r="K288" s="10" t="inlineStr">
         <is>
           <t>18.10.1944</t>
@@ -26316,12 +26320,12 @@
           <t xml:space="preserve"> ефрейтор</t>
         </is>
       </c>
-      <c r="I289" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> стрелковой дивизии НКВД</t>
-        </is>
-      </c>
-      <c r="J289" s="10" t="inlineStr"/>
+      <c r="I289" s="10" t="inlineStr"/>
+      <c r="J289" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 122 стрелковый полк  стрелковой дивизии Народный Комиссариат Внутренних Дел </t>
+        </is>
+      </c>
       <c r="K289" s="10" t="inlineStr">
         <is>
           <t>9.08.1943</t>
@@ -26407,12 +26411,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I290" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 20714</t>
-        </is>
-      </c>
-      <c r="J290" s="10" t="inlineStr"/>
+      <c r="I290" s="10" t="inlineStr"/>
+      <c r="J290" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта20714 </t>
+        </is>
+      </c>
       <c r="K290" s="10" t="inlineStr">
         <is>
           <t>27.08.1943</t>
@@ -26498,12 +26502,12 @@
         </is>
       </c>
       <c r="H291" s="10" t="inlineStr"/>
-      <c r="I291" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 379 сд</t>
-        </is>
-      </c>
-      <c r="J291" s="10" t="inlineStr"/>
+      <c r="I291" s="10" t="inlineStr"/>
+      <c r="J291" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> зармейский моторизованный полколит  1253 стрелковый полк  379 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K291" s="10" t="inlineStr">
         <is>
           <t>23.01.1943</t>
@@ -26589,12 +26593,12 @@
         </is>
       </c>
       <c r="H292" s="10" t="inlineStr"/>
-      <c r="I292" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 515 олбн</t>
-        </is>
-      </c>
-      <c r="J292" s="10" t="inlineStr"/>
+      <c r="I292" s="10" t="inlineStr"/>
+      <c r="J292" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 515 олыжный батальонн </t>
+        </is>
+      </c>
       <c r="K292" s="10" t="inlineStr">
         <is>
           <t>в1941</t>
@@ -26684,12 +26688,12 @@
           <t>младший политрук</t>
         </is>
       </c>
-      <c r="I293" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 264 сд</t>
-        </is>
-      </c>
-      <c r="J293" s="10" t="inlineStr"/>
+      <c r="I293" s="10" t="inlineStr"/>
+      <c r="J293" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1060 стрелковый полк  264 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K293" s="10" t="inlineStr">
         <is>
           <t>24.08.1942</t>
@@ -26779,12 +26783,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I294" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 28А</t>
-        </is>
-      </c>
-      <c r="J294" s="10" t="inlineStr"/>
+      <c r="I294" s="10" t="inlineStr"/>
+      <c r="J294" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28армия </t>
+        </is>
+      </c>
       <c r="K294" s="10" t="inlineStr">
         <is>
           <t>13.07.1943</t>
@@ -26878,12 +26882,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I295" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 184 сд</t>
-        </is>
-      </c>
-      <c r="J295" s="10" t="inlineStr"/>
+      <c r="I295" s="10" t="inlineStr"/>
+      <c r="J295" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 294 стрелковый полк  184 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K295" s="10" t="inlineStr">
         <is>
           <t>29.12.1943</t>
@@ -26973,12 +26977,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I296" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> умер в плену 28. 01. 44 г.</t>
-        </is>
-      </c>
-      <c r="J296" s="10" t="inlineStr"/>
+      <c r="I296" s="10" t="inlineStr"/>
+      <c r="J296" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> умер в подводная лодкаену 28. 01. 44 г. </t>
+        </is>
+      </c>
       <c r="K296" s="10" t="inlineStr"/>
       <c r="L296" s="12" t="inlineStr">
         <is>
@@ -27060,11 +27064,7 @@
           <t>младший сержант</t>
         </is>
       </c>
-      <c r="I297" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> мл. сержант</t>
-        </is>
-      </c>
+      <c r="I297" s="10" t="inlineStr"/>
       <c r="J297" s="10" t="inlineStr"/>
       <c r="K297" s="10" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
       <c r="J298" s="10" t="inlineStr"/>
       <c r="K298" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1942 </t>
+          <t>00.12.1942</t>
         </is>
       </c>
       <c r="L298" s="12" t="inlineStr">
@@ -27238,7 +27238,7 @@
       <c r="J299" s="10" t="inlineStr"/>
       <c r="K299" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1942 </t>
+          <t>00.01.1942</t>
         </is>
       </c>
       <c r="L299" s="12" t="inlineStr">
@@ -27325,7 +27325,7 @@
       <c r="J300" s="10" t="inlineStr"/>
       <c r="K300" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1941 </t>
+          <t>00.09.1941</t>
         </is>
       </c>
       <c r="L300" s="12" t="inlineStr">
@@ -27408,12 +27408,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I301" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 244 сд</t>
-        </is>
-      </c>
-      <c r="J301" s="10" t="inlineStr"/>
+      <c r="I301" s="10" t="inlineStr"/>
+      <c r="J301" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 907 стрелковый полк  244 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K301" s="10" t="inlineStr">
         <is>
           <t>24.02.1943</t>
@@ -27500,7 +27500,11 @@
         </is>
       </c>
       <c r="I302" s="10" t="inlineStr"/>
-      <c r="J302" s="10" t="inlineStr"/>
+      <c r="J302" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 38 мсбригада </t>
+        </is>
+      </c>
       <c r="K302" s="10" t="inlineStr">
         <is>
           <t>18.12.1942</t>
@@ -27685,7 +27689,7 @@
       <c r="J304" s="10" t="inlineStr"/>
       <c r="K304" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1942 </t>
+          <t>00.11.1942</t>
         </is>
       </c>
       <c r="L304" s="12" t="inlineStr">
@@ -27758,22 +27762,18 @@
         </is>
       </c>
       <c r="F305" s="10" t="inlineStr"/>
-      <c r="G305" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> пропал без вести 24. 02. 43 г. в Днепропетровской обл.</t>
-        </is>
-      </c>
+      <c r="G305" s="10" t="inlineStr"/>
       <c r="H305" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I305" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 47983Ш</t>
-        </is>
-      </c>
-      <c r="J305" s="10" t="inlineStr"/>
+      <c r="I305" s="10" t="inlineStr"/>
+      <c r="J305" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта47983Ш  пропал без вести 24. 02. 43 г. в Днепропетровстрелковый корпусой обл. </t>
+        </is>
+      </c>
       <c r="K305" s="10" t="inlineStr">
         <is>
           <t>24.02.1943</t>
@@ -27863,12 +27863,12 @@
           <t xml:space="preserve"> мл. лейтенант</t>
         </is>
       </c>
-      <c r="I306" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 153 сд</t>
-        </is>
-      </c>
-      <c r="J306" s="10" t="inlineStr"/>
+      <c r="I306" s="10" t="inlineStr"/>
+      <c r="J306" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 566 стрелковый полк  153 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K306" s="10" t="inlineStr">
         <is>
           <t>5.10.1942</t>
@@ -28045,11 +28045,7 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I308" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 949 ап</t>
-        </is>
-      </c>
+      <c r="I308" s="10" t="inlineStr"/>
       <c r="J308" s="10" t="inlineStr"/>
       <c r="K308" s="10" t="inlineStr">
         <is>
@@ -28140,7 +28136,7 @@
       <c r="J309" s="10" t="inlineStr"/>
       <c r="K309" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L309" s="12" t="inlineStr">
@@ -28227,7 +28223,7 @@
       <c r="J310" s="10" t="inlineStr"/>
       <c r="K310" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L310" s="12" t="inlineStr">
@@ -28314,12 +28310,12 @@
           <t xml:space="preserve"> ефрейтор</t>
         </is>
       </c>
-      <c r="I311" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42 окаэ</t>
-        </is>
-      </c>
-      <c r="J311" s="10" t="inlineStr"/>
+      <c r="I311" s="10" t="inlineStr"/>
+      <c r="J311" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 42 окавиационная эскадрилья </t>
+        </is>
+      </c>
       <c r="K311" s="10" t="inlineStr">
         <is>
           <t>31.08.1941</t>
@@ -28405,7 +28401,7 @@
       <c r="J312" s="10" t="inlineStr"/>
       <c r="K312" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1942 </t>
+          <t>00.04.1942</t>
         </is>
       </c>
       <c r="L312" s="12" t="inlineStr">
@@ -28480,12 +28476,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I313" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 08930</t>
-        </is>
-      </c>
-      <c r="J313" s="10" t="inlineStr"/>
+      <c r="I313" s="10" t="inlineStr"/>
+      <c r="J313" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта08930 </t>
+        </is>
+      </c>
       <c r="K313" s="10" t="inlineStr">
         <is>
           <t>26.01.1943</t>
@@ -28571,7 +28567,7 @@
       <c r="J314" s="10" t="inlineStr"/>
       <c r="K314" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L314" s="12" t="inlineStr">
@@ -28654,7 +28650,7 @@
       <c r="J315" s="10" t="inlineStr"/>
       <c r="K315" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L315" s="12" t="inlineStr">
@@ -28741,12 +28737,12 @@
           <t>младший политрук</t>
         </is>
       </c>
-      <c r="I316" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 113 сд</t>
-        </is>
-      </c>
-      <c r="J316" s="10" t="inlineStr"/>
+      <c r="I316" s="10" t="inlineStr"/>
+      <c r="J316" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K316" s="10" t="inlineStr">
         <is>
           <t>18.08.1942</t>
@@ -28836,7 +28832,7 @@
       <c r="J317" s="10" t="inlineStr"/>
       <c r="K317" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1944 </t>
+          <t>00.03.1944</t>
         </is>
       </c>
       <c r="L317" s="12" t="inlineStr">
@@ -28923,7 +28919,7 @@
       <c r="J318" s="10" t="inlineStr"/>
       <c r="K318" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1942 </t>
+          <t>00.10.1942</t>
         </is>
       </c>
       <c r="L318" s="12" t="inlineStr">
@@ -29006,7 +29002,7 @@
       <c r="J319" s="10" t="inlineStr"/>
       <c r="K319" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1944 </t>
+          <t>00.03.1944</t>
         </is>
       </c>
       <c r="L319" s="12" t="inlineStr">
@@ -29089,7 +29085,7 @@
       <c r="J320" s="10" t="inlineStr"/>
       <c r="K320" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1944 </t>
+          <t>00.10.1944</t>
         </is>
       </c>
       <c r="L320" s="12" t="inlineStr">
@@ -29172,7 +29168,7 @@
       <c r="J321" s="10" t="inlineStr"/>
       <c r="K321" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1943 </t>
+          <t>00.02.1943</t>
         </is>
       </c>
       <c r="L321" s="12" t="inlineStr">
@@ -29259,12 +29255,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I322" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 93 сд</t>
-        </is>
-      </c>
-      <c r="J322" s="10" t="inlineStr"/>
+      <c r="I322" s="10" t="inlineStr"/>
+      <c r="J322" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 266 стрелковый полк  93 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K322" s="10" t="inlineStr">
         <is>
           <t>12.10.1943</t>
@@ -29346,11 +29342,7 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I323" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 919 ап</t>
-        </is>
-      </c>
+      <c r="I323" s="10" t="inlineStr"/>
       <c r="J323" s="10" t="inlineStr"/>
       <c r="K323" s="10" t="inlineStr">
         <is>
@@ -29441,12 +29433,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I324" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 14А</t>
-        </is>
-      </c>
-      <c r="J324" s="10" t="inlineStr"/>
+      <c r="I324" s="10" t="inlineStr"/>
+      <c r="J324" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 325 стрелковый полк  14 стрелковая дивизия  14армия </t>
+        </is>
+      </c>
       <c r="K324" s="10" t="inlineStr">
         <is>
           <t>2.08.1941</t>
@@ -29536,7 +29528,7 @@
       <c r="J325" s="10" t="inlineStr"/>
       <c r="K325" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1944 </t>
+          <t>00.11.1944</t>
         </is>
       </c>
       <c r="L325" s="12" t="inlineStr">
@@ -29619,7 +29611,7 @@
       <c r="J326" s="10" t="inlineStr"/>
       <c r="K326" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L326" s="12" t="inlineStr">
@@ -29706,12 +29698,12 @@
           <t>старший сержант</t>
         </is>
       </c>
-      <c r="I327" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 215 сд</t>
-        </is>
-      </c>
-      <c r="J327" s="10" t="inlineStr"/>
+      <c r="I327" s="10" t="inlineStr"/>
+      <c r="J327" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 707 стрелковый полк  215 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K327" s="10" t="inlineStr">
         <is>
           <t>20.02.1945</t>
@@ -29801,7 +29793,7 @@
       <c r="J328" s="10" t="inlineStr"/>
       <c r="K328" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1942 </t>
+          <t>00.01.1942</t>
         </is>
       </c>
       <c r="L328" s="12" t="inlineStr">
@@ -29880,11 +29872,7 @@
           <t xml:space="preserve"> ст. лейтенант</t>
         </is>
       </c>
-      <c r="I329" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> вг387.</t>
-        </is>
-      </c>
+      <c r="I329" s="10" t="inlineStr"/>
       <c r="J329" s="10" t="inlineStr"/>
       <c r="K329" s="10" t="inlineStr">
         <is>
@@ -29975,15 +29963,15 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I330" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 27 осбр</t>
-        </is>
-      </c>
-      <c r="J330" s="10" t="inlineStr"/>
+      <c r="I330" s="10" t="inlineStr"/>
+      <c r="J330" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 осбригада </t>
+        </is>
+      </c>
       <c r="K330" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L330" s="12" t="inlineStr">
@@ -30070,7 +30058,7 @@
       <c r="J331" s="10" t="inlineStr"/>
       <c r="K331" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1941 </t>
+          <t>00.09.1941</t>
         </is>
       </c>
       <c r="L331" s="12" t="inlineStr">
@@ -30149,12 +30137,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I332" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 05858</t>
-        </is>
-      </c>
-      <c r="J332" s="10" t="inlineStr"/>
+      <c r="I332" s="10" t="inlineStr"/>
+      <c r="J332" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта05858 </t>
+        </is>
+      </c>
       <c r="K332" s="10" t="inlineStr">
         <is>
           <t>1.04.1945</t>
@@ -30244,7 +30232,7 @@
       <c r="J333" s="10" t="inlineStr"/>
       <c r="K333" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L333" s="12" t="inlineStr">
@@ -30331,12 +30319,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I334" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 112 сд</t>
-        </is>
-      </c>
-      <c r="J334" s="10" t="inlineStr"/>
+      <c r="I334" s="10" t="inlineStr"/>
+      <c r="J334" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 416 стрелковый полк  112 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K334" s="10" t="inlineStr">
         <is>
           <t>7.09.1942</t>
@@ -30426,7 +30414,7 @@
       <c r="J335" s="10" t="inlineStr"/>
       <c r="K335" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1942 </t>
+          <t>00.12.1942</t>
         </is>
       </c>
       <c r="L335" s="12" t="inlineStr">
@@ -30509,7 +30497,7 @@
       <c r="J336" s="10" t="inlineStr"/>
       <c r="K336" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L336" s="12" t="inlineStr">
@@ -30596,12 +30584,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I337" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 311 сд</t>
-        </is>
-      </c>
-      <c r="J337" s="10" t="inlineStr"/>
+      <c r="I337" s="10" t="inlineStr"/>
+      <c r="J337" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1069 стрелковый полк  311 стрелковая дивизия  пропал без вести 28. 10. 41 г. в Ленинграртиллерийская дивизияской обл. </t>
+        </is>
+      </c>
       <c r="K337" s="10" t="inlineStr">
         <is>
           <t>28.10.1941</t>
@@ -30774,15 +30762,11 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I339" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> сержант</t>
-        </is>
-      </c>
+      <c r="I339" s="10" t="inlineStr"/>
       <c r="J339" s="10" t="inlineStr"/>
       <c r="K339" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L339" s="12" t="inlineStr">
@@ -30960,7 +30944,7 @@
       <c r="J341" s="10" t="inlineStr"/>
       <c r="K341" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1943 </t>
+          <t>00.03.1943</t>
         </is>
       </c>
       <c r="L341" s="12" t="inlineStr">
@@ -31047,7 +31031,7 @@
       <c r="J342" s="10" t="inlineStr"/>
       <c r="K342" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1944 </t>
+          <t>00.03.1944</t>
         </is>
       </c>
       <c r="L342" s="12" t="inlineStr">
@@ -31126,12 +31110,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I343" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 324 сд</t>
-        </is>
-      </c>
-      <c r="J343" s="10" t="inlineStr"/>
+      <c r="I343" s="10" t="inlineStr"/>
+      <c r="J343" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1095 стрелковый полк  324 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K343" s="10" t="inlineStr">
         <is>
           <t>28.02.1943</t>
@@ -31221,7 +31205,7 @@
       <c r="J344" s="10" t="inlineStr"/>
       <c r="K344" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.06.е 1942 </t>
+          <t>00.06.1942</t>
         </is>
       </c>
       <c r="L344" s="12" t="inlineStr">
@@ -31308,7 +31292,7 @@
       <c r="J345" s="10" t="inlineStr"/>
       <c r="K345" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.04.е 1943 </t>
+          <t>00.04.1943</t>
         </is>
       </c>
       <c r="L345" s="12" t="inlineStr">
@@ -31391,12 +31375,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I346" s="10" t="inlineStr">
-        <is>
-          <t>3 гв. тбр</t>
-        </is>
-      </c>
-      <c r="J346" s="10" t="inlineStr"/>
+      <c r="I346" s="10" t="inlineStr"/>
+      <c r="J346" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 гв. тбригада </t>
+        </is>
+      </c>
       <c r="K346" s="10" t="inlineStr">
         <is>
           <t>11.11.1941</t>
@@ -31577,15 +31561,15 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I348" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 368 сд</t>
-        </is>
-      </c>
-      <c r="J348" s="10" t="inlineStr"/>
+      <c r="I348" s="10" t="inlineStr"/>
+      <c r="J348" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1128 стрелковый полк  368 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K348" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1943 </t>
+          <t>00.02.1943</t>
         </is>
       </c>
       <c r="L348" s="12" t="inlineStr">
@@ -31665,7 +31649,11 @@
         </is>
       </c>
       <c r="I349" s="10" t="inlineStr"/>
-      <c r="J349" s="10" t="inlineStr"/>
+      <c r="J349" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта82739 </t>
+        </is>
+      </c>
       <c r="K349" s="10" t="inlineStr">
         <is>
           <t>12.07.191943</t>
@@ -31751,12 +31739,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I350" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 385 сд</t>
-        </is>
-      </c>
-      <c r="J350" s="10" t="inlineStr"/>
+      <c r="I350" s="10" t="inlineStr"/>
+      <c r="J350" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1266 стрелковый полк  385 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K350" s="10" t="inlineStr">
         <is>
           <t>10.07.1942</t>
@@ -31921,12 +31909,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I352" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 24797</t>
-        </is>
-      </c>
-      <c r="J352" s="10" t="inlineStr"/>
+      <c r="I352" s="10" t="inlineStr"/>
+      <c r="J352" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта24797 </t>
+        </is>
+      </c>
       <c r="K352" s="10" t="inlineStr">
         <is>
           <t>4.01.1943</t>
@@ -32016,12 +32004,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I353" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 311 сд</t>
-        </is>
-      </c>
-      <c r="J353" s="10" t="inlineStr"/>
+      <c r="I353" s="10" t="inlineStr"/>
+      <c r="J353" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 311 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K353" s="10" t="inlineStr">
         <is>
           <t>23.10.1941</t>
@@ -32111,12 +32099,12 @@
           <t xml:space="preserve"> ефрейтор</t>
         </is>
       </c>
-      <c r="I354" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 03069</t>
-        </is>
-      </c>
-      <c r="J354" s="10" t="inlineStr"/>
+      <c r="I354" s="10" t="inlineStr"/>
+      <c r="J354" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта03069 </t>
+        </is>
+      </c>
       <c r="K354" s="10" t="inlineStr">
         <is>
           <t>28.04.1945</t>
@@ -32297,12 +32285,12 @@
           <t xml:space="preserve"> ефрейтор</t>
         </is>
       </c>
-      <c r="I356" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 33А</t>
-        </is>
-      </c>
-      <c r="J356" s="10" t="inlineStr"/>
+      <c r="I356" s="10" t="inlineStr"/>
+      <c r="J356" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 70 стрелковая дивизия  68 стрелковый полк  33армия </t>
+        </is>
+      </c>
       <c r="K356" s="10" t="inlineStr">
         <is>
           <t>29.06.1944</t>
@@ -32392,7 +32380,7 @@
       <c r="J357" s="10" t="inlineStr"/>
       <c r="K357" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1942 </t>
+          <t>00.03.1942</t>
         </is>
       </c>
       <c r="L357" s="12" t="inlineStr">
@@ -32554,12 +32542,12 @@
         </is>
       </c>
       <c r="H359" s="10" t="inlineStr"/>
-      <c r="I359" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> г. Балтийск.</t>
-        </is>
-      </c>
-      <c r="J359" s="10" t="inlineStr"/>
+      <c r="I359" s="10" t="inlineStr"/>
+      <c r="J359" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> г. Балтийстрелковый корпус. </t>
+        </is>
+      </c>
       <c r="K359" s="10" t="inlineStr">
         <is>
           <t>в1941–1943г</t>
@@ -32649,7 +32637,7 @@
       <c r="J360" s="10" t="inlineStr"/>
       <c r="K360" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L360" s="12" t="inlineStr">
@@ -32732,12 +32720,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I361" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 326 сд</t>
-        </is>
-      </c>
-      <c r="J361" s="10" t="inlineStr"/>
+      <c r="I361" s="10" t="inlineStr"/>
+      <c r="J361" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1099 стрелковый полк  326 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K361" s="10" t="inlineStr">
         <is>
           <t>17.01.1942</t>
@@ -32914,7 +32902,7 @@
       <c r="J363" s="10" t="inlineStr"/>
       <c r="K363" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L363" s="12" t="inlineStr">
@@ -33001,15 +32989,11 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I364" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> сержант</t>
-        </is>
-      </c>
+      <c r="I364" s="10" t="inlineStr"/>
       <c r="J364" s="10" t="inlineStr"/>
       <c r="K364" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1942 </t>
+          <t>00.11.1942</t>
         </is>
       </c>
       <c r="L364" s="12" t="inlineStr">
@@ -33092,12 +33076,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I365" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1818 сп</t>
-        </is>
-      </c>
-      <c r="J365" s="10" t="inlineStr"/>
+      <c r="I365" s="10" t="inlineStr"/>
+      <c r="J365" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1818 стрелковый полк </t>
+        </is>
+      </c>
       <c r="K365" s="10" t="inlineStr">
         <is>
           <t>17.07.1942</t>
@@ -33180,7 +33164,11 @@
       <c r="G366" s="10" t="inlineStr"/>
       <c r="H366" s="10" t="inlineStr"/>
       <c r="I366" s="10" t="inlineStr"/>
-      <c r="J366" s="10" t="inlineStr"/>
+      <c r="J366" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 803 оатанковый батальон </t>
+        </is>
+      </c>
       <c r="K366" s="10" t="inlineStr">
         <is>
           <t>22.04.1942</t>
@@ -33263,7 +33251,11 @@
       <c r="G367" s="10" t="inlineStr"/>
       <c r="H367" s="10" t="inlineStr"/>
       <c r="I367" s="10" t="inlineStr"/>
-      <c r="J367" s="10" t="inlineStr"/>
+      <c r="J367" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17 стрелковый батальон </t>
+        </is>
+      </c>
       <c r="K367" s="10" t="inlineStr">
         <is>
           <t>9.04.1942</t>
@@ -33353,12 +33345,12 @@
           <t xml:space="preserve"> старший сержант</t>
         </is>
       </c>
-      <c r="I368" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 07071</t>
-        </is>
-      </c>
-      <c r="J368" s="10" t="inlineStr"/>
+      <c r="I368" s="10" t="inlineStr"/>
+      <c r="J368" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта07071 </t>
+        </is>
+      </c>
       <c r="K368" s="10" t="inlineStr">
         <is>
           <t>12.03.1944</t>
@@ -33448,7 +33440,7 @@
       <c r="J369" s="10" t="inlineStr"/>
       <c r="K369" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.03.е 1945 </t>
+          <t>00.03.1945</t>
         </is>
       </c>
       <c r="L369" s="12" t="inlineStr">
@@ -33531,12 +33523,12 @@
           <t xml:space="preserve"> лейтенант</t>
         </is>
       </c>
-      <c r="I370" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 137 сд</t>
-        </is>
-      </c>
-      <c r="J370" s="10" t="inlineStr"/>
+      <c r="I370" s="10" t="inlineStr"/>
+      <c r="J370" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 624 стрелковый полк  137 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K370" s="10" t="inlineStr">
         <is>
           <t>в1941</t>
@@ -33622,15 +33614,15 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I371" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 72741</t>
-        </is>
-      </c>
-      <c r="J371" s="10" t="inlineStr"/>
+      <c r="I371" s="10" t="inlineStr"/>
+      <c r="J371" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта72741 </t>
+        </is>
+      </c>
       <c r="K371" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.08.е 1943 </t>
+          <t>00.08.1943</t>
         </is>
       </c>
       <c r="L371" s="12" t="inlineStr">
@@ -33713,12 +33705,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I372" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 246 сд</t>
-        </is>
-      </c>
-      <c r="J372" s="10" t="inlineStr"/>
+      <c r="I372" s="10" t="inlineStr"/>
+      <c r="J372" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 914 стрелковый полк  246 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K372" s="10" t="inlineStr">
         <is>
           <t>17.12.1942</t>
@@ -33808,12 +33800,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I373" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 246 сд</t>
-        </is>
-      </c>
-      <c r="J373" s="10" t="inlineStr"/>
+      <c r="I373" s="10" t="inlineStr"/>
+      <c r="J373" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 914 стрелковый полк  246 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K373" s="10" t="inlineStr">
         <is>
           <t>17.12.1942</t>
@@ -33900,7 +33892,11 @@
         </is>
       </c>
       <c r="I374" s="10" t="inlineStr"/>
-      <c r="J374" s="10" t="inlineStr"/>
+      <c r="J374" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 230 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K374" s="10" t="inlineStr">
         <is>
           <t>15.04.1945</t>
@@ -34160,7 +34156,7 @@
       <c r="J377" s="10" t="inlineStr"/>
       <c r="K377" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1942 </t>
+          <t>00.01.1942</t>
         </is>
       </c>
       <c r="L377" s="12" t="inlineStr">
@@ -34247,12 +34243,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I378" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 18 азсп</t>
-        </is>
-      </c>
-      <c r="J378" s="10" t="inlineStr"/>
+      <c r="I378" s="10" t="inlineStr"/>
+      <c r="J378" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18 армейский запасной стрелковый полк </t>
+        </is>
+      </c>
       <c r="K378" s="10" t="inlineStr">
         <is>
           <t>5.08.1944</t>
@@ -34334,12 +34330,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I379" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 41 сд</t>
-        </is>
-      </c>
-      <c r="J379" s="10" t="inlineStr"/>
+      <c r="I379" s="10" t="inlineStr"/>
+      <c r="J379" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 244 гв. стрелковый полк  41 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K379" s="10" t="inlineStr">
         <is>
           <t>17.06.1943</t>
@@ -34512,12 +34508,12 @@
           <t xml:space="preserve"> гв. рядовой</t>
         </is>
       </c>
-      <c r="I381" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3й отд. гв. сапд</t>
-        </is>
-      </c>
-      <c r="J381" s="10" t="inlineStr"/>
+      <c r="I381" s="10" t="inlineStr"/>
+      <c r="J381" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3й отанковая дивизия. гв. сапд </t>
+        </is>
+      </c>
       <c r="K381" s="10" t="inlineStr">
         <is>
           <t>4.07.1945</t>
@@ -34603,12 +34599,12 @@
           <t xml:space="preserve"> мл. лейтенант</t>
         </is>
       </c>
-      <c r="I382" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 28 гв. сд</t>
-        </is>
-      </c>
-      <c r="J382" s="10" t="inlineStr"/>
+      <c r="I382" s="10" t="inlineStr"/>
+      <c r="J382" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 гв. стрелковый полк  28 гв. стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K382" s="10" t="inlineStr">
         <is>
           <t>7.10.1943</t>
@@ -34694,7 +34690,7 @@
       <c r="J383" s="10" t="inlineStr"/>
       <c r="K383" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L383" s="12" t="inlineStr">
@@ -34951,7 +34947,7 @@
       <c r="J386" s="10" t="inlineStr"/>
       <c r="K386" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L386" s="12" t="inlineStr">
@@ -35030,12 +35026,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I387" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 26045 Б</t>
-        </is>
-      </c>
-      <c r="J387" s="10" t="inlineStr"/>
+      <c r="I387" s="10" t="inlineStr"/>
+      <c r="J387" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта26045 Б </t>
+        </is>
+      </c>
       <c r="K387" s="10" t="inlineStr">
         <is>
           <t>1.07.1943</t>
@@ -35129,7 +35125,7 @@
       <c r="J388" s="10" t="inlineStr"/>
       <c r="K388" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L388" s="12" t="inlineStr">
@@ -35208,7 +35204,7 @@
       <c r="J389" s="10" t="inlineStr"/>
       <c r="K389" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L389" s="12" t="inlineStr">
@@ -35287,12 +35283,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I390" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 72 сд</t>
-        </is>
-      </c>
-      <c r="J390" s="10" t="inlineStr"/>
+      <c r="I390" s="10" t="inlineStr"/>
+      <c r="J390" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14 гв. стрелковый полк  72 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K390" s="10" t="inlineStr">
         <is>
           <t>15.02.1944</t>
@@ -35374,17 +35370,13 @@
           <t xml:space="preserve"> ефрейтор</t>
         </is>
       </c>
-      <c r="I391" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 74079</t>
-        </is>
-      </c>
-      <c r="J391" s="10" t="inlineStr"/>
-      <c r="K391" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00.09.е 1943 </t>
-        </is>
-      </c>
+      <c r="I391" s="10" t="inlineStr"/>
+      <c r="J391" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта74079  погиб в сентябригадае 1943 г.  место захоронения Сумстрелковый корпусая обл. </t>
+        </is>
+      </c>
+      <c r="K391" s="10" t="inlineStr"/>
       <c r="L391" s="12" t="inlineStr">
         <is>
           <t>погиб</t>
@@ -35392,7 +35384,7 @@
       </c>
       <c r="M391" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Сумская обл.,  г. Путивль.</t>
+          <t>Сумская обл., г. Путивль</t>
         </is>
       </c>
       <c r="N391" s="10" t="inlineStr"/>
@@ -35469,12 +35461,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I392" s="10" t="inlineStr">
-        <is>
-          <t>2 гв. мсд</t>
-        </is>
-      </c>
-      <c r="J392" s="10" t="inlineStr"/>
+      <c r="I392" s="10" t="inlineStr"/>
+      <c r="J392" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 гв. мотострелковый полк 2 гв. мстрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K392" s="10" t="inlineStr">
         <is>
           <t>5.08.1942</t>
@@ -35568,7 +35560,7 @@
       <c r="J393" s="10" t="inlineStr"/>
       <c r="K393" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L393" s="12" t="inlineStr">
@@ -35651,7 +35643,7 @@
       <c r="J394" s="10" t="inlineStr"/>
       <c r="K394" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1942 </t>
+          <t>00.02.1942</t>
         </is>
       </c>
       <c r="L394" s="12" t="inlineStr">
@@ -35734,12 +35726,12 @@
           <t xml:space="preserve"> лейтенант</t>
         </is>
       </c>
-      <c r="I395" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 318 гсп</t>
-        </is>
-      </c>
-      <c r="J395" s="10" t="inlineStr"/>
+      <c r="I395" s="10" t="inlineStr"/>
+      <c r="J395" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 318 горнострелковый полк </t>
+        </is>
+      </c>
       <c r="K395" s="10" t="inlineStr">
         <is>
           <t>22.12.1944</t>
@@ -35912,7 +35904,7 @@
       <c r="J397" s="10" t="inlineStr"/>
       <c r="K397" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L397" s="12" t="inlineStr">
@@ -35995,7 +35987,7 @@
       <c r="J398" s="10" t="inlineStr"/>
       <c r="K398" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.02.е 1945 </t>
+          <t>00.02.1945</t>
         </is>
       </c>
       <c r="L398" s="12" t="inlineStr">
@@ -36082,7 +36074,7 @@
       <c r="J399" s="10" t="inlineStr"/>
       <c r="K399" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L399" s="12" t="inlineStr">
@@ -36165,12 +36157,12 @@
           <t xml:space="preserve"> ст. лейтенант</t>
         </is>
       </c>
-      <c r="I400" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 846 ап</t>
-        </is>
-      </c>
-      <c r="J400" s="10" t="inlineStr"/>
+      <c r="I400" s="10" t="inlineStr"/>
+      <c r="J400" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта3272 </t>
+        </is>
+      </c>
       <c r="K400" s="10" t="inlineStr">
         <is>
           <t>2.05.1945</t>
@@ -36260,7 +36252,7 @@
       <c r="J401" s="10" t="inlineStr"/>
       <c r="K401" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L401" s="12" t="inlineStr">
@@ -36343,12 +36335,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I402" s="10" t="inlineStr">
-        <is>
-          <t>7 гв. сд</t>
-        </is>
-      </c>
-      <c r="J402" s="10" t="inlineStr"/>
+      <c r="I402" s="10" t="inlineStr"/>
+      <c r="J402" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14 гв. стрелковый полк. 7 гв. стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K402" s="10" t="inlineStr">
         <is>
           <t>15.11.1944</t>
@@ -36442,7 +36434,7 @@
       <c r="J403" s="10" t="inlineStr"/>
       <c r="K403" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L403" s="12" t="inlineStr">
@@ -36529,12 +36521,12 @@
           <t>старший сержант</t>
         </is>
       </c>
-      <c r="I404" s="10" t="inlineStr">
-        <is>
-          <t>2 гв. сд</t>
-        </is>
-      </c>
-      <c r="J404" s="10" t="inlineStr"/>
+      <c r="I404" s="10" t="inlineStr"/>
+      <c r="J404" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33 мин. бригада. 2 гв. стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K404" s="10" t="inlineStr">
         <is>
           <t>12.07.1945</t>
@@ -36628,12 +36620,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I405" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 33А</t>
-        </is>
-      </c>
-      <c r="J405" s="10" t="inlineStr"/>
+      <c r="I405" s="10" t="inlineStr"/>
+      <c r="J405" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1287 стрелковый полк  110 стрелковая дивизия  33армия </t>
+        </is>
+      </c>
       <c r="K405" s="10" t="inlineStr">
         <is>
           <t>18.10.1941</t>
@@ -36723,7 +36715,7 @@
       <c r="J406" s="10" t="inlineStr"/>
       <c r="K406" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.07.е 1941 </t>
+          <t>00.07.1941</t>
         </is>
       </c>
       <c r="L406" s="12" t="inlineStr">
@@ -36810,12 +36802,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I407" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 299 сд</t>
-        </is>
-      </c>
-      <c r="J407" s="10" t="inlineStr"/>
+      <c r="I407" s="10" t="inlineStr"/>
+      <c r="J407" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 958 стрелковый полк  299 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K407" s="10" t="inlineStr">
         <is>
           <t>10.12.1944</t>
@@ -36901,12 +36893,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I408" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 06017Д</t>
-        </is>
-      </c>
-      <c r="J408" s="10" t="inlineStr"/>
+      <c r="I408" s="10" t="inlineStr"/>
+      <c r="J408" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта06017Д </t>
+        </is>
+      </c>
       <c r="K408" s="10" t="inlineStr">
         <is>
           <t>14.09.1943</t>
@@ -36996,7 +36988,7 @@
       <c r="J409" s="10" t="inlineStr"/>
       <c r="K409" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1943 </t>
+          <t>00.01.1943</t>
         </is>
       </c>
       <c r="L409" s="12" t="inlineStr">
@@ -37166,7 +37158,7 @@
       <c r="J411" s="10" t="inlineStr"/>
       <c r="K411" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1941 </t>
+          <t>00.09.1941</t>
         </is>
       </c>
       <c r="L411" s="12" t="inlineStr">
@@ -37253,12 +37245,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I412" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 248 сд</t>
-        </is>
-      </c>
-      <c r="J412" s="10" t="inlineStr"/>
+      <c r="I412" s="10" t="inlineStr"/>
+      <c r="J412" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 248 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K412" s="10" t="inlineStr">
         <is>
           <t>2.05.1945</t>
@@ -37352,7 +37344,7 @@
       <c r="J413" s="10" t="inlineStr"/>
       <c r="K413" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L413" s="12" t="inlineStr">
@@ -37439,7 +37431,7 @@
       <c r="J414" s="10" t="inlineStr"/>
       <c r="K414" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L414" s="12" t="inlineStr">
@@ -37613,12 +37605,12 @@
           <t>младший сержант</t>
         </is>
       </c>
-      <c r="I416" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25А</t>
-        </is>
-      </c>
-      <c r="J416" s="10" t="inlineStr"/>
+      <c r="I416" s="10" t="inlineStr"/>
+      <c r="J416" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 стрелковая дивизия  25армия </t>
+        </is>
+      </c>
       <c r="K416" s="10" t="inlineStr">
         <is>
           <t>26.08.1945</t>
@@ -37712,12 +37704,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I417" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10 сд</t>
-        </is>
-      </c>
-      <c r="J417" s="10" t="inlineStr"/>
+      <c r="I417" s="10" t="inlineStr"/>
+      <c r="J417" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K417" s="10" t="inlineStr">
         <is>
           <t>26.06.1941</t>
@@ -37803,11 +37795,7 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I418" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> сержант</t>
-        </is>
-      </c>
+      <c r="I418" s="10" t="inlineStr"/>
       <c r="J418" s="10" t="inlineStr"/>
       <c r="K418" s="10" t="inlineStr">
         <is>
@@ -37898,7 +37886,7 @@
       <c r="J419" s="10" t="inlineStr"/>
       <c r="K419" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L419" s="12" t="inlineStr">
@@ -37981,12 +37969,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I420" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 339 сд</t>
-        </is>
-      </c>
-      <c r="J420" s="10" t="inlineStr"/>
+      <c r="I420" s="10" t="inlineStr"/>
+      <c r="J420" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 339 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K420" s="10" t="inlineStr">
         <is>
           <t>12.01.1943</t>
@@ -38080,12 +38068,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I421" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54А</t>
-        </is>
-      </c>
-      <c r="J421" s="10" t="inlineStr"/>
+      <c r="I421" s="10" t="inlineStr"/>
+      <c r="J421" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 218 стрелковый полк  80 стрелковая дивизия  54армия </t>
+        </is>
+      </c>
       <c r="K421" s="10" t="inlineStr">
         <is>
           <t>21.06.1942</t>
@@ -38179,7 +38167,7 @@
       <c r="J422" s="10" t="inlineStr"/>
       <c r="K422" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1941 </t>
+          <t>00.12.1941</t>
         </is>
       </c>
       <c r="L422" s="12" t="inlineStr">
@@ -38258,12 +38246,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I423" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 186 сд</t>
-        </is>
-      </c>
-      <c r="J423" s="10" t="inlineStr"/>
+      <c r="I423" s="10" t="inlineStr"/>
+      <c r="J423" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 238 стрелковый полк  186 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K423" s="10" t="inlineStr">
         <is>
           <t>2.08.1943</t>
@@ -38350,7 +38338,11 @@
         </is>
       </c>
       <c r="I424" s="10" t="inlineStr"/>
-      <c r="J424" s="10" t="inlineStr"/>
+      <c r="J424" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 танковый полк </t>
+        </is>
+      </c>
       <c r="K424" s="10" t="inlineStr">
         <is>
           <t>19.03.1943</t>
@@ -38515,11 +38507,7 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I426" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 103МИСБ</t>
-        </is>
-      </c>
+      <c r="I426" s="10" t="inlineStr"/>
       <c r="J426" s="10" t="inlineStr"/>
       <c r="K426" s="10" t="inlineStr"/>
       <c r="L426" s="12" t="inlineStr">
@@ -38610,12 +38598,12 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I427" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42 сд</t>
-        </is>
-      </c>
-      <c r="J427" s="10" t="inlineStr"/>
+      <c r="I427" s="10" t="inlineStr"/>
+      <c r="J427" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 49армия  455 стрелковый полк  42 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K427" s="10" t="inlineStr">
         <is>
           <t>12.03.1945</t>
@@ -38788,7 +38776,7 @@
       <c r="J429" s="10" t="inlineStr"/>
       <c r="K429" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1941 </t>
+          <t>00.11.1941</t>
         </is>
       </c>
       <c r="L429" s="12" t="inlineStr">
@@ -38962,7 +38950,7 @@
       <c r="J431" s="10" t="inlineStr"/>
       <c r="K431" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1942 </t>
+          <t>00.09.1942</t>
         </is>
       </c>
       <c r="L431" s="12" t="inlineStr">
@@ -39045,7 +39033,7 @@
       <c r="J432" s="10" t="inlineStr"/>
       <c r="K432" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.09.е 1941 </t>
+          <t>00.09.1941</t>
         </is>
       </c>
       <c r="L432" s="12" t="inlineStr">
@@ -39128,7 +39116,7 @@
       <c r="J433" s="10" t="inlineStr"/>
       <c r="K433" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.12. 1943 </t>
+          <t>00.12.1943</t>
         </is>
       </c>
       <c r="L433" s="12" t="inlineStr">
@@ -39215,7 +39203,7 @@
       <c r="J434" s="10" t="inlineStr"/>
       <c r="K434" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.10.е 1941 </t>
+          <t>00.10.1941</t>
         </is>
       </c>
       <c r="L434" s="12" t="inlineStr">
@@ -39298,7 +39286,7 @@
       <c r="J435" s="10" t="inlineStr"/>
       <c r="K435" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.11.е 1942 </t>
+          <t>00.11.1942</t>
         </is>
       </c>
       <c r="L435" s="12" t="inlineStr">
@@ -39381,12 +39369,12 @@
         </is>
       </c>
       <c r="H436" s="10" t="inlineStr"/>
-      <c r="I436" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 38А</t>
-        </is>
-      </c>
-      <c r="J436" s="10" t="inlineStr"/>
+      <c r="I436" s="10" t="inlineStr"/>
+      <c r="J436" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 38армия </t>
+        </is>
+      </c>
       <c r="K436" s="10" t="inlineStr">
         <is>
           <t>9.02.1943</t>
@@ -39480,12 +39468,12 @@
           <t xml:space="preserve"> рядовой</t>
         </is>
       </c>
-      <c r="I437" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 340 сд</t>
-        </is>
-      </c>
-      <c r="J437" s="10" t="inlineStr"/>
+      <c r="I437" s="10" t="inlineStr"/>
+      <c r="J437" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1142 стрелковый полк  340 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K437" s="10" t="inlineStr">
         <is>
           <t>27.07.1942</t>
@@ -39575,12 +39563,12 @@
           <t>сержант</t>
         </is>
       </c>
-      <c r="I438" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 74 омб</t>
-        </is>
-      </c>
-      <c r="J438" s="10" t="inlineStr"/>
+      <c r="I438" s="10" t="inlineStr"/>
+      <c r="J438" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 76 артанковая дивизиян  74 отдельный моторизованный батальон </t>
+        </is>
+      </c>
       <c r="K438" s="10" t="inlineStr">
         <is>
           <t>3.02.1942</t>
@@ -39749,12 +39737,12 @@
           <t xml:space="preserve"> ефрейтор</t>
         </is>
       </c>
-      <c r="I440" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11 сд</t>
-        </is>
-      </c>
-      <c r="J440" s="10" t="inlineStr"/>
+      <c r="I440" s="10" t="inlineStr"/>
+      <c r="J440" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 320 стрелковый полк  11 стрелковая дивизия </t>
+        </is>
+      </c>
       <c r="K440" s="10" t="inlineStr">
         <is>
           <t>20.01.1943</t>
@@ -39844,7 +39832,7 @@
       <c r="J441" s="10" t="inlineStr"/>
       <c r="K441" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00.01.е 1944 </t>
+          <t>00.01.1944</t>
         </is>
       </c>
       <c r="L441" s="12" t="inlineStr">
@@ -39927,12 +39915,12 @@
           <t>гвардии сержант</t>
         </is>
       </c>
-      <c r="I442" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> п/п 01175</t>
-        </is>
-      </c>
-      <c r="J442" s="10" t="inlineStr"/>
+      <c r="I442" s="10" t="inlineStr"/>
+      <c r="J442" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> полевая почта01175 </t>
+        </is>
+      </c>
       <c r="K442" s="10" t="inlineStr">
         <is>
           <t>13.07.1943</t>

--- a/tx.xlsx
+++ b/tx.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="15120" xWindow="120" yWindow="105"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="ПрСмерти">'[1]Причина смерти'!$A$1:$A$7</definedName>
     <definedName name="Районы">[1]Районы!$A$1:$A$28</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -68,41 +68,41 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -316,9 +316,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -356,9 +356,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,9 +390,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,9 +425,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,38 +609,38 @@
   <dimension ref="A1:AC447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="E2" xSplit="4" ySplit="1"/>
-      <selection activeCell="E1" pane="topRight" sqref="E1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="E10" pane="bottomRight" sqref="E10"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="7"/>
-    <col customWidth="1" max="2" min="2" style="6" width="12.42578125"/>
-    <col customWidth="1" max="3" min="3" style="6" width="13.140625"/>
-    <col customWidth="1" max="4" min="4" style="6" width="18"/>
-    <col customWidth="1" max="5" min="5" style="6" width="79.42578125"/>
-    <col customWidth="1" max="6" min="6" style="6" width="13.85546875"/>
-    <col customWidth="1" max="7" min="7" style="6" width="16.140625"/>
-    <col customWidth="1" max="8" min="8" style="6" width="18.140625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="6" width="23.5703125"/>
-    <col customWidth="1" max="10" min="10" style="6" width="16.28515625"/>
-    <col customWidth="1" max="11" min="11" style="6" width="17.85546875"/>
-    <col customWidth="1" max="12" min="12" style="6" width="17"/>
-    <col customWidth="1" max="13" min="13" style="6" width="41.42578125"/>
-    <col customWidth="1" max="14" min="14" style="6" width="21.42578125"/>
-    <col customWidth="1" max="15" min="15" style="6" width="25.140625"/>
-    <col customWidth="1" max="16" min="16" style="6" width="18.7109375"/>
-    <col customWidth="1" max="17" min="17" style="6" width="21"/>
-    <col customWidth="1" max="18" min="18" style="6" width="12.5703125"/>
-    <col customWidth="1" max="19" min="19" style="6" width="19.140625"/>
-    <col customWidth="1" max="20" min="20" style="6" width="22.5703125"/>
-    <col customWidth="1" max="21" min="21" style="6" width="15.140625"/>
-    <col customWidth="1" max="22" min="22" style="6" width="9"/>
-    <col hidden="1" max="29" min="23" style="6"/>
-    <col bestFit="1" customWidth="1" max="35" min="35" style="6" width="10.140625"/>
+    <col width="7" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.44140625" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.109375" customWidth="1" style="6" min="3" max="3"/>
+    <col width="18" customWidth="1" style="6" min="4" max="4"/>
+    <col width="79.44140625" customWidth="1" style="6" min="5" max="5"/>
+    <col width="13.88671875" customWidth="1" style="6" min="6" max="6"/>
+    <col width="16.109375" customWidth="1" style="6" min="7" max="7"/>
+    <col width="18.109375" customWidth="1" style="6" min="8" max="8"/>
+    <col width="23.5546875" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
+    <col width="16.33203125" customWidth="1" style="6" min="10" max="10"/>
+    <col width="17.88671875" customWidth="1" style="6" min="11" max="11"/>
+    <col width="17" customWidth="1" style="6" min="12" max="12"/>
+    <col width="41.44140625" customWidth="1" style="6" min="13" max="13"/>
+    <col width="21.44140625" customWidth="1" style="6" min="14" max="14"/>
+    <col width="25.109375" customWidth="1" style="6" min="15" max="15"/>
+    <col width="18.6640625" customWidth="1" style="6" min="16" max="16"/>
+    <col width="21" customWidth="1" style="6" min="17" max="17"/>
+    <col width="12.5546875" customWidth="1" style="6" min="18" max="18"/>
+    <col width="19.109375" customWidth="1" style="6" min="19" max="19"/>
+    <col width="22.5546875" customWidth="1" style="6" min="20" max="20"/>
+    <col width="15.109375" customWidth="1" style="6" min="21" max="21"/>
+    <col width="9" customWidth="1" style="6" min="22" max="22"/>
+    <col hidden="1" style="6" min="23" max="29"/>
+    <col width="10.109375" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1" s="6">
@@ -814,7 +816,7 @@
       </c>
       <c r="F2" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1926 </t>
+          <t>1926</t>
         </is>
       </c>
       <c r="G2" s="10" t="inlineStr"/>
@@ -843,11 +845,7 @@
       <c r="N2" s="10" t="inlineStr"/>
       <c r="O2" s="10" t="inlineStr"/>
       <c r="P2" s="10" t="inlineStr"/>
-      <c r="Q2" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=55616065</t>
-        </is>
-      </c>
+      <c r="Q2" s="10" t="inlineStr"/>
       <c r="R2" s="10" t="inlineStr"/>
       <c r="S2" s="10" t="inlineStr">
         <is>
@@ -909,7 +907,7 @@
       </c>
       <c r="F3" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G3" s="10" t="inlineStr"/>
@@ -934,11 +932,7 @@
       <c r="N3" s="10" t="inlineStr"/>
       <c r="O3" s="10" t="inlineStr"/>
       <c r="P3" s="10" t="inlineStr"/>
-      <c r="Q3" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58495694</t>
-        </is>
-      </c>
+      <c r="Q3" s="10" t="inlineStr"/>
       <c r="R3" s="10" t="inlineStr"/>
       <c r="S3" s="10" t="inlineStr">
         <is>
@@ -1021,11 +1015,7 @@
       <c r="N4" s="10" t="inlineStr"/>
       <c r="O4" s="10" t="inlineStr"/>
       <c r="P4" s="10" t="inlineStr"/>
-      <c r="Q4" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60671501</t>
-        </is>
-      </c>
+      <c r="Q4" s="10" t="inlineStr"/>
       <c r="R4" s="10" t="inlineStr"/>
       <c r="S4" s="10" t="inlineStr">
         <is>
@@ -1112,11 +1102,7 @@
       <c r="N5" s="10" t="inlineStr"/>
       <c r="O5" s="10" t="inlineStr"/>
       <c r="P5" s="10" t="inlineStr"/>
-      <c r="Q5" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303841</t>
-        </is>
-      </c>
+      <c r="Q5" s="10" t="inlineStr"/>
       <c r="R5" s="10" t="inlineStr"/>
       <c r="S5" s="10" t="inlineStr">
         <is>
@@ -1152,7 +1138,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="6" s="6">
+    <row r="6" ht="27" customHeight="1" s="6">
       <c r="A6" s="7" t="n">
         <v>142042</v>
       </c>
@@ -1178,7 +1164,7 @@
       </c>
       <c r="F6" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G6" s="10" t="inlineStr">
@@ -1211,11 +1197,7 @@
       <c r="N6" s="10" t="inlineStr"/>
       <c r="O6" s="10" t="inlineStr"/>
       <c r="P6" s="10" t="inlineStr"/>
-      <c r="Q6" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=56078104</t>
-        </is>
-      </c>
+      <c r="Q6" s="10" t="inlineStr"/>
       <c r="R6" s="10" t="inlineStr"/>
       <c r="S6" s="10" t="inlineStr">
         <is>
@@ -1385,11 +1367,7 @@
       <c r="N8" s="10" t="inlineStr"/>
       <c r="O8" s="10" t="inlineStr"/>
       <c r="P8" s="10" t="inlineStr"/>
-      <c r="Q8" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62539423</t>
-        </is>
-      </c>
+      <c r="Q8" s="10" t="inlineStr"/>
       <c r="R8" s="10" t="inlineStr"/>
       <c r="S8" s="10" t="inlineStr">
         <is>
@@ -1451,7 +1429,7 @@
       </c>
       <c r="F9" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G9" s="10" t="inlineStr"/>
@@ -1476,11 +1454,7 @@
       <c r="N9" s="10" t="inlineStr"/>
       <c r="O9" s="10" t="inlineStr"/>
       <c r="P9" s="10" t="inlineStr"/>
-      <c r="Q9" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170675</t>
-        </is>
-      </c>
+      <c r="Q9" s="10" t="inlineStr"/>
       <c r="R9" s="10" t="inlineStr"/>
       <c r="S9" s="10" t="inlineStr">
         <is>
@@ -1516,7 +1490,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="10" s="6">
+    <row r="10" s="6">
       <c r="A10" s="7" t="n">
         <v>142046</v>
       </c>
@@ -1542,7 +1516,7 @@
       </c>
       <c r="F10" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1920 </t>
+          <t>1920</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr"/>
@@ -1571,11 +1545,7 @@
       <c r="N10" s="10" t="inlineStr"/>
       <c r="O10" s="10" t="inlineStr"/>
       <c r="P10" s="10" t="inlineStr"/>
-      <c r="Q10" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54250492</t>
-        </is>
-      </c>
+      <c r="Q10" s="10" t="inlineStr"/>
       <c r="R10" s="10" t="inlineStr"/>
       <c r="S10" s="10" t="inlineStr">
         <is>
@@ -1637,7 +1607,7 @@
       </c>
       <c r="F11" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1915 </t>
+          <t>1915</t>
         </is>
       </c>
       <c r="G11" s="10" t="inlineStr"/>
@@ -1662,11 +1632,7 @@
       <c r="N11" s="10" t="inlineStr"/>
       <c r="O11" s="10" t="inlineStr"/>
       <c r="P11" s="10" t="inlineStr"/>
-      <c r="Q11" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58495695</t>
-        </is>
-      </c>
+      <c r="Q11" s="10" t="inlineStr"/>
       <c r="R11" s="10" t="inlineStr"/>
       <c r="S11" s="10" t="inlineStr">
         <is>
@@ -1728,7 +1694,7 @@
       </c>
       <c r="F12" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1916 </t>
+          <t>1916</t>
         </is>
       </c>
       <c r="G12" s="10" t="inlineStr"/>
@@ -1753,11 +1719,7 @@
       <c r="N12" s="10" t="inlineStr"/>
       <c r="O12" s="10" t="inlineStr"/>
       <c r="P12" s="10" t="inlineStr"/>
-      <c r="Q12" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213066</t>
-        </is>
-      </c>
+      <c r="Q12" s="10" t="inlineStr"/>
       <c r="R12" s="10" t="inlineStr"/>
       <c r="S12" s="10" t="inlineStr">
         <is>
@@ -1840,11 +1802,7 @@
       <c r="N13" s="10" t="inlineStr"/>
       <c r="O13" s="10" t="inlineStr"/>
       <c r="P13" s="10" t="inlineStr"/>
-      <c r="Q13" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303851</t>
-        </is>
-      </c>
+      <c r="Q13" s="10" t="inlineStr"/>
       <c r="R13" s="10" t="inlineStr"/>
       <c r="S13" s="10" t="inlineStr">
         <is>
@@ -1880,7 +1838,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="14" s="6">
+    <row r="14" s="6">
       <c r="A14" s="7" t="n">
         <v>142050</v>
       </c>
@@ -1906,7 +1864,7 @@
       </c>
       <c r="F14" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1898 </t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G14" s="10" t="inlineStr">
@@ -1931,11 +1889,7 @@
       <c r="N14" s="10" t="inlineStr"/>
       <c r="O14" s="10" t="inlineStr"/>
       <c r="P14" s="10" t="inlineStr"/>
-      <c r="Q14" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213065</t>
-        </is>
-      </c>
+      <c r="Q14" s="10" t="inlineStr"/>
       <c r="R14" s="10" t="inlineStr"/>
       <c r="S14" s="10" t="inlineStr">
         <is>
@@ -2018,11 +1972,7 @@
       <c r="N15" s="10" t="inlineStr"/>
       <c r="O15" s="10" t="inlineStr"/>
       <c r="P15" s="10" t="inlineStr"/>
-      <c r="Q15" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303853</t>
-        </is>
-      </c>
+      <c r="Q15" s="10" t="inlineStr"/>
       <c r="R15" s="10" t="inlineStr"/>
       <c r="S15" s="10" t="inlineStr">
         <is>
@@ -2084,7 +2034,7 @@
       </c>
       <c r="F16" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1920 </t>
+          <t>1920</t>
         </is>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
@@ -2109,11 +2059,7 @@
       <c r="N16" s="10" t="inlineStr"/>
       <c r="O16" s="10" t="inlineStr"/>
       <c r="P16" s="10" t="inlineStr"/>
-      <c r="Q16" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303854</t>
-        </is>
-      </c>
+      <c r="Q16" s="10" t="inlineStr"/>
       <c r="R16" s="10" t="inlineStr"/>
       <c r="S16" s="10" t="inlineStr">
         <is>
@@ -2149,7 +2095,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="17" s="6">
+    <row r="17" ht="27" customHeight="1" s="6">
       <c r="A17" s="7" t="n">
         <v>142053</v>
       </c>
@@ -2175,7 +2121,7 @@
       </c>
       <c r="F17" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G17" s="10" t="inlineStr">
@@ -2204,11 +2150,7 @@
       <c r="N17" s="10" t="inlineStr"/>
       <c r="O17" s="10" t="inlineStr"/>
       <c r="P17" s="10" t="inlineStr"/>
-      <c r="Q17" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213071</t>
-        </is>
-      </c>
+      <c r="Q17" s="10" t="inlineStr"/>
       <c r="R17" s="10" t="inlineStr"/>
       <c r="S17" s="10" t="inlineStr">
         <is>
@@ -2270,7 +2212,7 @@
       </c>
       <c r="F18" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1908 </t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
@@ -2295,11 +2237,7 @@
       <c r="N18" s="10" t="inlineStr"/>
       <c r="O18" s="10" t="inlineStr"/>
       <c r="P18" s="10" t="inlineStr"/>
-      <c r="Q18" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213101</t>
-        </is>
-      </c>
+      <c r="Q18" s="10" t="inlineStr"/>
       <c r="R18" s="10" t="inlineStr"/>
       <c r="S18" s="10" t="inlineStr">
         <is>
@@ -2386,11 +2324,7 @@
       <c r="N19" s="10" t="inlineStr"/>
       <c r="O19" s="10" t="inlineStr"/>
       <c r="P19" s="10" t="inlineStr"/>
-      <c r="Q19" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303857</t>
-        </is>
-      </c>
+      <c r="Q19" s="10" t="inlineStr"/>
       <c r="R19" s="10" t="inlineStr"/>
       <c r="S19" s="10" t="inlineStr">
         <is>
@@ -2452,7 +2386,7 @@
       </c>
       <c r="F20" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1917 </t>
+          <t>1917</t>
         </is>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
@@ -2473,11 +2407,7 @@
       <c r="N20" s="10" t="inlineStr"/>
       <c r="O20" s="10" t="inlineStr"/>
       <c r="P20" s="10" t="inlineStr"/>
-      <c r="Q20" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=70441082</t>
-        </is>
-      </c>
+      <c r="Q20" s="10" t="inlineStr"/>
       <c r="R20" s="10" t="inlineStr"/>
       <c r="S20" s="10" t="inlineStr">
         <is>
@@ -2513,7 +2443,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="21" s="6">
+    <row r="21" ht="27" customHeight="1" s="6">
       <c r="A21" s="7" t="n">
         <v>142056</v>
       </c>
@@ -2539,7 +2469,7 @@
       </c>
       <c r="F21" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G21" s="10" t="inlineStr">
@@ -2564,11 +2494,7 @@
       <c r="N21" s="10" t="inlineStr"/>
       <c r="O21" s="10" t="inlineStr"/>
       <c r="P21" s="10" t="inlineStr"/>
-      <c r="Q21" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213070</t>
-        </is>
-      </c>
+      <c r="Q21" s="10" t="inlineStr"/>
       <c r="R21" s="10" t="inlineStr"/>
       <c r="S21" s="10" t="inlineStr">
         <is>
@@ -2651,11 +2577,7 @@
       <c r="N22" s="10" t="inlineStr"/>
       <c r="O22" s="10" t="inlineStr"/>
       <c r="P22" s="10" t="inlineStr"/>
-      <c r="Q22" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60887756</t>
-        </is>
-      </c>
+      <c r="Q22" s="10" t="inlineStr"/>
       <c r="R22" s="10" t="inlineStr"/>
       <c r="S22" s="10" t="inlineStr">
         <is>
@@ -2738,11 +2660,7 @@
       <c r="N23" s="10" t="inlineStr"/>
       <c r="O23" s="10" t="inlineStr"/>
       <c r="P23" s="10" t="inlineStr"/>
-      <c r="Q23" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57002265</t>
-        </is>
-      </c>
+      <c r="Q23" s="10" t="inlineStr"/>
       <c r="R23" s="10" t="inlineStr"/>
       <c r="S23" s="10" t="inlineStr">
         <is>
@@ -2778,7 +2696,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="24" s="6">
+    <row r="24" ht="27" customHeight="1" s="6">
       <c r="A24" s="7" t="n">
         <v>142060</v>
       </c>
@@ -2829,11 +2747,7 @@
       <c r="N24" s="10" t="inlineStr"/>
       <c r="O24" s="10" t="inlineStr"/>
       <c r="P24" s="10" t="inlineStr"/>
-      <c r="Q24" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=583703427</t>
-        </is>
-      </c>
+      <c r="Q24" s="10" t="inlineStr"/>
       <c r="R24" s="10" t="inlineStr"/>
       <c r="S24" s="10" t="inlineStr">
         <is>
@@ -2869,7 +2783,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="25" s="6">
+    <row r="25" ht="27" customHeight="1" s="6">
       <c r="A25" s="7" t="n">
         <v>142061</v>
       </c>
@@ -2896,7 +2810,7 @@
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> тыловой военносанитарн. поезд ?59</t>
+          <t xml:space="preserve"> Ворошиловградская ж. д.</t>
         </is>
       </c>
       <c r="H25" s="10" t="inlineStr"/>
@@ -2916,11 +2830,7 @@
       <c r="N25" s="10" t="inlineStr"/>
       <c r="O25" s="10" t="inlineStr"/>
       <c r="P25" s="10" t="inlineStr"/>
-      <c r="Q25" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303879</t>
-        </is>
-      </c>
+      <c r="Q25" s="10" t="inlineStr"/>
       <c r="R25" s="10" t="inlineStr"/>
       <c r="S25" s="10" t="inlineStr">
         <is>
@@ -2982,7 +2892,7 @@
       </c>
       <c r="F26" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1925 </t>
+          <t>1925</t>
         </is>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
@@ -3007,11 +2917,7 @@
       <c r="N26" s="10" t="inlineStr"/>
       <c r="O26" s="10" t="inlineStr"/>
       <c r="P26" s="10" t="inlineStr"/>
-      <c r="Q26" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170644</t>
-        </is>
-      </c>
+      <c r="Q26" s="10" t="inlineStr"/>
       <c r="R26" s="10" t="inlineStr"/>
       <c r="S26" s="10" t="inlineStr">
         <is>
@@ -3098,11 +3004,7 @@
       <c r="N27" s="10" t="inlineStr"/>
       <c r="O27" s="10" t="inlineStr"/>
       <c r="P27" s="10" t="inlineStr"/>
-      <c r="Q27" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=63596255</t>
-        </is>
-      </c>
+      <c r="Q27" s="10" t="inlineStr"/>
       <c r="R27" s="10" t="inlineStr"/>
       <c r="S27" s="10" t="inlineStr">
         <is>
@@ -3138,7 +3040,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="28" s="6">
+    <row r="28" ht="27" customHeight="1" s="6">
       <c r="A28" s="7" t="n">
         <v>142064</v>
       </c>
@@ -3193,11 +3095,7 @@
       <c r="N28" s="10" t="inlineStr"/>
       <c r="O28" s="10" t="inlineStr"/>
       <c r="P28" s="10" t="inlineStr"/>
-      <c r="Q28" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=6645832</t>
-        </is>
-      </c>
+      <c r="Q28" s="10" t="inlineStr"/>
       <c r="R28" s="10" t="inlineStr"/>
       <c r="S28" s="10" t="inlineStr">
         <is>
@@ -3280,11 +3178,7 @@
       <c r="N29" s="10" t="inlineStr"/>
       <c r="O29" s="10" t="inlineStr"/>
       <c r="P29" s="10" t="inlineStr"/>
-      <c r="Q29" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=266763701</t>
-        </is>
-      </c>
+      <c r="Q29" s="10" t="inlineStr"/>
       <c r="R29" s="10" t="inlineStr"/>
       <c r="S29" s="10" t="inlineStr">
         <is>
@@ -3346,7 +3240,7 @@
       </c>
       <c r="F30" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1907 </t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
@@ -3371,11 +3265,7 @@
       <c r="N30" s="10" t="inlineStr"/>
       <c r="O30" s="10" t="inlineStr"/>
       <c r="P30" s="10" t="inlineStr"/>
-      <c r="Q30" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303874</t>
-        </is>
-      </c>
+      <c r="Q30" s="10" t="inlineStr"/>
       <c r="R30" s="10" t="inlineStr"/>
       <c r="S30" s="10" t="inlineStr">
         <is>
@@ -3411,7 +3301,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="31" s="6">
+    <row r="31" ht="27" customHeight="1" s="6">
       <c r="A31" s="7" t="n">
         <v>142067</v>
       </c>
@@ -3437,7 +3327,7 @@
       </c>
       <c r="F31" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1926 </t>
+          <t>1926</t>
         </is>
       </c>
       <c r="G31" s="10" t="inlineStr"/>
@@ -3470,11 +3360,7 @@
       <c r="N31" s="10" t="inlineStr"/>
       <c r="O31" s="10" t="inlineStr"/>
       <c r="P31" s="10" t="inlineStr"/>
-      <c r="Q31" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303873</t>
-        </is>
-      </c>
+      <c r="Q31" s="10" t="inlineStr"/>
       <c r="R31" s="10" t="inlineStr"/>
       <c r="S31" s="10" t="inlineStr">
         <is>
@@ -3536,7 +3422,7 @@
       </c>
       <c r="F32" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1904 </t>
+          <t>1904</t>
         </is>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
@@ -3565,11 +3451,7 @@
       <c r="N32" s="10" t="inlineStr"/>
       <c r="O32" s="10" t="inlineStr"/>
       <c r="P32" s="10" t="inlineStr"/>
-      <c r="Q32" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2263362</t>
-        </is>
-      </c>
+      <c r="Q32" s="10" t="inlineStr"/>
       <c r="R32" s="10" t="inlineStr"/>
       <c r="S32" s="10" t="inlineStr">
         <is>
@@ -3652,11 +3534,7 @@
       <c r="N33" s="10" t="inlineStr"/>
       <c r="O33" s="10" t="inlineStr"/>
       <c r="P33" s="10" t="inlineStr"/>
-      <c r="Q33" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60671554</t>
-        </is>
-      </c>
+      <c r="Q33" s="10" t="inlineStr"/>
       <c r="R33" s="10" t="inlineStr"/>
       <c r="S33" s="10" t="inlineStr">
         <is>
@@ -3739,11 +3617,7 @@
       <c r="N34" s="10" t="inlineStr"/>
       <c r="O34" s="10" t="inlineStr"/>
       <c r="P34" s="10" t="inlineStr"/>
-      <c r="Q34" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303870</t>
-        </is>
-      </c>
+      <c r="Q34" s="10" t="inlineStr"/>
       <c r="R34" s="10" t="inlineStr"/>
       <c r="S34" s="10" t="inlineStr">
         <is>
@@ -3806,7 +3680,7 @@
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  г. Шацк</t>
+          <t xml:space="preserve"> Рязанская обл.,  г. Шацк,  сержант</t>
         </is>
       </c>
       <c r="H35" s="10" t="inlineStr">
@@ -3830,11 +3704,7 @@
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
       <c r="P35" s="10" t="inlineStr"/>
-      <c r="Q35" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1258298</t>
-        </is>
-      </c>
+      <c r="Q35" s="10" t="inlineStr"/>
       <c r="R35" s="10" t="inlineStr"/>
       <c r="S35" s="10" t="inlineStr">
         <is>
@@ -3917,11 +3787,7 @@
       <c r="N36" s="10" t="inlineStr"/>
       <c r="O36" s="10" t="inlineStr"/>
       <c r="P36" s="10" t="inlineStr"/>
-      <c r="Q36" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64807176</t>
-        </is>
-      </c>
+      <c r="Q36" s="10" t="inlineStr"/>
       <c r="R36" s="10" t="inlineStr"/>
       <c r="S36" s="10" t="inlineStr">
         <is>
@@ -3983,7 +3849,7 @@
       </c>
       <c r="F37" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1903 </t>
+          <t>1903</t>
         </is>
       </c>
       <c r="G37" s="10" t="inlineStr">
@@ -4016,11 +3882,7 @@
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
       <c r="P37" s="10" t="inlineStr"/>
-      <c r="Q37" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303867</t>
-        </is>
-      </c>
+      <c r="Q37" s="10" t="inlineStr"/>
       <c r="R37" s="10" t="inlineStr"/>
       <c r="S37" s="10" t="inlineStr">
         <is>
@@ -4111,11 +3973,7 @@
       <c r="N38" s="10" t="inlineStr"/>
       <c r="O38" s="10" t="inlineStr"/>
       <c r="P38" s="10" t="inlineStr"/>
-      <c r="Q38" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303866</t>
-        </is>
-      </c>
+      <c r="Q38" s="10" t="inlineStr"/>
       <c r="R38" s="10" t="inlineStr"/>
       <c r="S38" s="10" t="inlineStr">
         <is>
@@ -4177,7 +4035,7 @@
       </c>
       <c r="F39" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1924 </t>
+          <t>1924</t>
         </is>
       </c>
       <c r="G39" s="10" t="inlineStr"/>
@@ -4202,11 +4060,7 @@
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
       <c r="P39" s="10" t="inlineStr"/>
-      <c r="Q39" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303865</t>
-        </is>
-      </c>
+      <c r="Q39" s="10" t="inlineStr"/>
       <c r="R39" s="10" t="inlineStr"/>
       <c r="S39" s="10" t="inlineStr">
         <is>
@@ -4289,11 +4143,7 @@
       <c r="N40" s="10" t="inlineStr"/>
       <c r="O40" s="10" t="inlineStr"/>
       <c r="P40" s="10" t="inlineStr"/>
-      <c r="Q40" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60671473</t>
-        </is>
-      </c>
+      <c r="Q40" s="10" t="inlineStr"/>
       <c r="R40" s="10" t="inlineStr"/>
       <c r="S40" s="10" t="inlineStr">
         <is>
@@ -4329,7 +4179,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="41" s="6">
+    <row r="41" ht="27" customHeight="1" s="6">
       <c r="A41" s="7" t="n">
         <v>142077</v>
       </c>
@@ -4355,7 +4205,7 @@
       </c>
       <c r="F41" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1924 </t>
+          <t>1924</t>
         </is>
       </c>
       <c r="G41" s="10" t="inlineStr"/>
@@ -4384,11 +4234,7 @@
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
       <c r="P41" s="10" t="inlineStr"/>
-      <c r="Q41" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54576684</t>
-        </is>
-      </c>
+      <c r="Q41" s="10" t="inlineStr"/>
       <c r="R41" s="10" t="inlineStr"/>
       <c r="S41" s="10" t="inlineStr">
         <is>
@@ -4475,11 +4321,7 @@
       <c r="N42" s="10" t="inlineStr"/>
       <c r="O42" s="10" t="inlineStr"/>
       <c r="P42" s="10" t="inlineStr"/>
-      <c r="Q42" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4360768</t>
-        </is>
-      </c>
+      <c r="Q42" s="10" t="inlineStr"/>
       <c r="R42" s="10" t="inlineStr"/>
       <c r="S42" s="10" t="inlineStr">
         <is>
@@ -4541,7 +4383,7 @@
       </c>
       <c r="F43" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G43" s="10" t="inlineStr"/>
@@ -4570,11 +4412,7 @@
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
       <c r="P43" s="10" t="inlineStr"/>
-      <c r="Q43" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303861</t>
-        </is>
-      </c>
+      <c r="Q43" s="10" t="inlineStr"/>
       <c r="R43" s="10" t="inlineStr"/>
       <c r="S43" s="10" t="inlineStr">
         <is>
@@ -4661,11 +4499,7 @@
       <c r="N44" s="10" t="inlineStr"/>
       <c r="O44" s="10" t="inlineStr"/>
       <c r="P44" s="10" t="inlineStr"/>
-      <c r="Q44" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303860</t>
-        </is>
-      </c>
+      <c r="Q44" s="10" t="inlineStr"/>
       <c r="R44" s="10" t="inlineStr"/>
       <c r="S44" s="10" t="inlineStr">
         <is>
@@ -4701,7 +4535,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="45" s="6">
+    <row r="45" ht="27" customHeight="1" s="6">
       <c r="A45" s="7" t="n">
         <v>142081</v>
       </c>
@@ -4727,7 +4561,7 @@
       </c>
       <c r="F45" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G45" s="10" t="inlineStr">
@@ -4760,11 +4594,7 @@
       <c r="N45" s="10" t="inlineStr"/>
       <c r="O45" s="10" t="inlineStr"/>
       <c r="P45" s="10" t="inlineStr"/>
-      <c r="Q45" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303887</t>
-        </is>
-      </c>
+      <c r="Q45" s="10" t="inlineStr"/>
       <c r="R45" s="10" t="inlineStr"/>
       <c r="S45" s="10" t="inlineStr">
         <is>
@@ -4800,7 +4630,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="46" s="6">
+    <row r="46" ht="27" customHeight="1" s="6">
       <c r="A46" s="7" t="n">
         <v>142082</v>
       </c>
@@ -4826,7 +4656,7 @@
       </c>
       <c r="F46" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1902 </t>
+          <t>1902</t>
         </is>
       </c>
       <c r="G46" s="10" t="inlineStr">
@@ -4855,11 +4685,7 @@
       <c r="N46" s="10" t="inlineStr"/>
       <c r="O46" s="10" t="inlineStr"/>
       <c r="P46" s="10" t="inlineStr"/>
-      <c r="Q46" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303886</t>
-        </is>
-      </c>
+      <c r="Q46" s="10" t="inlineStr"/>
       <c r="R46" s="10" t="inlineStr"/>
       <c r="S46" s="10" t="inlineStr">
         <is>
@@ -4942,11 +4768,7 @@
       <c r="N47" s="10" t="inlineStr"/>
       <c r="O47" s="10" t="inlineStr"/>
       <c r="P47" s="10" t="inlineStr"/>
-      <c r="Q47" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303885</t>
-        </is>
-      </c>
+      <c r="Q47" s="10" t="inlineStr"/>
       <c r="R47" s="10" t="inlineStr"/>
       <c r="S47" s="10" t="inlineStr">
         <is>
@@ -5029,11 +4851,7 @@
       <c r="N48" s="10" t="inlineStr"/>
       <c r="O48" s="10" t="inlineStr"/>
       <c r="P48" s="10" t="inlineStr"/>
-      <c r="Q48" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965223</t>
-        </is>
-      </c>
+      <c r="Q48" s="10" t="inlineStr"/>
       <c r="R48" s="10" t="inlineStr"/>
       <c r="S48" s="10" t="inlineStr">
         <is>
@@ -5095,7 +4913,7 @@
       </c>
       <c r="F49" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G49" s="10" t="inlineStr"/>
@@ -5116,11 +4934,7 @@
       <c r="N49" s="10" t="inlineStr"/>
       <c r="O49" s="10" t="inlineStr"/>
       <c r="P49" s="10" t="inlineStr"/>
-      <c r="Q49" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54146767</t>
-        </is>
-      </c>
+      <c r="Q49" s="10" t="inlineStr"/>
       <c r="R49" s="10" t="inlineStr"/>
       <c r="S49" s="10" t="inlineStr">
         <is>
@@ -5182,7 +4996,7 @@
       </c>
       <c r="F50" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1915 </t>
+          <t>1915</t>
         </is>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
@@ -5211,11 +5025,7 @@
       <c r="N50" s="10" t="inlineStr"/>
       <c r="O50" s="10" t="inlineStr"/>
       <c r="P50" s="10" t="inlineStr"/>
-      <c r="Q50" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=9225408</t>
-        </is>
-      </c>
+      <c r="Q50" s="10" t="inlineStr"/>
       <c r="R50" s="10" t="inlineStr"/>
       <c r="S50" s="10" t="inlineStr">
         <is>
@@ -5277,7 +5087,7 @@
       </c>
       <c r="F51" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1922 </t>
+          <t>1922</t>
         </is>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
@@ -5306,11 +5116,7 @@
       <c r="N51" s="10" t="inlineStr"/>
       <c r="O51" s="10" t="inlineStr"/>
       <c r="P51" s="10" t="inlineStr"/>
-      <c r="Q51" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2114171</t>
-        </is>
-      </c>
+      <c r="Q51" s="10" t="inlineStr"/>
       <c r="R51" s="10" t="inlineStr"/>
       <c r="S51" s="10" t="inlineStr">
         <is>
@@ -5393,11 +5199,7 @@
       <c r="N52" s="10" t="inlineStr"/>
       <c r="O52" s="10" t="inlineStr"/>
       <c r="P52" s="10" t="inlineStr"/>
-      <c r="Q52" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965203</t>
-        </is>
-      </c>
+      <c r="Q52" s="10" t="inlineStr"/>
       <c r="R52" s="10" t="inlineStr"/>
       <c r="S52" s="10" t="inlineStr">
         <is>
@@ -5484,11 +5286,7 @@
       <c r="N53" s="10" t="inlineStr"/>
       <c r="O53" s="10" t="inlineStr"/>
       <c r="P53" s="10" t="inlineStr"/>
-      <c r="Q53" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=53479841</t>
-        </is>
-      </c>
+      <c r="Q53" s="10" t="inlineStr"/>
       <c r="R53" s="10" t="inlineStr"/>
       <c r="S53" s="10" t="inlineStr">
         <is>
@@ -5524,7 +5322,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="54" s="6">
+    <row r="54" ht="27" customHeight="1" s="6">
       <c r="A54" s="7" t="n">
         <v>142090</v>
       </c>
@@ -5550,7 +5348,7 @@
       </c>
       <c r="F54" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
@@ -5579,11 +5377,7 @@
       <c r="N54" s="10" t="inlineStr"/>
       <c r="O54" s="10" t="inlineStr"/>
       <c r="P54" s="10" t="inlineStr"/>
-      <c r="Q54" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=63028779</t>
-        </is>
-      </c>
+      <c r="Q54" s="10" t="inlineStr"/>
       <c r="R54" s="10" t="inlineStr"/>
       <c r="S54" s="10" t="inlineStr">
         <is>
@@ -5666,11 +5460,7 @@
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
-      <c r="Q55" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303894</t>
-        </is>
-      </c>
+      <c r="Q55" s="10" t="inlineStr"/>
       <c r="R55" s="10" t="inlineStr"/>
       <c r="S55" s="10" t="inlineStr">
         <is>
@@ -5753,11 +5543,7 @@
       <c r="N56" s="10" t="inlineStr"/>
       <c r="O56" s="10" t="inlineStr"/>
       <c r="P56" s="10" t="inlineStr"/>
-      <c r="Q56" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65027770</t>
-        </is>
-      </c>
+      <c r="Q56" s="10" t="inlineStr"/>
       <c r="R56" s="10" t="inlineStr"/>
       <c r="S56" s="10" t="inlineStr">
         <is>
@@ -5840,11 +5626,7 @@
       <c r="N57" s="10" t="inlineStr"/>
       <c r="O57" s="10" t="inlineStr"/>
       <c r="P57" s="10" t="inlineStr"/>
-      <c r="Q57" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=61664350</t>
-        </is>
-      </c>
+      <c r="Q57" s="10" t="inlineStr"/>
       <c r="R57" s="10" t="inlineStr"/>
       <c r="S57" s="10" t="inlineStr">
         <is>
@@ -5880,7 +5662,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="58" s="6">
+    <row r="58" ht="27" customHeight="1" s="6">
       <c r="A58" s="7" t="n">
         <v>142094</v>
       </c>
@@ -5906,7 +5688,7 @@
       </c>
       <c r="F58" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1925 </t>
+          <t>1925</t>
         </is>
       </c>
       <c r="G58" s="10" t="inlineStr">
@@ -5943,11 +5725,7 @@
       <c r="N58" s="10" t="inlineStr"/>
       <c r="O58" s="10" t="inlineStr"/>
       <c r="P58" s="10" t="inlineStr"/>
-      <c r="Q58" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=56158794</t>
-        </is>
-      </c>
+      <c r="Q58" s="10" t="inlineStr"/>
       <c r="R58" s="10" t="inlineStr"/>
       <c r="S58" s="10" t="inlineStr">
         <is>
@@ -6034,11 +5812,7 @@
       <c r="N59" s="10" t="inlineStr"/>
       <c r="O59" s="10" t="inlineStr"/>
       <c r="P59" s="10" t="inlineStr"/>
-      <c r="Q59" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303898</t>
-        </is>
-      </c>
+      <c r="Q59" s="10" t="inlineStr"/>
       <c r="R59" s="10" t="inlineStr"/>
       <c r="S59" s="10" t="inlineStr">
         <is>
@@ -6100,7 +5874,7 @@
       </c>
       <c r="F60" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
@@ -6125,11 +5899,7 @@
       <c r="N60" s="10" t="inlineStr"/>
       <c r="O60" s="10" t="inlineStr"/>
       <c r="P60" s="10" t="inlineStr"/>
-      <c r="Q60" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57098774</t>
-        </is>
-      </c>
+      <c r="Q60" s="10" t="inlineStr"/>
       <c r="R60" s="10" t="inlineStr"/>
       <c r="S60" s="10" t="inlineStr">
         <is>
@@ -6191,7 +5961,7 @@
       </c>
       <c r="F61" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G61" s="10" t="inlineStr"/>
@@ -6212,11 +5982,7 @@
       <c r="N61" s="10" t="inlineStr"/>
       <c r="O61" s="10" t="inlineStr"/>
       <c r="P61" s="10" t="inlineStr"/>
-      <c r="Q61" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303900</t>
-        </is>
-      </c>
+      <c r="Q61" s="10" t="inlineStr"/>
       <c r="R61" s="10" t="inlineStr"/>
       <c r="S61" s="10" t="inlineStr">
         <is>
@@ -6278,7 +6044,7 @@
       </c>
       <c r="F62" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
@@ -6303,11 +6069,7 @@
       <c r="N62" s="10" t="inlineStr"/>
       <c r="O62" s="10" t="inlineStr"/>
       <c r="P62" s="10" t="inlineStr"/>
-      <c r="Q62" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303901</t>
-        </is>
-      </c>
+      <c r="Q62" s="10" t="inlineStr"/>
       <c r="R62" s="10" t="inlineStr"/>
       <c r="S62" s="10" t="inlineStr">
         <is>
@@ -6394,11 +6156,7 @@
       <c r="N63" s="10" t="inlineStr"/>
       <c r="O63" s="10" t="inlineStr"/>
       <c r="P63" s="10" t="inlineStr"/>
-      <c r="Q63" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303902</t>
-        </is>
-      </c>
+      <c r="Q63" s="10" t="inlineStr"/>
       <c r="R63" s="10" t="inlineStr"/>
       <c r="S63" s="10" t="inlineStr">
         <is>
@@ -6434,7 +6192,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="64" s="6">
+    <row r="64" ht="27" customHeight="1" s="6">
       <c r="A64" s="7" t="n">
         <v>142100</v>
       </c>
@@ -6485,11 +6243,7 @@
       <c r="N64" s="10" t="inlineStr"/>
       <c r="O64" s="10" t="inlineStr"/>
       <c r="P64" s="10" t="inlineStr"/>
-      <c r="Q64" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303903</t>
-        </is>
-      </c>
+      <c r="Q64" s="10" t="inlineStr"/>
       <c r="R64" s="10" t="inlineStr"/>
       <c r="S64" s="10" t="inlineStr">
         <is>
@@ -6572,11 +6326,7 @@
       <c r="N65" s="10" t="inlineStr"/>
       <c r="O65" s="10" t="inlineStr"/>
       <c r="P65" s="10" t="inlineStr"/>
-      <c r="Q65" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64086718</t>
-        </is>
-      </c>
+      <c r="Q65" s="10" t="inlineStr"/>
       <c r="R65" s="10" t="inlineStr"/>
       <c r="S65" s="10" t="inlineStr">
         <is>
@@ -6659,11 +6409,7 @@
       <c r="N66" s="10" t="inlineStr"/>
       <c r="O66" s="10" t="inlineStr"/>
       <c r="P66" s="10" t="inlineStr"/>
-      <c r="Q66" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303905</t>
-        </is>
-      </c>
+      <c r="Q66" s="10" t="inlineStr"/>
       <c r="R66" s="10" t="inlineStr"/>
       <c r="S66" s="10" t="inlineStr">
         <is>
@@ -6699,7 +6445,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="67" s="6">
+    <row r="67" ht="27" customHeight="1" s="6">
       <c r="A67" s="7" t="n">
         <v>142103</v>
       </c>
@@ -6725,12 +6471,12 @@
       </c>
       <c r="F67" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1909 </t>
+          <t>1909</t>
         </is>
       </c>
       <c r="G67" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> д. Татарниково</t>
+          <t xml:space="preserve"> Рязанская обл.,  Сасовский рн,  д. Татарниково</t>
         </is>
       </c>
       <c r="H67" s="10" t="inlineStr">
@@ -6754,11 +6500,7 @@
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
-      <c r="Q67" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213358</t>
-        </is>
-      </c>
+      <c r="Q67" s="10" t="inlineStr"/>
       <c r="R67" s="10" t="inlineStr"/>
       <c r="S67" s="10" t="inlineStr">
         <is>
@@ -6841,11 +6583,7 @@
       <c r="N68" s="10" t="inlineStr"/>
       <c r="O68" s="10" t="inlineStr"/>
       <c r="P68" s="10" t="inlineStr"/>
-      <c r="Q68" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303907</t>
-        </is>
-      </c>
+      <c r="Q68" s="10" t="inlineStr"/>
       <c r="R68" s="10" t="inlineStr"/>
       <c r="S68" s="10" t="inlineStr">
         <is>
@@ -6928,11 +6666,7 @@
       <c r="N69" s="10" t="inlineStr"/>
       <c r="O69" s="10" t="inlineStr"/>
       <c r="P69" s="10" t="inlineStr"/>
-      <c r="Q69" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65027762</t>
-        </is>
-      </c>
+      <c r="Q69" s="10" t="inlineStr"/>
       <c r="R69" s="10" t="inlineStr"/>
       <c r="S69" s="10" t="inlineStr">
         <is>
@@ -6968,7 +6702,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="70" s="6">
+    <row r="70" ht="27" customHeight="1" s="6">
       <c r="A70" s="7" t="n">
         <v>142106</v>
       </c>
@@ -7027,11 +6761,7 @@
       <c r="N70" s="10" t="inlineStr"/>
       <c r="O70" s="10" t="inlineStr"/>
       <c r="P70" s="10" t="inlineStr"/>
-      <c r="Q70" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=51400340</t>
-        </is>
-      </c>
+      <c r="Q70" s="10" t="inlineStr"/>
       <c r="R70" s="10" t="inlineStr"/>
       <c r="S70" s="10" t="inlineStr">
         <is>
@@ -7067,7 +6797,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="71" s="6">
+    <row r="71" ht="27" customHeight="1" s="6">
       <c r="A71" s="7" t="n">
         <v>142107</v>
       </c>
@@ -7093,7 +6823,7 @@
       </c>
       <c r="F71" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G71" s="10" t="inlineStr">
@@ -7122,11 +6852,7 @@
       <c r="N71" s="10" t="inlineStr"/>
       <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
-      <c r="Q71" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303927</t>
-        </is>
-      </c>
+      <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="10" t="inlineStr"/>
       <c r="S71" s="10" t="inlineStr">
         <is>
@@ -7162,7 +6888,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="72" s="6">
+    <row r="72" ht="27" customHeight="1" s="6">
       <c r="A72" s="7" t="n">
         <v>142108</v>
       </c>
@@ -7188,7 +6914,7 @@
       </c>
       <c r="F72" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G72" s="10" t="inlineStr">
@@ -7225,11 +6951,7 @@
       <c r="N72" s="10" t="inlineStr"/>
       <c r="O72" s="10" t="inlineStr"/>
       <c r="P72" s="10" t="inlineStr"/>
-      <c r="Q72" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=3083675</t>
-        </is>
-      </c>
+      <c r="Q72" s="10" t="inlineStr"/>
       <c r="R72" s="10" t="inlineStr"/>
       <c r="S72" s="10" t="inlineStr">
         <is>
@@ -7265,7 +6987,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="73" s="6">
+    <row r="73" ht="27" customHeight="1" s="6">
       <c r="A73" s="7" t="n">
         <v>142109</v>
       </c>
@@ -7291,7 +7013,7 @@
       </c>
       <c r="F73" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1897 </t>
+          <t>1897</t>
         </is>
       </c>
       <c r="G73" s="10" t="inlineStr">
@@ -7328,11 +7050,7 @@
       <c r="N73" s="10" t="inlineStr"/>
       <c r="O73" s="10" t="inlineStr"/>
       <c r="P73" s="10" t="inlineStr"/>
-      <c r="Q73" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2301649</t>
-        </is>
-      </c>
+      <c r="Q73" s="10" t="inlineStr"/>
       <c r="R73" s="10" t="inlineStr"/>
       <c r="S73" s="10" t="inlineStr">
         <is>
@@ -7368,7 +7086,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="74" s="6">
+    <row r="74" ht="27" customHeight="1" s="6">
       <c r="A74" s="7" t="n">
         <v>142110</v>
       </c>
@@ -7394,7 +7112,7 @@
       </c>
       <c r="F74" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1906 </t>
+          <t>1906</t>
         </is>
       </c>
       <c r="G74" s="10" t="inlineStr">
@@ -7427,11 +7145,7 @@
       <c r="N74" s="10" t="inlineStr"/>
       <c r="O74" s="10" t="inlineStr"/>
       <c r="P74" s="10" t="inlineStr"/>
-      <c r="Q74" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=51651736</t>
-        </is>
-      </c>
+      <c r="Q74" s="10" t="inlineStr"/>
       <c r="R74" s="10" t="inlineStr"/>
       <c r="S74" s="10" t="inlineStr">
         <is>
@@ -7493,7 +7207,7 @@
       </c>
       <c r="F75" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1901 </t>
+          <t>1901</t>
         </is>
       </c>
       <c r="G75" s="10" t="inlineStr"/>
@@ -7518,11 +7232,7 @@
       <c r="N75" s="10" t="inlineStr"/>
       <c r="O75" s="10" t="inlineStr"/>
       <c r="P75" s="10" t="inlineStr"/>
-      <c r="Q75" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54787487</t>
-        </is>
-      </c>
+      <c r="Q75" s="10" t="inlineStr"/>
       <c r="R75" s="10" t="inlineStr"/>
       <c r="S75" s="10" t="inlineStr">
         <is>
@@ -7584,7 +7294,7 @@
       </c>
       <c r="F76" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1905 </t>
+          <t>1905</t>
         </is>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
@@ -7597,7 +7307,7 @@
       <c r="J76" s="10" t="inlineStr"/>
       <c r="K76" s="10" t="inlineStr">
         <is>
-          <t>в1942</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="L76" s="12" t="inlineStr">
@@ -7609,11 +7319,7 @@
       <c r="N76" s="10" t="inlineStr"/>
       <c r="O76" s="10" t="inlineStr"/>
       <c r="P76" s="10" t="inlineStr"/>
-      <c r="Q76" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303922</t>
-        </is>
-      </c>
+      <c r="Q76" s="10" t="inlineStr"/>
       <c r="R76" s="10" t="inlineStr"/>
       <c r="S76" s="10" t="inlineStr">
         <is>
@@ -7675,7 +7381,7 @@
       </c>
       <c r="F77" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1916 </t>
+          <t>1916</t>
         </is>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
@@ -7692,11 +7398,7 @@
       <c r="N77" s="10" t="inlineStr"/>
       <c r="O77" s="10" t="inlineStr"/>
       <c r="P77" s="10" t="inlineStr"/>
-      <c r="Q77" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303921</t>
-        </is>
-      </c>
+      <c r="Q77" s="10" t="inlineStr"/>
       <c r="R77" s="10" t="inlineStr"/>
       <c r="S77" s="10" t="inlineStr">
         <is>
@@ -7758,7 +7460,7 @@
       </c>
       <c r="F78" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1911 </t>
+          <t>1911</t>
         </is>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
@@ -7783,11 +7485,7 @@
       <c r="N78" s="10" t="inlineStr"/>
       <c r="O78" s="10" t="inlineStr"/>
       <c r="P78" s="10" t="inlineStr"/>
-      <c r="Q78" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303920</t>
-        </is>
-      </c>
+      <c r="Q78" s="10" t="inlineStr"/>
       <c r="R78" s="10" t="inlineStr"/>
       <c r="S78" s="10" t="inlineStr">
         <is>
@@ -7928,7 +7626,7 @@
       </c>
       <c r="F80" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1911 </t>
+          <t>1911</t>
         </is>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
@@ -7939,7 +7637,11 @@
       </c>
       <c r="I80" s="10" t="inlineStr"/>
       <c r="J80" s="10" t="inlineStr"/>
-      <c r="K80" s="10" t="inlineStr"/>
+      <c r="K80" s="10" t="inlineStr">
+        <is>
+          <t>плену5.01.1942</t>
+        </is>
+      </c>
       <c r="L80" s="12" t="inlineStr">
         <is>
           <t>умер в плену</t>
@@ -7949,11 +7651,7 @@
       <c r="N80" s="10" t="inlineStr"/>
       <c r="O80" s="10" t="inlineStr"/>
       <c r="P80" s="10" t="inlineStr"/>
-      <c r="Q80" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=300545016</t>
-        </is>
-      </c>
+      <c r="Q80" s="10" t="inlineStr"/>
       <c r="R80" s="10" t="inlineStr"/>
       <c r="S80" s="10" t="inlineStr">
         <is>
@@ -8040,11 +7738,7 @@
       <c r="N81" s="10" t="inlineStr"/>
       <c r="O81" s="10" t="inlineStr"/>
       <c r="P81" s="10" t="inlineStr"/>
-      <c r="Q81" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=266349868</t>
-        </is>
-      </c>
+      <c r="Q81" s="10" t="inlineStr"/>
       <c r="R81" s="10" t="inlineStr"/>
       <c r="S81" s="10" t="inlineStr">
         <is>
@@ -8131,11 +7825,7 @@
       <c r="N82" s="10" t="inlineStr"/>
       <c r="O82" s="10" t="inlineStr"/>
       <c r="P82" s="10" t="inlineStr"/>
-      <c r="Q82" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=5908355</t>
-        </is>
-      </c>
+      <c r="Q82" s="10" t="inlineStr"/>
       <c r="R82" s="10" t="inlineStr"/>
       <c r="S82" s="10" t="inlineStr">
         <is>
@@ -8171,7 +7861,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="83" s="6">
+    <row r="83" ht="27" customHeight="1" s="6">
       <c r="A83" s="7" t="n">
         <v>142119</v>
       </c>
@@ -8197,7 +7887,7 @@
       </c>
       <c r="F83" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1904 </t>
+          <t>1904</t>
         </is>
       </c>
       <c r="G83" s="10" t="inlineStr">
@@ -8230,11 +7920,7 @@
       <c r="N83" s="10" t="inlineStr"/>
       <c r="O83" s="10" t="inlineStr"/>
       <c r="P83" s="10" t="inlineStr"/>
-      <c r="Q83" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303915</t>
-        </is>
-      </c>
+      <c r="Q83" s="10" t="inlineStr"/>
       <c r="R83" s="10" t="inlineStr"/>
       <c r="S83" s="10" t="inlineStr">
         <is>
@@ -8270,7 +7956,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="84" s="6">
+    <row r="84" ht="27" customHeight="1" s="6">
       <c r="A84" s="7" t="n">
         <v>142120</v>
       </c>
@@ -8296,7 +7982,7 @@
       </c>
       <c r="F84" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G84" s="10" t="inlineStr">
@@ -8333,11 +8019,7 @@
       <c r="N84" s="10" t="inlineStr"/>
       <c r="O84" s="10" t="inlineStr"/>
       <c r="P84" s="10" t="inlineStr"/>
-      <c r="Q84" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=77852172</t>
-        </is>
-      </c>
+      <c r="Q84" s="10" t="inlineStr"/>
       <c r="R84" s="10" t="inlineStr"/>
       <c r="S84" s="10" t="inlineStr">
         <is>
@@ -8420,11 +8102,7 @@
       <c r="N85" s="10" t="inlineStr"/>
       <c r="O85" s="10" t="inlineStr"/>
       <c r="P85" s="10" t="inlineStr"/>
-      <c r="Q85" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1151547044</t>
-        </is>
-      </c>
+      <c r="Q85" s="10" t="inlineStr"/>
       <c r="R85" s="10" t="inlineStr"/>
       <c r="S85" s="10" t="inlineStr">
         <is>
@@ -8486,7 +8164,7 @@
       </c>
       <c r="F86" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1915 </t>
+          <t>1915</t>
         </is>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
@@ -8511,11 +8189,7 @@
       <c r="N86" s="10" t="inlineStr"/>
       <c r="O86" s="10" t="inlineStr"/>
       <c r="P86" s="10" t="inlineStr"/>
-      <c r="Q86" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303912</t>
-        </is>
-      </c>
+      <c r="Q86" s="10" t="inlineStr"/>
       <c r="R86" s="10" t="inlineStr"/>
       <c r="S86" s="10" t="inlineStr">
         <is>
@@ -8598,11 +8272,7 @@
       <c r="N87" s="10" t="inlineStr"/>
       <c r="O87" s="10" t="inlineStr"/>
       <c r="P87" s="10" t="inlineStr"/>
-      <c r="Q87" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=6697353</t>
-        </is>
-      </c>
+      <c r="Q87" s="10" t="inlineStr"/>
       <c r="R87" s="10" t="inlineStr"/>
       <c r="S87" s="10" t="inlineStr">
         <is>
@@ -8685,11 +8355,7 @@
       <c r="N88" s="10" t="inlineStr"/>
       <c r="O88" s="10" t="inlineStr"/>
       <c r="P88" s="10" t="inlineStr"/>
-      <c r="Q88" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=75291468</t>
-        </is>
-      </c>
+      <c r="Q88" s="10" t="inlineStr"/>
       <c r="R88" s="10" t="inlineStr"/>
       <c r="S88" s="10" t="inlineStr">
         <is>
@@ -8751,7 +8417,7 @@
       </c>
       <c r="F89" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1916 </t>
+          <t>1916</t>
         </is>
       </c>
       <c r="G89" s="10" t="inlineStr"/>
@@ -8776,11 +8442,7 @@
       <c r="N89" s="10" t="inlineStr"/>
       <c r="O89" s="10" t="inlineStr"/>
       <c r="P89" s="10" t="inlineStr"/>
-      <c r="Q89" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1534949</t>
-        </is>
-      </c>
+      <c r="Q89" s="10" t="inlineStr"/>
       <c r="R89" s="10" t="inlineStr"/>
       <c r="S89" s="10" t="inlineStr">
         <is>
@@ -8842,7 +8504,7 @@
       </c>
       <c r="F90" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1907 </t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
@@ -8867,11 +8529,7 @@
       <c r="N90" s="10" t="inlineStr"/>
       <c r="O90" s="10" t="inlineStr"/>
       <c r="P90" s="10" t="inlineStr"/>
-      <c r="Q90" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170840</t>
-        </is>
-      </c>
+      <c r="Q90" s="10" t="inlineStr"/>
       <c r="R90" s="10" t="inlineStr"/>
       <c r="S90" s="10" t="inlineStr">
         <is>
@@ -8933,7 +8591,7 @@
       </c>
       <c r="F91" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1905 </t>
+          <t>1905</t>
         </is>
       </c>
       <c r="G91" s="10" t="inlineStr"/>
@@ -8958,11 +8616,7 @@
       <c r="N91" s="10" t="inlineStr"/>
       <c r="O91" s="10" t="inlineStr"/>
       <c r="P91" s="10" t="inlineStr"/>
-      <c r="Q91" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58328839</t>
-        </is>
-      </c>
+      <c r="Q91" s="10" t="inlineStr"/>
       <c r="R91" s="10" t="inlineStr"/>
       <c r="S91" s="10" t="inlineStr">
         <is>
@@ -9053,11 +8707,7 @@
       <c r="N92" s="10" t="inlineStr"/>
       <c r="O92" s="10" t="inlineStr"/>
       <c r="P92" s="10" t="inlineStr"/>
-      <c r="Q92" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303970</t>
-        </is>
-      </c>
+      <c r="Q92" s="10" t="inlineStr"/>
       <c r="R92" s="10" t="inlineStr"/>
       <c r="S92" s="10" t="inlineStr">
         <is>
@@ -9093,7 +8743,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="93" s="6">
+    <row r="93" ht="27" customHeight="1" s="6">
       <c r="A93" s="7" t="n">
         <v>142129</v>
       </c>
@@ -9144,11 +8794,7 @@
       <c r="N93" s="10" t="inlineStr"/>
       <c r="O93" s="10" t="inlineStr"/>
       <c r="P93" s="10" t="inlineStr"/>
-      <c r="Q93" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=55327882</t>
-        </is>
-      </c>
+      <c r="Q93" s="10" t="inlineStr"/>
       <c r="R93" s="10" t="inlineStr"/>
       <c r="S93" s="10" t="inlineStr">
         <is>
@@ -9210,7 +8856,7 @@
       </c>
       <c r="F94" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1908 </t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
@@ -9235,11 +8881,7 @@
       <c r="N94" s="10" t="inlineStr"/>
       <c r="O94" s="10" t="inlineStr"/>
       <c r="P94" s="10" t="inlineStr"/>
-      <c r="Q94" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60872700</t>
-        </is>
-      </c>
+      <c r="Q94" s="10" t="inlineStr"/>
       <c r="R94" s="10" t="inlineStr"/>
       <c r="S94" s="10" t="inlineStr">
         <is>
@@ -9326,11 +8968,7 @@
       <c r="N95" s="10" t="inlineStr"/>
       <c r="O95" s="10" t="inlineStr"/>
       <c r="P95" s="10" t="inlineStr"/>
-      <c r="Q95" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303966</t>
-        </is>
-      </c>
+      <c r="Q95" s="10" t="inlineStr"/>
       <c r="R95" s="10" t="inlineStr"/>
       <c r="S95" s="10" t="inlineStr">
         <is>
@@ -9392,7 +9030,7 @@
       </c>
       <c r="F96" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1920 </t>
+          <t>1920</t>
         </is>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
@@ -9417,11 +9055,7 @@
       <c r="N96" s="10" t="inlineStr"/>
       <c r="O96" s="10" t="inlineStr"/>
       <c r="P96" s="10" t="inlineStr"/>
-      <c r="Q96" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965235</t>
-        </is>
-      </c>
+      <c r="Q96" s="10" t="inlineStr"/>
       <c r="R96" s="10" t="inlineStr"/>
       <c r="S96" s="10" t="inlineStr">
         <is>
@@ -9504,11 +9138,7 @@
       <c r="N97" s="10" t="inlineStr"/>
       <c r="O97" s="10" t="inlineStr"/>
       <c r="P97" s="10" t="inlineStr"/>
-      <c r="Q97" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64006835</t>
-        </is>
-      </c>
+      <c r="Q97" s="10" t="inlineStr"/>
       <c r="R97" s="10" t="inlineStr"/>
       <c r="S97" s="10" t="inlineStr">
         <is>
@@ -9591,11 +9221,7 @@
       <c r="N98" s="10" t="inlineStr"/>
       <c r="O98" s="10" t="inlineStr"/>
       <c r="P98" s="10" t="inlineStr"/>
-      <c r="Q98" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=457566654</t>
-        </is>
-      </c>
+      <c r="Q98" s="10" t="inlineStr"/>
       <c r="R98" s="10" t="inlineStr"/>
       <c r="S98" s="10" t="inlineStr">
         <is>
@@ -9657,7 +9283,7 @@
       </c>
       <c r="F99" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G99" s="10" t="inlineStr"/>
@@ -9682,11 +9308,7 @@
       <c r="N99" s="10" t="inlineStr"/>
       <c r="O99" s="10" t="inlineStr"/>
       <c r="P99" s="10" t="inlineStr"/>
-      <c r="Q99" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170672</t>
-        </is>
-      </c>
+      <c r="Q99" s="10" t="inlineStr"/>
       <c r="R99" s="10" t="inlineStr"/>
       <c r="S99" s="10" t="inlineStr">
         <is>
@@ -9748,7 +9370,7 @@
       </c>
       <c r="F100" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
@@ -9773,11 +9395,7 @@
       <c r="N100" s="10" t="inlineStr"/>
       <c r="O100" s="10" t="inlineStr"/>
       <c r="P100" s="10" t="inlineStr"/>
-      <c r="Q100" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170655</t>
-        </is>
-      </c>
+      <c r="Q100" s="10" t="inlineStr"/>
       <c r="R100" s="10" t="inlineStr"/>
       <c r="S100" s="10" t="inlineStr">
         <is>
@@ -9860,11 +9478,7 @@
       <c r="N101" s="10" t="inlineStr"/>
       <c r="O101" s="10" t="inlineStr"/>
       <c r="P101" s="10" t="inlineStr"/>
-      <c r="Q101" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=61168604</t>
-        </is>
-      </c>
+      <c r="Q101" s="10" t="inlineStr"/>
       <c r="R101" s="10" t="inlineStr"/>
       <c r="S101" s="10" t="inlineStr">
         <is>
@@ -9933,7 +9547,11 @@
       </c>
       <c r="I102" s="10" t="inlineStr"/>
       <c r="J102" s="10" t="inlineStr"/>
-      <c r="K102" s="10" t="inlineStr"/>
+      <c r="K102" s="10" t="inlineStr">
+        <is>
+          <t>плену14.11.1944</t>
+        </is>
+      </c>
       <c r="L102" s="12" t="inlineStr">
         <is>
           <t>умер в плену</t>
@@ -10030,11 +9648,7 @@
       <c r="N103" s="10" t="inlineStr"/>
       <c r="O103" s="10" t="inlineStr"/>
       <c r="P103" s="10" t="inlineStr"/>
-      <c r="Q103" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=33006931</t>
-        </is>
-      </c>
+      <c r="Q103" s="10" t="inlineStr"/>
       <c r="R103" s="10" t="inlineStr"/>
       <c r="S103" s="10" t="inlineStr">
         <is>
@@ -10117,11 +9731,7 @@
       <c r="N104" s="10" t="inlineStr"/>
       <c r="O104" s="10" t="inlineStr"/>
       <c r="P104" s="10" t="inlineStr"/>
-      <c r="Q104" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=201059722</t>
-        </is>
-      </c>
+      <c r="Q104" s="10" t="inlineStr"/>
       <c r="R104" s="10" t="inlineStr"/>
       <c r="S104" s="10" t="inlineStr">
         <is>
@@ -10157,7 +9767,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="105" s="6">
+    <row r="105" ht="27" customHeight="1" s="6">
       <c r="A105" s="7" t="n">
         <v>142141</v>
       </c>
@@ -10183,7 +9793,7 @@
       </c>
       <c r="F105" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G105" s="10" t="inlineStr">
@@ -10220,11 +9830,7 @@
       <c r="N105" s="10" t="inlineStr"/>
       <c r="O105" s="10" t="inlineStr"/>
       <c r="P105" s="10" t="inlineStr"/>
-      <c r="Q105" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303957</t>
-        </is>
-      </c>
+      <c r="Q105" s="10" t="inlineStr"/>
       <c r="R105" s="10" t="inlineStr"/>
       <c r="S105" s="10" t="inlineStr">
         <is>
@@ -10286,7 +9892,7 @@
       </c>
       <c r="F106" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1911 </t>
+          <t>1911</t>
         </is>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
@@ -10311,11 +9917,7 @@
       <c r="N106" s="10" t="inlineStr"/>
       <c r="O106" s="10" t="inlineStr"/>
       <c r="P106" s="10" t="inlineStr"/>
-      <c r="Q106" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=6868489</t>
-        </is>
-      </c>
+      <c r="Q106" s="10" t="inlineStr"/>
       <c r="R106" s="10" t="inlineStr"/>
       <c r="S106" s="10" t="inlineStr">
         <is>
@@ -10377,7 +9979,7 @@
       </c>
       <c r="F107" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1905 </t>
+          <t>1905</t>
         </is>
       </c>
       <c r="G107" s="10" t="inlineStr"/>
@@ -10402,11 +10004,7 @@
       <c r="N107" s="10" t="inlineStr"/>
       <c r="O107" s="10" t="inlineStr"/>
       <c r="P107" s="10" t="inlineStr"/>
-      <c r="Q107" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965204</t>
-        </is>
-      </c>
+      <c r="Q107" s="10" t="inlineStr"/>
       <c r="R107" s="10" t="inlineStr"/>
       <c r="S107" s="10" t="inlineStr">
         <is>
@@ -10468,7 +10066,7 @@
       </c>
       <c r="F108" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1902 </t>
+          <t>1902</t>
         </is>
       </c>
       <c r="G108" s="10" t="inlineStr"/>
@@ -10493,11 +10091,7 @@
       <c r="N108" s="10" t="inlineStr"/>
       <c r="O108" s="10" t="inlineStr"/>
       <c r="P108" s="10" t="inlineStr"/>
-      <c r="Q108" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303954</t>
-        </is>
-      </c>
+      <c r="Q108" s="10" t="inlineStr"/>
       <c r="R108" s="10" t="inlineStr"/>
       <c r="S108" s="10" t="inlineStr">
         <is>
@@ -10559,7 +10153,7 @@
       </c>
       <c r="F109" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G109" s="10" t="inlineStr"/>
@@ -10584,11 +10178,7 @@
       <c r="N109" s="10" t="inlineStr"/>
       <c r="O109" s="10" t="inlineStr"/>
       <c r="P109" s="10" t="inlineStr"/>
-      <c r="Q109" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170838</t>
-        </is>
-      </c>
+      <c r="Q109" s="10" t="inlineStr"/>
       <c r="R109" s="10" t="inlineStr"/>
       <c r="S109" s="10" t="inlineStr">
         <is>
@@ -10671,11 +10261,7 @@
       <c r="N110" s="10" t="inlineStr"/>
       <c r="O110" s="10" t="inlineStr"/>
       <c r="P110" s="10" t="inlineStr"/>
-      <c r="Q110" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303952</t>
-        </is>
-      </c>
+      <c r="Q110" s="10" t="inlineStr"/>
       <c r="R110" s="10" t="inlineStr"/>
       <c r="S110" s="10" t="inlineStr">
         <is>
@@ -10711,7 +10297,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="111" s="6">
+    <row r="111" ht="27" customHeight="1" s="6">
       <c r="A111" s="7" t="n">
         <v>142147</v>
       </c>
@@ -10737,7 +10323,7 @@
       </c>
       <c r="F111" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1897 </t>
+          <t>1897</t>
         </is>
       </c>
       <c r="G111" s="10" t="inlineStr">
@@ -10770,11 +10356,7 @@
       <c r="N111" s="10" t="inlineStr"/>
       <c r="O111" s="10" t="inlineStr"/>
       <c r="P111" s="10" t="inlineStr"/>
-      <c r="Q111" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1151891410</t>
-        </is>
-      </c>
+      <c r="Q111" s="10" t="inlineStr"/>
       <c r="R111" s="10" t="inlineStr"/>
       <c r="S111" s="10" t="inlineStr">
         <is>
@@ -10865,11 +10447,7 @@
       <c r="N112" s="10" t="inlineStr"/>
       <c r="O112" s="10" t="inlineStr"/>
       <c r="P112" s="10" t="inlineStr"/>
-      <c r="Q112" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303950</t>
-        </is>
-      </c>
+      <c r="Q112" s="10" t="inlineStr"/>
       <c r="R112" s="10" t="inlineStr"/>
       <c r="S112" s="10" t="inlineStr">
         <is>
@@ -10931,7 +10509,7 @@
       </c>
       <c r="F113" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1907 </t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G113" s="10" t="inlineStr"/>
@@ -10956,11 +10534,7 @@
       <c r="N113" s="10" t="inlineStr"/>
       <c r="O113" s="10" t="inlineStr"/>
       <c r="P113" s="10" t="inlineStr"/>
-      <c r="Q113" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303949</t>
-        </is>
-      </c>
+      <c r="Q113" s="10" t="inlineStr"/>
       <c r="R113" s="10" t="inlineStr"/>
       <c r="S113" s="10" t="inlineStr">
         <is>
@@ -11051,11 +10625,7 @@
       <c r="N114" s="10" t="inlineStr"/>
       <c r="O114" s="10" t="inlineStr"/>
       <c r="P114" s="10" t="inlineStr"/>
-      <c r="Q114" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=51044119</t>
-        </is>
-      </c>
+      <c r="Q114" s="10" t="inlineStr"/>
       <c r="R114" s="10" t="inlineStr"/>
       <c r="S114" s="10" t="inlineStr">
         <is>
@@ -11091,7 +10661,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="115" s="6">
+    <row r="115" ht="27" customHeight="1" s="6">
       <c r="A115" s="7" t="n">
         <v>142151</v>
       </c>
@@ -11117,12 +10687,12 @@
       </c>
       <c r="F115" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G115" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Сталинградская обл.,  Городищенский рн.</t>
+          <t xml:space="preserve"> Сталинградская обл.</t>
         </is>
       </c>
       <c r="H115" s="10" t="inlineStr">
@@ -11150,11 +10720,7 @@
       <c r="N115" s="10" t="inlineStr"/>
       <c r="O115" s="10" t="inlineStr"/>
       <c r="P115" s="10" t="inlineStr"/>
-      <c r="Q115" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=51412429</t>
-        </is>
-      </c>
+      <c r="Q115" s="10" t="inlineStr"/>
       <c r="R115" s="10" t="inlineStr"/>
       <c r="S115" s="10" t="inlineStr">
         <is>
@@ -11237,11 +10803,7 @@
       <c r="N116" s="10" t="inlineStr"/>
       <c r="O116" s="10" t="inlineStr"/>
       <c r="P116" s="10" t="inlineStr"/>
-      <c r="Q116" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52217709</t>
-        </is>
-      </c>
+      <c r="Q116" s="10" t="inlineStr"/>
       <c r="R116" s="10" t="inlineStr"/>
       <c r="S116" s="10" t="inlineStr">
         <is>
@@ -11277,7 +10839,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="117" s="6">
+    <row r="117" ht="27" customHeight="1" s="6">
       <c r="A117" s="7" t="n">
         <v>142153</v>
       </c>
@@ -11303,7 +10865,7 @@
       </c>
       <c r="F117" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1902 </t>
+          <t>1902</t>
         </is>
       </c>
       <c r="G117" s="10" t="inlineStr">
@@ -11340,11 +10902,7 @@
       <c r="N117" s="10" t="inlineStr"/>
       <c r="O117" s="10" t="inlineStr"/>
       <c r="P117" s="10" t="inlineStr"/>
-      <c r="Q117" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62942595</t>
-        </is>
-      </c>
+      <c r="Q117" s="10" t="inlineStr"/>
       <c r="R117" s="10" t="inlineStr"/>
       <c r="S117" s="10" t="inlineStr">
         <is>
@@ -11406,7 +10964,7 @@
       </c>
       <c r="F118" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G118" s="10" t="inlineStr"/>
@@ -11431,11 +10989,7 @@
       <c r="N118" s="10" t="inlineStr"/>
       <c r="O118" s="10" t="inlineStr"/>
       <c r="P118" s="10" t="inlineStr"/>
-      <c r="Q118" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57002289</t>
-        </is>
-      </c>
+      <c r="Q118" s="10" t="inlineStr"/>
       <c r="R118" s="10" t="inlineStr"/>
       <c r="S118" s="10" t="inlineStr">
         <is>
@@ -11522,11 +11076,7 @@
       <c r="N119" s="10" t="inlineStr"/>
       <c r="O119" s="10" t="inlineStr"/>
       <c r="P119" s="10" t="inlineStr"/>
-      <c r="Q119" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303943</t>
-        </is>
-      </c>
+      <c r="Q119" s="10" t="inlineStr"/>
       <c r="R119" s="10" t="inlineStr"/>
       <c r="S119" s="10" t="inlineStr">
         <is>
@@ -11617,11 +11167,7 @@
       <c r="N120" s="10" t="inlineStr"/>
       <c r="O120" s="10" t="inlineStr"/>
       <c r="P120" s="10" t="inlineStr"/>
-      <c r="Q120" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=80737863</t>
-        </is>
-      </c>
+      <c r="Q120" s="10" t="inlineStr"/>
       <c r="R120" s="10" t="inlineStr"/>
       <c r="S120" s="10" t="inlineStr">
         <is>
@@ -11708,11 +11254,7 @@
       <c r="N121" s="10" t="inlineStr"/>
       <c r="O121" s="10" t="inlineStr"/>
       <c r="P121" s="10" t="inlineStr"/>
-      <c r="Q121" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303941</t>
-        </is>
-      </c>
+      <c r="Q121" s="10" t="inlineStr"/>
       <c r="R121" s="10" t="inlineStr"/>
       <c r="S121" s="10" t="inlineStr">
         <is>
@@ -11914,7 +11456,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="124" s="6">
+    <row r="124" ht="27" customHeight="1" s="6">
       <c r="A124" s="7" t="n">
         <v>142159</v>
       </c>
@@ -11940,7 +11482,7 @@
       </c>
       <c r="F124" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1917 </t>
+          <t>1917</t>
         </is>
       </c>
       <c r="G124" s="10" t="inlineStr">
@@ -11977,11 +11519,7 @@
       <c r="N124" s="10" t="inlineStr"/>
       <c r="O124" s="10" t="inlineStr"/>
       <c r="P124" s="10" t="inlineStr"/>
-      <c r="Q124" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52291205</t>
-        </is>
-      </c>
+      <c r="Q124" s="10" t="inlineStr"/>
       <c r="R124" s="10" t="inlineStr"/>
       <c r="S124" s="10" t="inlineStr">
         <is>
@@ -12043,7 +11581,7 @@
       </c>
       <c r="F125" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1898 </t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G125" s="10" t="inlineStr"/>
@@ -12068,11 +11606,7 @@
       <c r="N125" s="10" t="inlineStr"/>
       <c r="O125" s="10" t="inlineStr"/>
       <c r="P125" s="10" t="inlineStr"/>
-      <c r="Q125" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58328838</t>
-        </is>
-      </c>
+      <c r="Q125" s="10" t="inlineStr"/>
       <c r="R125" s="10" t="inlineStr"/>
       <c r="S125" s="10" t="inlineStr">
         <is>
@@ -12108,7 +11642,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="126" s="6">
+    <row r="126" ht="27" customHeight="1" s="6">
       <c r="A126" s="7" t="n">
         <v>142162</v>
       </c>
@@ -12134,7 +11668,7 @@
       </c>
       <c r="F126" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1925 </t>
+          <t>1925</t>
         </is>
       </c>
       <c r="G126" s="10" t="inlineStr">
@@ -12167,11 +11701,7 @@
       <c r="N126" s="10" t="inlineStr"/>
       <c r="O126" s="10" t="inlineStr"/>
       <c r="P126" s="10" t="inlineStr"/>
-      <c r="Q126" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4923783</t>
-        </is>
-      </c>
+      <c r="Q126" s="10" t="inlineStr"/>
       <c r="R126" s="10" t="inlineStr"/>
       <c r="S126" s="10" t="inlineStr">
         <is>
@@ -12233,7 +11763,7 @@
       </c>
       <c r="F127" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G127" s="10" t="inlineStr"/>
@@ -12258,11 +11788,7 @@
       <c r="N127" s="10" t="inlineStr"/>
       <c r="O127" s="10" t="inlineStr"/>
       <c r="P127" s="10" t="inlineStr"/>
-      <c r="Q127" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=452181309</t>
-        </is>
-      </c>
+      <c r="Q127" s="10" t="inlineStr"/>
       <c r="R127" s="10" t="inlineStr"/>
       <c r="S127" s="10" t="inlineStr">
         <is>
@@ -12324,7 +11850,7 @@
       </c>
       <c r="F128" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1924 </t>
+          <t>1924</t>
         </is>
       </c>
       <c r="G128" s="10" t="inlineStr"/>
@@ -12349,11 +11875,7 @@
       <c r="N128" s="10" t="inlineStr"/>
       <c r="O128" s="10" t="inlineStr"/>
       <c r="P128" s="10" t="inlineStr"/>
-      <c r="Q128" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303935</t>
-        </is>
-      </c>
+      <c r="Q128" s="10" t="inlineStr"/>
       <c r="R128" s="10" t="inlineStr"/>
       <c r="S128" s="10" t="inlineStr">
         <is>
@@ -12440,11 +11962,7 @@
       <c r="N129" s="10" t="inlineStr"/>
       <c r="O129" s="10" t="inlineStr"/>
       <c r="P129" s="10" t="inlineStr"/>
-      <c r="Q129" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303936</t>
-        </is>
-      </c>
+      <c r="Q129" s="10" t="inlineStr"/>
       <c r="R129" s="10" t="inlineStr"/>
       <c r="S129" s="10" t="inlineStr">
         <is>
@@ -12527,11 +12045,7 @@
       <c r="N130" s="10" t="inlineStr"/>
       <c r="O130" s="10" t="inlineStr"/>
       <c r="P130" s="10" t="inlineStr"/>
-      <c r="Q130" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57002281</t>
-        </is>
-      </c>
+      <c r="Q130" s="10" t="inlineStr"/>
       <c r="R130" s="10" t="inlineStr"/>
       <c r="S130" s="10" t="inlineStr">
         <is>
@@ -12614,11 +12128,7 @@
       <c r="N131" s="10" t="inlineStr"/>
       <c r="O131" s="10" t="inlineStr"/>
       <c r="P131" s="10" t="inlineStr"/>
-      <c r="Q131" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65067608</t>
-        </is>
-      </c>
+      <c r="Q131" s="10" t="inlineStr"/>
       <c r="R131" s="10" t="inlineStr"/>
       <c r="S131" s="10" t="inlineStr">
         <is>
@@ -12701,11 +12211,7 @@
       <c r="N132" s="10" t="inlineStr"/>
       <c r="O132" s="10" t="inlineStr"/>
       <c r="P132" s="10" t="inlineStr"/>
-      <c r="Q132" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=265956259</t>
-        </is>
-      </c>
+      <c r="Q132" s="10" t="inlineStr"/>
       <c r="R132" s="10" t="inlineStr"/>
       <c r="S132" s="10" t="inlineStr">
         <is>
@@ -12741,7 +12247,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="133" s="6">
+    <row r="133" ht="27" customHeight="1" s="6">
       <c r="A133" s="7" t="n">
         <v>142169</v>
       </c>
@@ -12767,7 +12273,7 @@
       </c>
       <c r="F133" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1901 </t>
+          <t>1901</t>
         </is>
       </c>
       <c r="G133" s="10" t="inlineStr">
@@ -12800,11 +12306,7 @@
       <c r="N133" s="10" t="inlineStr"/>
       <c r="O133" s="10" t="inlineStr"/>
       <c r="P133" s="10" t="inlineStr"/>
-      <c r="Q133" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=51646081</t>
-        </is>
-      </c>
+      <c r="Q133" s="10" t="inlineStr"/>
       <c r="R133" s="10" t="inlineStr"/>
       <c r="S133" s="10" t="inlineStr">
         <is>
@@ -12887,11 +12389,7 @@
       <c r="N134" s="10" t="inlineStr"/>
       <c r="O134" s="10" t="inlineStr"/>
       <c r="P134" s="10" t="inlineStr"/>
-      <c r="Q134" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303976</t>
-        </is>
-      </c>
+      <c r="Q134" s="10" t="inlineStr"/>
       <c r="R134" s="10" t="inlineStr"/>
       <c r="S134" s="10" t="inlineStr">
         <is>
@@ -12953,7 +12451,7 @@
       </c>
       <c r="F135" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1924 </t>
+          <t>1924</t>
         </is>
       </c>
       <c r="G135" s="10" t="inlineStr"/>
@@ -12978,11 +12476,7 @@
       <c r="N135" s="10" t="inlineStr"/>
       <c r="O135" s="10" t="inlineStr"/>
       <c r="P135" s="10" t="inlineStr"/>
-      <c r="Q135" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170700</t>
-        </is>
-      </c>
+      <c r="Q135" s="10" t="inlineStr"/>
       <c r="R135" s="10" t="inlineStr"/>
       <c r="S135" s="10" t="inlineStr">
         <is>
@@ -13073,11 +12567,7 @@
       <c r="N136" s="10" t="inlineStr"/>
       <c r="O136" s="10" t="inlineStr"/>
       <c r="P136" s="10" t="inlineStr"/>
-      <c r="Q136" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303975</t>
-        </is>
-      </c>
+      <c r="Q136" s="10" t="inlineStr"/>
       <c r="R136" s="10" t="inlineStr"/>
       <c r="S136" s="10" t="inlineStr">
         <is>
@@ -13164,11 +12654,7 @@
       <c r="N137" s="10" t="inlineStr"/>
       <c r="O137" s="10" t="inlineStr"/>
       <c r="P137" s="10" t="inlineStr"/>
-      <c r="Q137" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303978</t>
-        </is>
-      </c>
+      <c r="Q137" s="10" t="inlineStr"/>
       <c r="R137" s="10" t="inlineStr"/>
       <c r="S137" s="10" t="inlineStr">
         <is>
@@ -13204,7 +12690,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="138" s="6">
+    <row r="138" ht="27" customHeight="1" s="6">
       <c r="A138" s="7" t="n">
         <v>142174</v>
       </c>
@@ -13230,7 +12716,7 @@
       </c>
       <c r="F138" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1903 </t>
+          <t>1903</t>
         </is>
       </c>
       <c r="G138" s="10" t="inlineStr"/>
@@ -13263,11 +12749,7 @@
       <c r="N138" s="10" t="inlineStr"/>
       <c r="O138" s="10" t="inlineStr"/>
       <c r="P138" s="10" t="inlineStr"/>
-      <c r="Q138" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2434580</t>
-        </is>
-      </c>
+      <c r="Q138" s="10" t="inlineStr"/>
       <c r="R138" s="10" t="inlineStr"/>
       <c r="S138" s="10" t="inlineStr">
         <is>
@@ -13329,7 +12811,7 @@
       </c>
       <c r="F139" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G139" s="10" t="inlineStr"/>
@@ -13354,11 +12836,7 @@
       <c r="N139" s="10" t="inlineStr"/>
       <c r="O139" s="10" t="inlineStr"/>
       <c r="P139" s="10" t="inlineStr"/>
-      <c r="Q139" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=59409438</t>
-        </is>
-      </c>
+      <c r="Q139" s="10" t="inlineStr"/>
       <c r="R139" s="10" t="inlineStr"/>
       <c r="S139" s="10" t="inlineStr">
         <is>
@@ -13394,7 +12872,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="140" s="6">
+    <row r="140" ht="27" customHeight="1" s="6">
       <c r="A140" s="7" t="n">
         <v>142176</v>
       </c>
@@ -13420,7 +12898,7 @@
       </c>
       <c r="F140" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G140" s="10" t="inlineStr">
@@ -13453,11 +12931,7 @@
       <c r="N140" s="10" t="inlineStr"/>
       <c r="O140" s="10" t="inlineStr"/>
       <c r="P140" s="10" t="inlineStr"/>
-      <c r="Q140" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303981</t>
-        </is>
-      </c>
+      <c r="Q140" s="10" t="inlineStr"/>
       <c r="R140" s="10" t="inlineStr"/>
       <c r="S140" s="10" t="inlineStr">
         <is>
@@ -13544,11 +13018,7 @@
       <c r="N141" s="10" t="inlineStr"/>
       <c r="O141" s="10" t="inlineStr"/>
       <c r="P141" s="10" t="inlineStr"/>
-      <c r="Q141" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1151988242</t>
-        </is>
-      </c>
+      <c r="Q141" s="10" t="inlineStr"/>
       <c r="R141" s="10" t="inlineStr"/>
       <c r="S141" s="10" t="inlineStr">
         <is>
@@ -13584,7 +13054,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="142" s="6">
+    <row r="142" ht="27" customHeight="1" s="6">
       <c r="A142" s="7" t="n">
         <v>142178</v>
       </c>
@@ -13610,12 +13080,12 @@
       </c>
       <c r="F142" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G142" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Каверинский рн</t>
+          <t xml:space="preserve"> Рязанская обл.,  Каверинский рн,  д. Большой Студенец</t>
         </is>
       </c>
       <c r="H142" s="10" t="inlineStr">
@@ -13639,11 +13109,7 @@
       <c r="N142" s="10" t="inlineStr"/>
       <c r="O142" s="10" t="inlineStr"/>
       <c r="P142" s="10" t="inlineStr"/>
-      <c r="Q142" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50093311</t>
-        </is>
-      </c>
+      <c r="Q142" s="10" t="inlineStr"/>
       <c r="R142" s="10" t="inlineStr"/>
       <c r="S142" s="10" t="inlineStr">
         <is>
@@ -13705,7 +13171,7 @@
       </c>
       <c r="F143" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1922 </t>
+          <t>1922</t>
         </is>
       </c>
       <c r="G143" s="10" t="inlineStr"/>
@@ -13730,11 +13196,7 @@
       <c r="N143" s="10" t="inlineStr"/>
       <c r="O143" s="10" t="inlineStr"/>
       <c r="P143" s="10" t="inlineStr"/>
-      <c r="Q143" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213148</t>
-        </is>
-      </c>
+      <c r="Q143" s="10" t="inlineStr"/>
       <c r="R143" s="10" t="inlineStr"/>
       <c r="S143" s="10" t="inlineStr">
         <is>
@@ -13821,11 +13283,7 @@
       <c r="N144" s="10" t="inlineStr"/>
       <c r="O144" s="10" t="inlineStr"/>
       <c r="P144" s="10" t="inlineStr"/>
-      <c r="Q144" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52843174</t>
-        </is>
-      </c>
+      <c r="Q144" s="10" t="inlineStr"/>
       <c r="R144" s="10" t="inlineStr"/>
       <c r="S144" s="10" t="inlineStr">
         <is>
@@ -13861,7 +13319,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="145" s="6">
+    <row r="145" ht="27" customHeight="1" s="6">
       <c r="A145" s="7" t="n">
         <v>142181</v>
       </c>
@@ -13887,7 +13345,7 @@
       </c>
       <c r="F145" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G145" s="10" t="inlineStr">
@@ -13920,11 +13378,7 @@
       <c r="N145" s="10" t="inlineStr"/>
       <c r="O145" s="10" t="inlineStr"/>
       <c r="P145" s="10" t="inlineStr"/>
-      <c r="Q145" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52933285</t>
-        </is>
-      </c>
+      <c r="Q145" s="10" t="inlineStr"/>
       <c r="R145" s="10" t="inlineStr"/>
       <c r="S145" s="10" t="inlineStr">
         <is>
@@ -14007,11 +13461,7 @@
       <c r="N146" s="10" t="inlineStr"/>
       <c r="O146" s="10" t="inlineStr"/>
       <c r="P146" s="10" t="inlineStr"/>
-      <c r="Q146" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58752336</t>
-        </is>
-      </c>
+      <c r="Q146" s="10" t="inlineStr"/>
       <c r="R146" s="10" t="inlineStr"/>
       <c r="S146" s="10" t="inlineStr">
         <is>
@@ -14098,11 +13548,7 @@
       <c r="N147" s="10" t="inlineStr"/>
       <c r="O147" s="10" t="inlineStr"/>
       <c r="P147" s="10" t="inlineStr"/>
-      <c r="Q147" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54063760</t>
-        </is>
-      </c>
+      <c r="Q147" s="10" t="inlineStr"/>
       <c r="R147" s="10" t="inlineStr"/>
       <c r="S147" s="10" t="inlineStr">
         <is>
@@ -14189,11 +13635,7 @@
       <c r="N148" s="10" t="inlineStr"/>
       <c r="O148" s="10" t="inlineStr"/>
       <c r="P148" s="10" t="inlineStr"/>
-      <c r="Q148" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303989</t>
-        </is>
-      </c>
+      <c r="Q148" s="10" t="inlineStr"/>
       <c r="R148" s="10" t="inlineStr"/>
       <c r="S148" s="10" t="inlineStr">
         <is>
@@ -14276,11 +13718,7 @@
       <c r="N149" s="10" t="inlineStr"/>
       <c r="O149" s="10" t="inlineStr"/>
       <c r="P149" s="10" t="inlineStr"/>
-      <c r="Q149" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=63902245</t>
-        </is>
-      </c>
+      <c r="Q149" s="10" t="inlineStr"/>
       <c r="R149" s="10" t="inlineStr"/>
       <c r="S149" s="10" t="inlineStr">
         <is>
@@ -14363,11 +13801,7 @@
       <c r="N150" s="10" t="inlineStr"/>
       <c r="O150" s="10" t="inlineStr"/>
       <c r="P150" s="10" t="inlineStr"/>
-      <c r="Q150" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1151719102</t>
-        </is>
-      </c>
+      <c r="Q150" s="10" t="inlineStr"/>
       <c r="R150" s="10" t="inlineStr"/>
       <c r="S150" s="10" t="inlineStr">
         <is>
@@ -14403,7 +13837,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="151" s="6">
+    <row r="151" ht="27" customHeight="1" s="6">
       <c r="A151" s="7" t="n">
         <v>142187</v>
       </c>
@@ -14458,11 +13892,7 @@
       <c r="N151" s="10" t="inlineStr"/>
       <c r="O151" s="10" t="inlineStr"/>
       <c r="P151" s="10" t="inlineStr"/>
-      <c r="Q151" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=53478879</t>
-        </is>
-      </c>
+      <c r="Q151" s="10" t="inlineStr"/>
       <c r="R151" s="10" t="inlineStr"/>
       <c r="S151" s="10" t="inlineStr">
         <is>
@@ -14498,7 +13928,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="152" s="6">
+    <row r="152" ht="27" customHeight="1" s="6">
       <c r="A152" s="7" t="n">
         <v>142188</v>
       </c>
@@ -14524,7 +13954,7 @@
       </c>
       <c r="F152" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G152" s="10" t="inlineStr">
@@ -14561,11 +13991,7 @@
       <c r="N152" s="10" t="inlineStr"/>
       <c r="O152" s="10" t="inlineStr"/>
       <c r="P152" s="10" t="inlineStr"/>
-      <c r="Q152" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52807276</t>
-        </is>
-      </c>
+      <c r="Q152" s="10" t="inlineStr"/>
       <c r="R152" s="10" t="inlineStr"/>
       <c r="S152" s="10" t="inlineStr">
         <is>
@@ -14648,11 +14074,7 @@
       <c r="N153" s="10" t="inlineStr"/>
       <c r="O153" s="10" t="inlineStr"/>
       <c r="P153" s="10" t="inlineStr"/>
-      <c r="Q153" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64807087</t>
-        </is>
-      </c>
+      <c r="Q153" s="10" t="inlineStr"/>
       <c r="R153" s="10" t="inlineStr"/>
       <c r="S153" s="10" t="inlineStr">
         <is>
@@ -14688,7 +14110,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="154" s="6">
+    <row r="154" ht="27" customHeight="1" s="6">
       <c r="A154" s="7" t="n">
         <v>142190</v>
       </c>
@@ -14714,7 +14136,7 @@
       </c>
       <c r="F154" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G154" s="10" t="inlineStr">
@@ -14743,11 +14165,7 @@
       <c r="N154" s="10" t="inlineStr"/>
       <c r="O154" s="10" t="inlineStr"/>
       <c r="P154" s="10" t="inlineStr"/>
-      <c r="Q154" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213147</t>
-        </is>
-      </c>
+      <c r="Q154" s="10" t="inlineStr"/>
       <c r="R154" s="10" t="inlineStr"/>
       <c r="S154" s="10" t="inlineStr">
         <is>
@@ -14830,11 +14248,7 @@
       <c r="N155" s="10" t="inlineStr"/>
       <c r="O155" s="10" t="inlineStr"/>
       <c r="P155" s="10" t="inlineStr"/>
-      <c r="Q155" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=70421059</t>
-        </is>
-      </c>
+      <c r="Q155" s="10" t="inlineStr"/>
       <c r="R155" s="10" t="inlineStr"/>
       <c r="S155" s="10" t="inlineStr">
         <is>
@@ -14917,11 +14331,7 @@
       <c r="N156" s="10" t="inlineStr"/>
       <c r="O156" s="10" t="inlineStr"/>
       <c r="P156" s="10" t="inlineStr"/>
-      <c r="Q156" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459303997</t>
-        </is>
-      </c>
+      <c r="Q156" s="10" t="inlineStr"/>
       <c r="R156" s="10" t="inlineStr"/>
       <c r="S156" s="10" t="inlineStr">
         <is>
@@ -14957,7 +14367,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="157" s="6">
+    <row r="157" ht="27" customHeight="1" s="6">
       <c r="A157" s="7" t="n">
         <v>142193</v>
       </c>
@@ -14983,7 +14393,7 @@
       </c>
       <c r="F157" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1894 </t>
+          <t>1894</t>
         </is>
       </c>
       <c r="G157" s="10" t="inlineStr">
@@ -15012,11 +14422,7 @@
       <c r="N157" s="10" t="inlineStr"/>
       <c r="O157" s="10" t="inlineStr"/>
       <c r="P157" s="10" t="inlineStr"/>
-      <c r="Q157" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213157</t>
-        </is>
-      </c>
+      <c r="Q157" s="10" t="inlineStr"/>
       <c r="R157" s="10" t="inlineStr"/>
       <c r="S157" s="10" t="inlineStr">
         <is>
@@ -15052,7 +14458,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="158" s="6">
+    <row r="158" ht="27" customHeight="1" s="6">
       <c r="A158" s="7" t="n">
         <v>142194</v>
       </c>
@@ -15078,7 +14484,7 @@
       </c>
       <c r="F158" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G158" s="10" t="inlineStr">
@@ -15107,11 +14513,7 @@
       <c r="N158" s="10" t="inlineStr"/>
       <c r="O158" s="10" t="inlineStr"/>
       <c r="P158" s="10" t="inlineStr"/>
-      <c r="Q158" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213158</t>
-        </is>
-      </c>
+      <c r="Q158" s="10" t="inlineStr"/>
       <c r="R158" s="10" t="inlineStr"/>
       <c r="S158" s="10" t="inlineStr">
         <is>
@@ -15194,11 +14596,7 @@
       <c r="N159" s="10" t="inlineStr"/>
       <c r="O159" s="10" t="inlineStr"/>
       <c r="P159" s="10" t="inlineStr"/>
-      <c r="Q159" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62101006</t>
-        </is>
-      </c>
+      <c r="Q159" s="10" t="inlineStr"/>
       <c r="R159" s="10" t="inlineStr"/>
       <c r="S159" s="10" t="inlineStr">
         <is>
@@ -15234,7 +14632,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="160" s="6">
+    <row r="160" ht="27" customHeight="1" s="6">
       <c r="A160" s="7" t="n">
         <v>142196</v>
       </c>
@@ -15285,11 +14683,7 @@
       <c r="N160" s="10" t="inlineStr"/>
       <c r="O160" s="10" t="inlineStr"/>
       <c r="P160" s="10" t="inlineStr"/>
-      <c r="Q160" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=266178411</t>
-        </is>
-      </c>
+      <c r="Q160" s="10" t="inlineStr"/>
       <c r="R160" s="10" t="inlineStr"/>
       <c r="S160" s="10" t="inlineStr">
         <is>
@@ -15376,11 +14770,7 @@
       <c r="N161" s="10" t="inlineStr"/>
       <c r="O161" s="10" t="inlineStr"/>
       <c r="P161" s="10" t="inlineStr"/>
-      <c r="Q161" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=3035905</t>
-        </is>
-      </c>
+      <c r="Q161" s="10" t="inlineStr"/>
       <c r="R161" s="10" t="inlineStr"/>
       <c r="S161" s="10" t="inlineStr">
         <is>
@@ -15467,11 +14857,7 @@
       <c r="N162" s="10" t="inlineStr"/>
       <c r="O162" s="10" t="inlineStr"/>
       <c r="P162" s="10" t="inlineStr"/>
-      <c r="Q162" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304007</t>
-        </is>
-      </c>
+      <c r="Q162" s="10" t="inlineStr"/>
       <c r="R162" s="10" t="inlineStr"/>
       <c r="S162" s="10" t="inlineStr">
         <is>
@@ -15554,11 +14940,7 @@
       <c r="N163" s="10" t="inlineStr"/>
       <c r="O163" s="10" t="inlineStr"/>
       <c r="P163" s="10" t="inlineStr"/>
-      <c r="Q163" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304006</t>
-        </is>
-      </c>
+      <c r="Q163" s="10" t="inlineStr"/>
       <c r="R163" s="10" t="inlineStr"/>
       <c r="S163" s="10" t="inlineStr">
         <is>
@@ -15594,7 +14976,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="164" s="6">
+    <row r="164" ht="27" customHeight="1" s="6">
       <c r="A164" s="7" t="n">
         <v>142200</v>
       </c>
@@ -15620,7 +15002,7 @@
       </c>
       <c r="F164" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1912 </t>
+          <t>1912</t>
         </is>
       </c>
       <c r="G164" s="10" t="inlineStr">
@@ -15657,11 +15039,7 @@
       <c r="N164" s="10" t="inlineStr"/>
       <c r="O164" s="10" t="inlineStr"/>
       <c r="P164" s="10" t="inlineStr"/>
-      <c r="Q164" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304005</t>
-        </is>
-      </c>
+      <c r="Q164" s="10" t="inlineStr"/>
       <c r="R164" s="10" t="inlineStr"/>
       <c r="S164" s="10" t="inlineStr">
         <is>
@@ -15697,7 +15075,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="165" s="6">
+    <row r="165" ht="27" customHeight="1" s="6">
       <c r="A165" s="7" t="n">
         <v>142201</v>
       </c>
@@ -15723,7 +15101,7 @@
       </c>
       <c r="F165" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1906 </t>
+          <t>1906</t>
         </is>
       </c>
       <c r="G165" s="10" t="inlineStr"/>
@@ -15736,7 +15114,7 @@
       <c r="J165" s="10" t="inlineStr"/>
       <c r="K165" s="10" t="inlineStr">
         <is>
-          <t>в1942</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="L165" s="12" t="inlineStr">
@@ -15752,11 +15130,7 @@
       <c r="N165" s="10" t="inlineStr"/>
       <c r="O165" s="10" t="inlineStr"/>
       <c r="P165" s="10" t="inlineStr"/>
-      <c r="Q165" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304004</t>
-        </is>
-      </c>
+      <c r="Q165" s="10" t="inlineStr"/>
       <c r="R165" s="10" t="inlineStr"/>
       <c r="S165" s="10" t="inlineStr">
         <is>
@@ -15818,7 +15192,7 @@
       </c>
       <c r="F166" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1908 </t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G166" s="10" t="inlineStr">
@@ -15851,11 +15225,7 @@
       <c r="N166" s="10" t="inlineStr"/>
       <c r="O166" s="10" t="inlineStr"/>
       <c r="P166" s="10" t="inlineStr"/>
-      <c r="Q166" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304003</t>
-        </is>
-      </c>
+      <c r="Q166" s="10" t="inlineStr"/>
       <c r="R166" s="10" t="inlineStr"/>
       <c r="S166" s="10" t="inlineStr">
         <is>
@@ -15938,11 +15308,7 @@
       <c r="N167" s="10" t="inlineStr"/>
       <c r="O167" s="10" t="inlineStr"/>
       <c r="P167" s="10" t="inlineStr"/>
-      <c r="Q167" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62086662</t>
-        </is>
-      </c>
+      <c r="Q167" s="10" t="inlineStr"/>
       <c r="R167" s="10" t="inlineStr"/>
       <c r="S167" s="10" t="inlineStr">
         <is>
@@ -16025,11 +15391,7 @@
       <c r="N168" s="10" t="inlineStr"/>
       <c r="O168" s="10" t="inlineStr"/>
       <c r="P168" s="10" t="inlineStr"/>
-      <c r="Q168" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304000</t>
-        </is>
-      </c>
+      <c r="Q168" s="10" t="inlineStr"/>
       <c r="R168" s="10" t="inlineStr"/>
       <c r="S168" s="10" t="inlineStr">
         <is>
@@ -16112,11 +15474,7 @@
       <c r="N169" s="10" t="inlineStr"/>
       <c r="O169" s="10" t="inlineStr"/>
       <c r="P169" s="10" t="inlineStr"/>
-      <c r="Q169" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304012</t>
-        </is>
-      </c>
+      <c r="Q169" s="10" t="inlineStr"/>
       <c r="R169" s="10" t="inlineStr"/>
       <c r="S169" s="10" t="inlineStr">
         <is>
@@ -16199,11 +15557,7 @@
       <c r="N170" s="10" t="inlineStr"/>
       <c r="O170" s="10" t="inlineStr"/>
       <c r="P170" s="10" t="inlineStr"/>
-      <c r="Q170" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304001</t>
-        </is>
-      </c>
+      <c r="Q170" s="10" t="inlineStr"/>
       <c r="R170" s="10" t="inlineStr"/>
       <c r="S170" s="10" t="inlineStr">
         <is>
@@ -16265,7 +15619,7 @@
       </c>
       <c r="F171" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G171" s="10" t="inlineStr"/>
@@ -16278,7 +15632,7 @@
       <c r="J171" s="10" t="inlineStr"/>
       <c r="K171" s="10" t="inlineStr">
         <is>
-          <t>05.12.1941</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="L171" s="12" t="inlineStr">
@@ -16290,11 +15644,7 @@
       <c r="N171" s="10" t="inlineStr"/>
       <c r="O171" s="10" t="inlineStr"/>
       <c r="P171" s="10" t="inlineStr"/>
-      <c r="Q171" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=350032825</t>
-        </is>
-      </c>
+      <c r="Q171" s="10" t="inlineStr"/>
       <c r="R171" s="10" t="inlineStr"/>
       <c r="S171" s="10" t="inlineStr">
         <is>
@@ -16356,7 +15706,7 @@
       </c>
       <c r="F172" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1909 </t>
+          <t>1909</t>
         </is>
       </c>
       <c r="G172" s="10" t="inlineStr"/>
@@ -16377,11 +15727,7 @@
       <c r="N172" s="10" t="inlineStr"/>
       <c r="O172" s="10" t="inlineStr"/>
       <c r="P172" s="10" t="inlineStr"/>
-      <c r="Q172" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58495618</t>
-        </is>
-      </c>
+      <c r="Q172" s="10" t="inlineStr"/>
       <c r="R172" s="10" t="inlineStr"/>
       <c r="S172" s="10" t="inlineStr">
         <is>
@@ -16464,11 +15810,7 @@
       <c r="N173" s="10" t="inlineStr"/>
       <c r="O173" s="10" t="inlineStr"/>
       <c r="P173" s="10" t="inlineStr"/>
-      <c r="Q173" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=61664379</t>
-        </is>
-      </c>
+      <c r="Q173" s="10" t="inlineStr"/>
       <c r="R173" s="10" t="inlineStr"/>
       <c r="S173" s="10" t="inlineStr">
         <is>
@@ -16530,7 +15872,7 @@
       </c>
       <c r="F174" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1903 </t>
+          <t>1903</t>
         </is>
       </c>
       <c r="G174" s="10" t="inlineStr"/>
@@ -16555,11 +15897,7 @@
       <c r="N174" s="10" t="inlineStr"/>
       <c r="O174" s="10" t="inlineStr"/>
       <c r="P174" s="10" t="inlineStr"/>
-      <c r="Q174" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57099259</t>
-        </is>
-      </c>
+      <c r="Q174" s="10" t="inlineStr"/>
       <c r="R174" s="10" t="inlineStr"/>
       <c r="S174" s="10" t="inlineStr">
         <is>
@@ -16642,11 +15980,7 @@
       <c r="N175" s="10" t="inlineStr"/>
       <c r="O175" s="10" t="inlineStr"/>
       <c r="P175" s="10" t="inlineStr"/>
-      <c r="Q175" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64806730</t>
-        </is>
-      </c>
+      <c r="Q175" s="10" t="inlineStr"/>
       <c r="R175" s="10" t="inlineStr"/>
       <c r="S175" s="10" t="inlineStr">
         <is>
@@ -16733,11 +16067,7 @@
       <c r="N176" s="10" t="inlineStr"/>
       <c r="O176" s="10" t="inlineStr"/>
       <c r="P176" s="10" t="inlineStr"/>
-      <c r="Q176" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4285673</t>
-        </is>
-      </c>
+      <c r="Q176" s="10" t="inlineStr"/>
       <c r="R176" s="10" t="inlineStr"/>
       <c r="S176" s="10" t="inlineStr">
         <is>
@@ -16820,11 +16150,7 @@
       <c r="N177" s="10" t="inlineStr"/>
       <c r="O177" s="10" t="inlineStr"/>
       <c r="P177" s="10" t="inlineStr"/>
-      <c r="Q177" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304019</t>
-        </is>
-      </c>
+      <c r="Q177" s="10" t="inlineStr"/>
       <c r="R177" s="10" t="inlineStr"/>
       <c r="S177" s="10" t="inlineStr">
         <is>
@@ -16886,7 +16212,7 @@
       </c>
       <c r="F178" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1922 </t>
+          <t>1922</t>
         </is>
       </c>
       <c r="G178" s="10" t="inlineStr"/>
@@ -16903,7 +16229,7 @@
       </c>
       <c r="K178" s="10" t="inlineStr">
         <is>
-          <t>в1942</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="L178" s="12" t="inlineStr">
@@ -16915,11 +16241,7 @@
       <c r="N178" s="10" t="inlineStr"/>
       <c r="O178" s="10" t="inlineStr"/>
       <c r="P178" s="10" t="inlineStr"/>
-      <c r="Q178" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64806740</t>
-        </is>
-      </c>
+      <c r="Q178" s="10" t="inlineStr"/>
       <c r="R178" s="10" t="inlineStr"/>
       <c r="S178" s="10" t="inlineStr">
         <is>
@@ -16955,7 +16277,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="179" s="6">
+    <row r="179" ht="27" customHeight="1" s="6">
       <c r="A179" s="7" t="n">
         <v>142215</v>
       </c>
@@ -16981,7 +16303,7 @@
       </c>
       <c r="F179" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1895 </t>
+          <t>1895</t>
         </is>
       </c>
       <c r="G179" s="10" t="inlineStr">
@@ -17014,11 +16336,7 @@
       <c r="N179" s="10" t="inlineStr"/>
       <c r="O179" s="10" t="inlineStr"/>
       <c r="P179" s="10" t="inlineStr"/>
-      <c r="Q179" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=6444290</t>
-        </is>
-      </c>
+      <c r="Q179" s="10" t="inlineStr"/>
       <c r="R179" s="10" t="inlineStr"/>
       <c r="S179" s="10" t="inlineStr">
         <is>
@@ -17054,7 +16372,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="180" s="6">
+    <row r="180" ht="27" customHeight="1" s="6">
       <c r="A180" s="7" t="n">
         <v>142216</v>
       </c>
@@ -17080,7 +16398,7 @@
       </c>
       <c r="F180" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1912 </t>
+          <t>1912</t>
         </is>
       </c>
       <c r="G180" s="10" t="inlineStr">
@@ -17113,11 +16431,7 @@
       <c r="N180" s="10" t="inlineStr"/>
       <c r="O180" s="10" t="inlineStr"/>
       <c r="P180" s="10" t="inlineStr"/>
-      <c r="Q180" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=56552948</t>
-        </is>
-      </c>
+      <c r="Q180" s="10" t="inlineStr"/>
       <c r="R180" s="10" t="inlineStr"/>
       <c r="S180" s="10" t="inlineStr">
         <is>
@@ -17200,11 +16514,7 @@
       <c r="N181" s="10" t="inlineStr"/>
       <c r="O181" s="10" t="inlineStr"/>
       <c r="P181" s="10" t="inlineStr"/>
-      <c r="Q181" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304023</t>
-        </is>
-      </c>
+      <c r="Q181" s="10" t="inlineStr"/>
       <c r="R181" s="10" t="inlineStr"/>
       <c r="S181" s="10" t="inlineStr">
         <is>
@@ -17240,7 +16550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="182" s="6">
+    <row r="182" ht="27" customHeight="1" s="6">
       <c r="A182" s="7" t="n">
         <v>142228</v>
       </c>
@@ -17266,7 +16576,7 @@
       </c>
       <c r="F182" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G182" s="10" t="inlineStr"/>
@@ -17295,11 +16605,7 @@
       <c r="N182" s="10" t="inlineStr"/>
       <c r="O182" s="10" t="inlineStr"/>
       <c r="P182" s="10" t="inlineStr"/>
-      <c r="Q182" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170681</t>
-        </is>
-      </c>
+      <c r="Q182" s="10" t="inlineStr"/>
       <c r="R182" s="10" t="inlineStr"/>
       <c r="S182" s="10" t="inlineStr">
         <is>
@@ -17335,7 +16641,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="183" s="6">
+    <row r="183" ht="27" customHeight="1" s="6">
       <c r="A183" s="7" t="n">
         <v>142218</v>
       </c>
@@ -17361,7 +16667,7 @@
       </c>
       <c r="F183" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1922 </t>
+          <t>1922</t>
         </is>
       </c>
       <c r="G183" s="10" t="inlineStr">
@@ -17394,11 +16700,7 @@
       <c r="N183" s="10" t="inlineStr"/>
       <c r="O183" s="10" t="inlineStr"/>
       <c r="P183" s="10" t="inlineStr"/>
-      <c r="Q183" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1241167</t>
-        </is>
-      </c>
+      <c r="Q183" s="10" t="inlineStr"/>
       <c r="R183" s="10" t="inlineStr"/>
       <c r="S183" s="10" t="inlineStr">
         <is>
@@ -17489,11 +16791,7 @@
       <c r="N184" s="10" t="inlineStr"/>
       <c r="O184" s="10" t="inlineStr"/>
       <c r="P184" s="10" t="inlineStr"/>
-      <c r="Q184" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=6428152</t>
-        </is>
-      </c>
+      <c r="Q184" s="10" t="inlineStr"/>
       <c r="R184" s="10" t="inlineStr"/>
       <c r="S184" s="10" t="inlineStr">
         <is>
@@ -17562,7 +16860,11 @@
       </c>
       <c r="I185" s="10" t="inlineStr"/>
       <c r="J185" s="10" t="inlineStr"/>
-      <c r="K185" s="10" t="inlineStr"/>
+      <c r="K185" s="10" t="inlineStr">
+        <is>
+          <t>плену23.09.1941</t>
+        </is>
+      </c>
       <c r="L185" s="12" t="inlineStr">
         <is>
           <t>умер в плену</t>
@@ -17655,11 +16957,7 @@
       <c r="N186" s="10" t="inlineStr"/>
       <c r="O186" s="10" t="inlineStr"/>
       <c r="P186" s="10" t="inlineStr"/>
-      <c r="Q186" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304027</t>
-        </is>
-      </c>
+      <c r="Q186" s="10" t="inlineStr"/>
       <c r="R186" s="10" t="inlineStr"/>
       <c r="S186" s="10" t="inlineStr">
         <is>
@@ -17721,7 +17019,7 @@
       </c>
       <c r="F187" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G187" s="10" t="inlineStr"/>
@@ -17746,11 +17044,7 @@
       <c r="N187" s="10" t="inlineStr"/>
       <c r="O187" s="10" t="inlineStr"/>
       <c r="P187" s="10" t="inlineStr"/>
-      <c r="Q187" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170778</t>
-        </is>
-      </c>
+      <c r="Q187" s="10" t="inlineStr"/>
       <c r="R187" s="10" t="inlineStr"/>
       <c r="S187" s="10" t="inlineStr">
         <is>
@@ -17837,11 +17131,7 @@
       <c r="N188" s="10" t="inlineStr"/>
       <c r="O188" s="10" t="inlineStr"/>
       <c r="P188" s="10" t="inlineStr"/>
-      <c r="Q188" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=74160209</t>
-        </is>
-      </c>
+      <c r="Q188" s="10" t="inlineStr"/>
       <c r="R188" s="10" t="inlineStr"/>
       <c r="S188" s="10" t="inlineStr">
         <is>
@@ -17903,7 +17193,7 @@
       </c>
       <c r="F189" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G189" s="10" t="inlineStr">
@@ -17936,11 +17226,7 @@
       <c r="N189" s="10" t="inlineStr"/>
       <c r="O189" s="10" t="inlineStr"/>
       <c r="P189" s="10" t="inlineStr"/>
-      <c r="Q189" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304030</t>
-        </is>
-      </c>
+      <c r="Q189" s="10" t="inlineStr"/>
       <c r="R189" s="10" t="inlineStr"/>
       <c r="S189" s="10" t="inlineStr">
         <is>
@@ -18002,7 +17288,7 @@
       </c>
       <c r="F190" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1908 </t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G190" s="10" t="inlineStr"/>
@@ -18031,11 +17317,7 @@
       <c r="N190" s="10" t="inlineStr"/>
       <c r="O190" s="10" t="inlineStr"/>
       <c r="P190" s="10" t="inlineStr"/>
-      <c r="Q190" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304031</t>
-        </is>
-      </c>
+      <c r="Q190" s="10" t="inlineStr"/>
       <c r="R190" s="10" t="inlineStr"/>
       <c r="S190" s="10" t="inlineStr">
         <is>
@@ -18197,11 +17479,7 @@
       <c r="N192" s="10" t="inlineStr"/>
       <c r="O192" s="10" t="inlineStr"/>
       <c r="P192" s="10" t="inlineStr"/>
-      <c r="Q192" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304033</t>
-        </is>
-      </c>
+      <c r="Q192" s="10" t="inlineStr"/>
       <c r="R192" s="10" t="inlineStr"/>
       <c r="S192" s="10" t="inlineStr">
         <is>
@@ -18237,7 +17515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="193" s="6">
+    <row r="193" ht="27" customHeight="1" s="6">
       <c r="A193" s="7" t="n">
         <v>142229</v>
       </c>
@@ -18263,7 +17541,7 @@
       </c>
       <c r="F193" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1908 </t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G193" s="10" t="inlineStr"/>
@@ -18296,11 +17574,7 @@
       <c r="N193" s="10" t="inlineStr"/>
       <c r="O193" s="10" t="inlineStr"/>
       <c r="P193" s="10" t="inlineStr"/>
-      <c r="Q193" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50337410</t>
-        </is>
-      </c>
+      <c r="Q193" s="10" t="inlineStr"/>
       <c r="R193" s="10" t="inlineStr"/>
       <c r="S193" s="10" t="inlineStr">
         <is>
@@ -18387,11 +17661,7 @@
       <c r="N194" s="10" t="inlineStr"/>
       <c r="O194" s="10" t="inlineStr"/>
       <c r="P194" s="10" t="inlineStr"/>
-      <c r="Q194" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304036</t>
-        </is>
-      </c>
+      <c r="Q194" s="10" t="inlineStr"/>
       <c r="R194" s="10" t="inlineStr"/>
       <c r="S194" s="10" t="inlineStr">
         <is>
@@ -18478,11 +17748,7 @@
       <c r="N195" s="10" t="inlineStr"/>
       <c r="O195" s="10" t="inlineStr"/>
       <c r="P195" s="10" t="inlineStr"/>
-      <c r="Q195" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=584102496</t>
-        </is>
-      </c>
+      <c r="Q195" s="10" t="inlineStr"/>
       <c r="R195" s="10" t="inlineStr"/>
       <c r="S195" s="10" t="inlineStr">
         <is>
@@ -18518,7 +17784,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="196" s="6">
+    <row r="196" ht="27" customHeight="1" s="6">
       <c r="A196" s="7" t="n">
         <v>142232</v>
       </c>
@@ -18544,7 +17810,7 @@
       </c>
       <c r="F196" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1911 </t>
+          <t>1911</t>
         </is>
       </c>
       <c r="G196" s="10" t="inlineStr">
@@ -18577,11 +17843,7 @@
       <c r="N196" s="10" t="inlineStr"/>
       <c r="O196" s="10" t="inlineStr"/>
       <c r="P196" s="10" t="inlineStr"/>
-      <c r="Q196" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=75869451</t>
-        </is>
-      </c>
+      <c r="Q196" s="10" t="inlineStr"/>
       <c r="R196" s="10" t="inlineStr"/>
       <c r="S196" s="10" t="inlineStr">
         <is>
@@ -18617,7 +17879,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="197" s="6">
+    <row r="197" ht="27" customHeight="1" s="6">
       <c r="A197" s="7" t="n">
         <v>142233</v>
       </c>
@@ -18643,7 +17905,7 @@
       </c>
       <c r="F197" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1904 </t>
+          <t>1904</t>
         </is>
       </c>
       <c r="G197" s="10" t="inlineStr">
@@ -18680,11 +17942,7 @@
       <c r="N197" s="10" t="inlineStr"/>
       <c r="O197" s="10" t="inlineStr"/>
       <c r="P197" s="10" t="inlineStr"/>
-      <c r="Q197" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50447974</t>
-        </is>
-      </c>
+      <c r="Q197" s="10" t="inlineStr"/>
       <c r="R197" s="10" t="inlineStr"/>
       <c r="S197" s="10" t="inlineStr">
         <is>
@@ -18720,7 +17978,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="198" s="6">
+    <row r="198" ht="27" customHeight="1" s="6">
       <c r="A198" s="7" t="n">
         <v>142234</v>
       </c>
@@ -18746,7 +18004,7 @@
       </c>
       <c r="F198" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1909 </t>
+          <t>1909</t>
         </is>
       </c>
       <c r="G198" s="10" t="inlineStr">
@@ -18783,11 +18041,7 @@
       <c r="N198" s="10" t="inlineStr"/>
       <c r="O198" s="10" t="inlineStr"/>
       <c r="P198" s="10" t="inlineStr"/>
-      <c r="Q198" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=9352219</t>
-        </is>
-      </c>
+      <c r="Q198" s="10" t="inlineStr"/>
       <c r="R198" s="10" t="inlineStr"/>
       <c r="S198" s="10" t="inlineStr">
         <is>
@@ -18823,7 +18077,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="199" s="6">
+    <row r="199" ht="27" customHeight="1" s="6">
       <c r="A199" s="7" t="n">
         <v>142235</v>
       </c>
@@ -18874,11 +18128,7 @@
       <c r="N199" s="10" t="inlineStr"/>
       <c r="O199" s="10" t="inlineStr"/>
       <c r="P199" s="10" t="inlineStr"/>
-      <c r="Q199" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304041</t>
-        </is>
-      </c>
+      <c r="Q199" s="10" t="inlineStr"/>
       <c r="R199" s="10" t="inlineStr"/>
       <c r="S199" s="10" t="inlineStr">
         <is>
@@ -18914,7 +18164,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="200" s="6">
+    <row r="200" ht="27" customHeight="1" s="6">
       <c r="A200" s="7" t="n">
         <v>142236</v>
       </c>
@@ -18940,7 +18190,7 @@
       </c>
       <c r="F200" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G200" s="10" t="inlineStr"/>
@@ -18973,11 +18223,7 @@
       <c r="N200" s="10" t="inlineStr"/>
       <c r="O200" s="10" t="inlineStr"/>
       <c r="P200" s="10" t="inlineStr"/>
-      <c r="Q200" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=9484045</t>
-        </is>
-      </c>
+      <c r="Q200" s="10" t="inlineStr"/>
       <c r="R200" s="10" t="inlineStr"/>
       <c r="S200" s="10" t="inlineStr">
         <is>
@@ -19064,11 +18310,7 @@
       <c r="N201" s="10" t="inlineStr"/>
       <c r="O201" s="10" t="inlineStr"/>
       <c r="P201" s="10" t="inlineStr"/>
-      <c r="Q201" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4681266</t>
-        </is>
-      </c>
+      <c r="Q201" s="10" t="inlineStr"/>
       <c r="R201" s="10" t="inlineStr"/>
       <c r="S201" s="10" t="inlineStr">
         <is>
@@ -19104,7 +18346,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="202" s="6">
+    <row r="202" ht="27" customHeight="1" s="6">
       <c r="A202" s="7" t="n">
         <v>142238</v>
       </c>
@@ -19155,11 +18397,7 @@
       <c r="N202" s="10" t="inlineStr"/>
       <c r="O202" s="10" t="inlineStr"/>
       <c r="P202" s="10" t="inlineStr"/>
-      <c r="Q202" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2346897</t>
-        </is>
-      </c>
+      <c r="Q202" s="10" t="inlineStr"/>
       <c r="R202" s="10" t="inlineStr"/>
       <c r="S202" s="10" t="inlineStr">
         <is>
@@ -19195,7 +18433,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="203" s="6">
+    <row r="203" ht="27" customHeight="1" s="6">
       <c r="A203" s="7" t="n">
         <v>142239</v>
       </c>
@@ -19221,7 +18459,7 @@
       </c>
       <c r="F203" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1900 </t>
+          <t>1900</t>
         </is>
       </c>
       <c r="G203" s="10" t="inlineStr">
@@ -19258,11 +18496,7 @@
       <c r="N203" s="10" t="inlineStr"/>
       <c r="O203" s="10" t="inlineStr"/>
       <c r="P203" s="10" t="inlineStr"/>
-      <c r="Q203" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304045</t>
-        </is>
-      </c>
+      <c r="Q203" s="10" t="inlineStr"/>
       <c r="R203" s="10" t="inlineStr"/>
       <c r="S203" s="10" t="inlineStr">
         <is>
@@ -19298,7 +18532,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="204" s="6">
+    <row r="204" ht="27" customHeight="1" s="6">
       <c r="A204" s="7" t="n">
         <v>142240</v>
       </c>
@@ -19324,7 +18558,7 @@
       </c>
       <c r="F204" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1916 </t>
+          <t>1916</t>
         </is>
       </c>
       <c r="G204" s="10" t="inlineStr">
@@ -19353,11 +18587,7 @@
       <c r="N204" s="10" t="inlineStr"/>
       <c r="O204" s="10" t="inlineStr"/>
       <c r="P204" s="10" t="inlineStr"/>
-      <c r="Q204" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213427</t>
-        </is>
-      </c>
+      <c r="Q204" s="10" t="inlineStr"/>
       <c r="R204" s="10" t="inlineStr"/>
       <c r="S204" s="10" t="inlineStr">
         <is>
@@ -19393,7 +18623,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="205" s="6">
+    <row r="205" ht="27" customHeight="1" s="6">
       <c r="A205" s="7" t="n">
         <v>142241</v>
       </c>
@@ -19444,11 +18674,7 @@
       <c r="N205" s="10" t="inlineStr"/>
       <c r="O205" s="10" t="inlineStr"/>
       <c r="P205" s="10" t="inlineStr"/>
-      <c r="Q205" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304047</t>
-        </is>
-      </c>
+      <c r="Q205" s="10" t="inlineStr"/>
       <c r="R205" s="10" t="inlineStr"/>
       <c r="S205" s="10" t="inlineStr">
         <is>
@@ -19484,7 +18710,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="206" s="6">
+    <row r="206" s="6">
       <c r="A206" s="7" t="n">
         <v>142242</v>
       </c>
@@ -19510,7 +18736,7 @@
       </c>
       <c r="F206" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G206" s="10" t="inlineStr"/>
@@ -19543,11 +18769,7 @@
       <c r="N206" s="10" t="inlineStr"/>
       <c r="O206" s="10" t="inlineStr"/>
       <c r="P206" s="10" t="inlineStr"/>
-      <c r="Q206" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58945876</t>
-        </is>
-      </c>
+      <c r="Q206" s="10" t="inlineStr"/>
       <c r="R206" s="10" t="inlineStr"/>
       <c r="S206" s="10" t="inlineStr">
         <is>
@@ -19583,7 +18805,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="207" s="6">
+    <row r="207" ht="27" customHeight="1" s="6">
       <c r="A207" s="7" t="n">
         <v>142243</v>
       </c>
@@ -19609,7 +18831,7 @@
       </c>
       <c r="F207" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1912 </t>
+          <t>1912</t>
         </is>
       </c>
       <c r="G207" s="10" t="inlineStr"/>
@@ -19638,11 +18860,7 @@
       <c r="N207" s="10" t="inlineStr"/>
       <c r="O207" s="10" t="inlineStr"/>
       <c r="P207" s="10" t="inlineStr"/>
-      <c r="Q207" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304050</t>
-        </is>
-      </c>
+      <c r="Q207" s="10" t="inlineStr"/>
       <c r="R207" s="10" t="inlineStr"/>
       <c r="S207" s="10" t="inlineStr">
         <is>
@@ -19678,7 +18896,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="208" s="6">
+    <row r="208" ht="27" customHeight="1" s="6">
       <c r="A208" s="7" t="n">
         <v>142244</v>
       </c>
@@ -19704,12 +18922,12 @@
       </c>
       <c r="F208" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G208" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Каверинский рн,  с. НовоБерезово</t>
+          <t xml:space="preserve"> 20. 11. 42 г.</t>
         </is>
       </c>
       <c r="H208" s="10" t="inlineStr">
@@ -19737,11 +18955,7 @@
       <c r="N208" s="10" t="inlineStr"/>
       <c r="O208" s="10" t="inlineStr"/>
       <c r="P208" s="10" t="inlineStr"/>
-      <c r="Q208" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=51209014</t>
-        </is>
-      </c>
+      <c r="Q208" s="10" t="inlineStr"/>
       <c r="R208" s="10" t="inlineStr"/>
       <c r="S208" s="10" t="inlineStr">
         <is>
@@ -19777,7 +18991,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="209" s="6">
+    <row r="209" ht="27" customHeight="1" s="6">
       <c r="A209" s="7" t="n">
         <v>142245</v>
       </c>
@@ -19828,11 +19042,7 @@
       <c r="N209" s="10" t="inlineStr"/>
       <c r="O209" s="10" t="inlineStr"/>
       <c r="P209" s="10" t="inlineStr"/>
-      <c r="Q209" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=3520264</t>
-        </is>
-      </c>
+      <c r="Q209" s="10" t="inlineStr"/>
       <c r="R209" s="10" t="inlineStr"/>
       <c r="S209" s="10" t="inlineStr">
         <is>
@@ -19868,7 +19078,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="210" s="6">
+    <row r="210" ht="27" customHeight="1" s="6">
       <c r="A210" s="7" t="n">
         <v>142246</v>
       </c>
@@ -19894,7 +19104,7 @@
       </c>
       <c r="F210" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1902 </t>
+          <t>1902</t>
         </is>
       </c>
       <c r="G210" s="10" t="inlineStr">
@@ -19923,11 +19133,7 @@
       <c r="N210" s="10" t="inlineStr"/>
       <c r="O210" s="10" t="inlineStr"/>
       <c r="P210" s="10" t="inlineStr"/>
-      <c r="Q210" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304053</t>
-        </is>
-      </c>
+      <c r="Q210" s="10" t="inlineStr"/>
       <c r="R210" s="10" t="inlineStr"/>
       <c r="S210" s="10" t="inlineStr">
         <is>
@@ -19963,7 +19169,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="211" s="6">
+    <row r="211" ht="27" customHeight="1" s="6">
       <c r="A211" s="7" t="n">
         <v>142247</v>
       </c>
@@ -19989,7 +19195,7 @@
       </c>
       <c r="F211" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1922 </t>
+          <t>1922</t>
         </is>
       </c>
       <c r="G211" s="10" t="inlineStr">
@@ -20018,11 +19224,7 @@
       <c r="N211" s="10" t="inlineStr"/>
       <c r="O211" s="10" t="inlineStr"/>
       <c r="P211" s="10" t="inlineStr"/>
-      <c r="Q211" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213419</t>
-        </is>
-      </c>
+      <c r="Q211" s="10" t="inlineStr"/>
       <c r="R211" s="10" t="inlineStr"/>
       <c r="S211" s="10" t="inlineStr">
         <is>
@@ -20058,7 +19260,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="212" s="6">
+    <row r="212" ht="27" customHeight="1" s="6">
       <c r="A212" s="7" t="n">
         <v>142248</v>
       </c>
@@ -20084,7 +19286,7 @@
       </c>
       <c r="F212" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1899 </t>
+          <t>1899</t>
         </is>
       </c>
       <c r="G212" s="10" t="inlineStr">
@@ -20113,11 +19315,7 @@
       <c r="N212" s="10" t="inlineStr"/>
       <c r="O212" s="10" t="inlineStr"/>
       <c r="P212" s="10" t="inlineStr"/>
-      <c r="Q212" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213470</t>
-        </is>
-      </c>
+      <c r="Q212" s="10" t="inlineStr"/>
       <c r="R212" s="10" t="inlineStr"/>
       <c r="S212" s="10" t="inlineStr">
         <is>
@@ -20208,11 +19406,7 @@
       <c r="N213" s="10" t="inlineStr"/>
       <c r="O213" s="10" t="inlineStr"/>
       <c r="P213" s="10" t="inlineStr"/>
-      <c r="Q213" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=23459228</t>
-        </is>
-      </c>
+      <c r="Q213" s="10" t="inlineStr"/>
       <c r="R213" s="10" t="inlineStr"/>
       <c r="S213" s="10" t="inlineStr">
         <is>
@@ -20248,7 +19442,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="214" s="6">
+    <row r="214" ht="27" customHeight="1" s="6">
       <c r="A214" s="7" t="n">
         <v>142250</v>
       </c>
@@ -20274,7 +19468,7 @@
       </c>
       <c r="F214" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G214" s="10" t="inlineStr">
@@ -20299,11 +19493,7 @@
       <c r="N214" s="10" t="inlineStr"/>
       <c r="O214" s="10" t="inlineStr"/>
       <c r="P214" s="10" t="inlineStr"/>
-      <c r="Q214" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213396</t>
-        </is>
-      </c>
+      <c r="Q214" s="10" t="inlineStr"/>
       <c r="R214" s="10" t="inlineStr"/>
       <c r="S214" s="10" t="inlineStr">
         <is>
@@ -20386,11 +19576,7 @@
       <c r="N215" s="10" t="inlineStr"/>
       <c r="O215" s="10" t="inlineStr"/>
       <c r="P215" s="10" t="inlineStr"/>
-      <c r="Q215" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1910325524</t>
-        </is>
-      </c>
+      <c r="Q215" s="10" t="inlineStr"/>
       <c r="R215" s="10" t="inlineStr"/>
       <c r="S215" s="10" t="inlineStr">
         <is>
@@ -20477,11 +19663,7 @@
       <c r="N216" s="10" t="inlineStr"/>
       <c r="O216" s="10" t="inlineStr"/>
       <c r="P216" s="10" t="inlineStr"/>
-      <c r="Q216" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304059</t>
-        </is>
-      </c>
+      <c r="Q216" s="10" t="inlineStr"/>
       <c r="R216" s="10" t="inlineStr"/>
       <c r="S216" s="10" t="inlineStr">
         <is>
@@ -20568,11 +19750,7 @@
       <c r="N217" s="10" t="inlineStr"/>
       <c r="O217" s="10" t="inlineStr"/>
       <c r="P217" s="10" t="inlineStr"/>
-      <c r="Q217" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62969952</t>
-        </is>
-      </c>
+      <c r="Q217" s="10" t="inlineStr"/>
       <c r="R217" s="10" t="inlineStr"/>
       <c r="S217" s="10" t="inlineStr">
         <is>
@@ -20608,7 +19786,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="218" s="6">
+    <row r="218" ht="27" customHeight="1" s="6">
       <c r="A218" s="7" t="n">
         <v>142254</v>
       </c>
@@ -20634,7 +19812,7 @@
       </c>
       <c r="F218" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1924 </t>
+          <t>1924</t>
         </is>
       </c>
       <c r="G218" s="10" t="inlineStr">
@@ -20663,11 +19841,7 @@
       <c r="N218" s="10" t="inlineStr"/>
       <c r="O218" s="10" t="inlineStr"/>
       <c r="P218" s="10" t="inlineStr"/>
-      <c r="Q218" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213394</t>
-        </is>
-      </c>
+      <c r="Q218" s="10" t="inlineStr"/>
       <c r="R218" s="10" t="inlineStr"/>
       <c r="S218" s="10" t="inlineStr">
         <is>
@@ -20703,7 +19877,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="219" s="6">
+    <row r="219" ht="27" customHeight="1" s="6">
       <c r="A219" s="7" t="n">
         <v>142255</v>
       </c>
@@ -20729,7 +19903,7 @@
       </c>
       <c r="F219" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G219" s="10" t="inlineStr">
@@ -20762,11 +19936,7 @@
       <c r="N219" s="10" t="inlineStr"/>
       <c r="O219" s="10" t="inlineStr"/>
       <c r="P219" s="10" t="inlineStr"/>
-      <c r="Q219" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52138406</t>
-        </is>
-      </c>
+      <c r="Q219" s="10" t="inlineStr"/>
       <c r="R219" s="10" t="inlineStr"/>
       <c r="S219" s="10" t="inlineStr">
         <is>
@@ -20849,11 +20019,7 @@
       <c r="N220" s="10" t="inlineStr"/>
       <c r="O220" s="10" t="inlineStr"/>
       <c r="P220" s="10" t="inlineStr"/>
-      <c r="Q220" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65027654</t>
-        </is>
-      </c>
+      <c r="Q220" s="10" t="inlineStr"/>
       <c r="R220" s="10" t="inlineStr"/>
       <c r="S220" s="10" t="inlineStr">
         <is>
@@ -20889,7 +20055,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="221" s="6">
+    <row r="221" ht="27" customHeight="1" s="6">
       <c r="A221" s="7" t="n">
         <v>142257</v>
       </c>
@@ -20915,7 +20081,7 @@
       </c>
       <c r="F221" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G221" s="10" t="inlineStr">
@@ -20944,11 +20110,7 @@
       <c r="N221" s="10" t="inlineStr"/>
       <c r="O221" s="10" t="inlineStr"/>
       <c r="P221" s="10" t="inlineStr"/>
-      <c r="Q221" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213500</t>
-        </is>
-      </c>
+      <c r="Q221" s="10" t="inlineStr"/>
       <c r="R221" s="10" t="inlineStr"/>
       <c r="S221" s="10" t="inlineStr">
         <is>
@@ -20984,7 +20146,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="222" s="6">
+    <row r="222" ht="27" customHeight="1" s="6">
       <c r="A222" s="7" t="n">
         <v>142258</v>
       </c>
@@ -21010,7 +20172,7 @@
       </c>
       <c r="F222" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1905 </t>
+          <t>1905</t>
         </is>
       </c>
       <c r="G222" s="10" t="inlineStr">
@@ -21035,11 +20197,7 @@
       <c r="N222" s="10" t="inlineStr"/>
       <c r="O222" s="10" t="inlineStr"/>
       <c r="P222" s="10" t="inlineStr"/>
-      <c r="Q222" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213430</t>
-        </is>
-      </c>
+      <c r="Q222" s="10" t="inlineStr"/>
       <c r="R222" s="10" t="inlineStr"/>
       <c r="S222" s="10" t="inlineStr">
         <is>
@@ -21101,14 +20259,10 @@
       </c>
       <c r="F223" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1916 </t>
-        </is>
-      </c>
-      <c r="G223" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> пропал без вести 20. 03. 42 г. в Сталинградской обл.</t>
-        </is>
-      </c>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="G223" s="10" t="inlineStr"/>
       <c r="H223" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> рядовой</t>
@@ -21122,7 +20276,7 @@
       </c>
       <c r="K223" s="10" t="inlineStr">
         <is>
-          <t>20.03.1942</t>
+          <t>.03.1942</t>
         </is>
       </c>
       <c r="L223" s="12" t="inlineStr">
@@ -21134,11 +20288,7 @@
       <c r="N223" s="10" t="inlineStr"/>
       <c r="O223" s="10" t="inlineStr"/>
       <c r="P223" s="10" t="inlineStr"/>
-      <c r="Q223" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=51159122</t>
-        </is>
-      </c>
+      <c r="Q223" s="10" t="inlineStr"/>
       <c r="R223" s="10" t="inlineStr"/>
       <c r="S223" s="10" t="inlineStr">
         <is>
@@ -21225,11 +20375,7 @@
       <c r="N224" s="10" t="inlineStr"/>
       <c r="O224" s="10" t="inlineStr"/>
       <c r="P224" s="10" t="inlineStr"/>
-      <c r="Q224" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304067</t>
-        </is>
-      </c>
+      <c r="Q224" s="10" t="inlineStr"/>
       <c r="R224" s="10" t="inlineStr"/>
       <c r="S224" s="10" t="inlineStr">
         <is>
@@ -21265,7 +20411,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="225" s="6">
+    <row r="225" ht="27" customHeight="1" s="6">
       <c r="A225" s="7" t="n">
         <v>142261</v>
       </c>
@@ -21291,7 +20437,7 @@
       </c>
       <c r="F225" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G225" s="10" t="inlineStr">
@@ -21328,11 +20474,7 @@
       <c r="N225" s="10" t="inlineStr"/>
       <c r="O225" s="10" t="inlineStr"/>
       <c r="P225" s="10" t="inlineStr"/>
-      <c r="Q225" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1341297</t>
-        </is>
-      </c>
+      <c r="Q225" s="10" t="inlineStr"/>
       <c r="R225" s="10" t="inlineStr"/>
       <c r="S225" s="10" t="inlineStr">
         <is>
@@ -21415,11 +20557,7 @@
       <c r="N226" s="10" t="inlineStr"/>
       <c r="O226" s="10" t="inlineStr"/>
       <c r="P226" s="10" t="inlineStr"/>
-      <c r="Q226" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=61664349</t>
-        </is>
-      </c>
+      <c r="Q226" s="10" t="inlineStr"/>
       <c r="R226" s="10" t="inlineStr"/>
       <c r="S226" s="10" t="inlineStr">
         <is>
@@ -21481,12 +20619,12 @@
       </c>
       <c r="F227" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1915 </t>
+          <t>1915</t>
         </is>
       </c>
       <c r="G227" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн.,  с. Агишево</t>
+          <t xml:space="preserve"> с. Агишево</t>
         </is>
       </c>
       <c r="H227" s="10" t="inlineStr"/>
@@ -21506,11 +20644,7 @@
       <c r="N227" s="10" t="inlineStr"/>
       <c r="O227" s="10" t="inlineStr"/>
       <c r="P227" s="10" t="inlineStr"/>
-      <c r="Q227" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304070</t>
-        </is>
-      </c>
+      <c r="Q227" s="10" t="inlineStr"/>
       <c r="R227" s="10" t="inlineStr"/>
       <c r="S227" s="10" t="inlineStr">
         <is>
@@ -21597,11 +20731,7 @@
       <c r="N228" s="10" t="inlineStr"/>
       <c r="O228" s="10" t="inlineStr"/>
       <c r="P228" s="10" t="inlineStr"/>
-      <c r="Q228" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304071</t>
-        </is>
-      </c>
+      <c r="Q228" s="10" t="inlineStr"/>
       <c r="R228" s="10" t="inlineStr"/>
       <c r="S228" s="10" t="inlineStr">
         <is>
@@ -21637,7 +20767,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="229" s="6">
+    <row r="229" ht="27" customHeight="1" s="6">
       <c r="A229" s="7" t="n">
         <v>142265</v>
       </c>
@@ -21692,11 +20822,7 @@
       <c r="N229" s="10" t="inlineStr"/>
       <c r="O229" s="10" t="inlineStr"/>
       <c r="P229" s="10" t="inlineStr"/>
-      <c r="Q229" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304072</t>
-        </is>
-      </c>
+      <c r="Q229" s="10" t="inlineStr"/>
       <c r="R229" s="10" t="inlineStr"/>
       <c r="S229" s="10" t="inlineStr">
         <is>
@@ -21783,11 +20909,7 @@
       <c r="N230" s="10" t="inlineStr"/>
       <c r="O230" s="10" t="inlineStr"/>
       <c r="P230" s="10" t="inlineStr"/>
-      <c r="Q230" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1716722</t>
-        </is>
-      </c>
+      <c r="Q230" s="10" t="inlineStr"/>
       <c r="R230" s="10" t="inlineStr"/>
       <c r="S230" s="10" t="inlineStr">
         <is>
@@ -21823,7 +20945,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="231" s="6">
+    <row r="231" ht="27" customHeight="1" s="6">
       <c r="A231" s="7" t="n">
         <v>142267</v>
       </c>
@@ -21849,7 +20971,7 @@
       </c>
       <c r="F231" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1915 </t>
+          <t>1915</t>
         </is>
       </c>
       <c r="G231" s="10" t="inlineStr">
@@ -21886,11 +21008,7 @@
       <c r="N231" s="10" t="inlineStr"/>
       <c r="O231" s="10" t="inlineStr"/>
       <c r="P231" s="10" t="inlineStr"/>
-      <c r="Q231" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304074</t>
-        </is>
-      </c>
+      <c r="Q231" s="10" t="inlineStr"/>
       <c r="R231" s="10" t="inlineStr"/>
       <c r="S231" s="10" t="inlineStr">
         <is>
@@ -21926,7 +21044,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="232" s="6">
+    <row r="232" ht="27" customHeight="1" s="6">
       <c r="A232" s="7" t="n">
         <v>142268</v>
       </c>
@@ -21952,7 +21070,7 @@
       </c>
       <c r="F232" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1912 </t>
+          <t>1912</t>
         </is>
       </c>
       <c r="G232" s="10" t="inlineStr">
@@ -21989,11 +21107,7 @@
       <c r="N232" s="10" t="inlineStr"/>
       <c r="O232" s="10" t="inlineStr"/>
       <c r="P232" s="10" t="inlineStr"/>
-      <c r="Q232" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50540370</t>
-        </is>
-      </c>
+      <c r="Q232" s="10" t="inlineStr"/>
       <c r="R232" s="10" t="inlineStr"/>
       <c r="S232" s="10" t="inlineStr">
         <is>
@@ -22076,11 +21190,7 @@
       <c r="N233" s="10" t="inlineStr"/>
       <c r="O233" s="10" t="inlineStr"/>
       <c r="P233" s="10" t="inlineStr"/>
-      <c r="Q233" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62204076</t>
-        </is>
-      </c>
+      <c r="Q233" s="10" t="inlineStr"/>
       <c r="R233" s="10" t="inlineStr"/>
       <c r="S233" s="10" t="inlineStr">
         <is>
@@ -22116,7 +21226,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="234" s="6">
+    <row r="234" ht="27" customHeight="1" s="6">
       <c r="A234" s="7" t="n">
         <v>142270</v>
       </c>
@@ -22142,7 +21252,7 @@
       </c>
       <c r="F234" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G234" s="10" t="inlineStr">
@@ -22179,11 +21289,7 @@
       <c r="N234" s="10" t="inlineStr"/>
       <c r="O234" s="10" t="inlineStr"/>
       <c r="P234" s="10" t="inlineStr"/>
-      <c r="Q234" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54260613</t>
-        </is>
-      </c>
+      <c r="Q234" s="10" t="inlineStr"/>
       <c r="R234" s="10" t="inlineStr"/>
       <c r="S234" s="10" t="inlineStr">
         <is>
@@ -22219,7 +21325,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="235" s="6">
+    <row r="235" ht="27" customHeight="1" s="6">
       <c r="A235" s="7" t="n">
         <v>142271</v>
       </c>
@@ -22270,11 +21376,7 @@
       <c r="N235" s="10" t="inlineStr"/>
       <c r="O235" s="10" t="inlineStr"/>
       <c r="P235" s="10" t="inlineStr"/>
-      <c r="Q235" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=265949667</t>
-        </is>
-      </c>
+      <c r="Q235" s="10" t="inlineStr"/>
       <c r="R235" s="10" t="inlineStr"/>
       <c r="S235" s="10" t="inlineStr">
         <is>
@@ -22336,7 +21438,7 @@
       </c>
       <c r="F236" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1900 </t>
+          <t>1900</t>
         </is>
       </c>
       <c r="G236" s="10" t="inlineStr"/>
@@ -22361,11 +21463,7 @@
       <c r="N236" s="10" t="inlineStr"/>
       <c r="O236" s="10" t="inlineStr"/>
       <c r="P236" s="10" t="inlineStr"/>
-      <c r="Q236" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62204059</t>
-        </is>
-      </c>
+      <c r="Q236" s="10" t="inlineStr"/>
       <c r="R236" s="10" t="inlineStr"/>
       <c r="S236" s="10" t="inlineStr">
         <is>
@@ -22448,11 +21546,7 @@
       <c r="N237" s="10" t="inlineStr"/>
       <c r="O237" s="10" t="inlineStr"/>
       <c r="P237" s="10" t="inlineStr"/>
-      <c r="Q237" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=55037673</t>
-        </is>
-      </c>
+      <c r="Q237" s="10" t="inlineStr"/>
       <c r="R237" s="10" t="inlineStr"/>
       <c r="S237" s="10" t="inlineStr">
         <is>
@@ -22514,7 +21608,7 @@
       </c>
       <c r="F238" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G238" s="10" t="inlineStr"/>
@@ -22539,11 +21633,7 @@
       <c r="N238" s="10" t="inlineStr"/>
       <c r="O238" s="10" t="inlineStr"/>
       <c r="P238" s="10" t="inlineStr"/>
-      <c r="Q238" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52928783</t>
-        </is>
-      </c>
+      <c r="Q238" s="10" t="inlineStr"/>
       <c r="R238" s="10" t="inlineStr"/>
       <c r="S238" s="10" t="inlineStr">
         <is>
@@ -22579,7 +21669,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="239" s="6">
+    <row r="239" ht="27" customHeight="1" s="6">
       <c r="A239" s="7" t="n">
         <v>142275</v>
       </c>
@@ -22605,7 +21695,7 @@
       </c>
       <c r="F239" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1902 </t>
+          <t>1902</t>
         </is>
       </c>
       <c r="G239" s="10" t="inlineStr">
@@ -22638,11 +21728,7 @@
       <c r="N239" s="10" t="inlineStr"/>
       <c r="O239" s="10" t="inlineStr"/>
       <c r="P239" s="10" t="inlineStr"/>
-      <c r="Q239" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2556464</t>
-        </is>
-      </c>
+      <c r="Q239" s="10" t="inlineStr"/>
       <c r="R239" s="10" t="inlineStr"/>
       <c r="S239" s="10" t="inlineStr">
         <is>
@@ -22725,11 +21811,7 @@
       <c r="N240" s="10" t="inlineStr"/>
       <c r="O240" s="10" t="inlineStr"/>
       <c r="P240" s="10" t="inlineStr"/>
-      <c r="Q240" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62204078</t>
-        </is>
-      </c>
+      <c r="Q240" s="10" t="inlineStr"/>
       <c r="R240" s="10" t="inlineStr"/>
       <c r="S240" s="10" t="inlineStr">
         <is>
@@ -22765,7 +21847,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="241" s="6">
+    <row r="241" ht="27" customHeight="1" s="6">
       <c r="A241" s="7" t="n">
         <v>142277</v>
       </c>
@@ -22791,7 +21873,7 @@
       </c>
       <c r="F241" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1907 </t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G241" s="10" t="inlineStr">
@@ -22824,11 +21906,7 @@
       <c r="N241" s="10" t="inlineStr"/>
       <c r="O241" s="10" t="inlineStr"/>
       <c r="P241" s="10" t="inlineStr"/>
-      <c r="Q241" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4547354</t>
-        </is>
-      </c>
+      <c r="Q241" s="10" t="inlineStr"/>
       <c r="R241" s="10" t="inlineStr"/>
       <c r="S241" s="10" t="inlineStr">
         <is>
@@ -22864,7 +21942,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="242" s="6">
+    <row r="242" ht="27" customHeight="1" s="6">
       <c r="A242" s="7" t="n">
         <v>142278</v>
       </c>
@@ -22915,11 +21993,7 @@
       <c r="N242" s="10" t="inlineStr"/>
       <c r="O242" s="10" t="inlineStr"/>
       <c r="P242" s="10" t="inlineStr"/>
-      <c r="Q242" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=589887269</t>
-        </is>
-      </c>
+      <c r="Q242" s="10" t="inlineStr"/>
       <c r="R242" s="10" t="inlineStr"/>
       <c r="S242" s="10" t="inlineStr">
         <is>
@@ -22981,7 +22055,7 @@
       </c>
       <c r="F243" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1899 </t>
+          <t>1899</t>
         </is>
       </c>
       <c r="G243" s="10" t="inlineStr"/>
@@ -22994,7 +22068,7 @@
       <c r="J243" s="10" t="inlineStr"/>
       <c r="K243" s="10" t="inlineStr">
         <is>
-          <t>27.11.1942</t>
+          <t>.11.1942</t>
         </is>
       </c>
       <c r="L243" s="12" t="inlineStr">
@@ -23006,11 +22080,7 @@
       <c r="N243" s="10" t="inlineStr"/>
       <c r="O243" s="10" t="inlineStr"/>
       <c r="P243" s="10" t="inlineStr"/>
-      <c r="Q243" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304087</t>
-        </is>
-      </c>
+      <c r="Q243" s="10" t="inlineStr"/>
       <c r="R243" s="10" t="inlineStr"/>
       <c r="S243" s="10" t="inlineStr">
         <is>
@@ -23072,7 +22142,7 @@
       </c>
       <c r="F244" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1902 </t>
+          <t>1902</t>
         </is>
       </c>
       <c r="G244" s="10" t="inlineStr"/>
@@ -23097,11 +22167,7 @@
       <c r="N244" s="10" t="inlineStr"/>
       <c r="O244" s="10" t="inlineStr"/>
       <c r="P244" s="10" t="inlineStr"/>
-      <c r="Q244" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57098777</t>
-        </is>
-      </c>
+      <c r="Q244" s="10" t="inlineStr"/>
       <c r="R244" s="10" t="inlineStr"/>
       <c r="S244" s="10" t="inlineStr">
         <is>
@@ -23137,7 +22203,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="245" s="6">
+    <row r="245" ht="27" customHeight="1" s="6">
       <c r="A245" s="7" t="n">
         <v>142281</v>
       </c>
@@ -23188,11 +22254,7 @@
       <c r="N245" s="10" t="inlineStr"/>
       <c r="O245" s="10" t="inlineStr"/>
       <c r="P245" s="10" t="inlineStr"/>
-      <c r="Q245" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4100477</t>
-        </is>
-      </c>
+      <c r="Q245" s="10" t="inlineStr"/>
       <c r="R245" s="10" t="inlineStr"/>
       <c r="S245" s="10" t="inlineStr">
         <is>
@@ -23275,11 +22337,7 @@
       <c r="N246" s="10" t="inlineStr"/>
       <c r="O246" s="10" t="inlineStr"/>
       <c r="P246" s="10" t="inlineStr"/>
-      <c r="Q246" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62457381</t>
-        </is>
-      </c>
+      <c r="Q246" s="10" t="inlineStr"/>
       <c r="R246" s="10" t="inlineStr"/>
       <c r="S246" s="10" t="inlineStr">
         <is>
@@ -23341,7 +22399,7 @@
       </c>
       <c r="F247" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G247" s="10" t="inlineStr"/>
@@ -23366,11 +22424,7 @@
       <c r="N247" s="10" t="inlineStr"/>
       <c r="O247" s="10" t="inlineStr"/>
       <c r="P247" s="10" t="inlineStr"/>
-      <c r="Q247" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=72096965</t>
-        </is>
-      </c>
+      <c r="Q247" s="10" t="inlineStr"/>
       <c r="R247" s="10" t="inlineStr"/>
       <c r="S247" s="10" t="inlineStr">
         <is>
@@ -23432,7 +22486,7 @@
       </c>
       <c r="F248" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1898 </t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G248" s="10" t="inlineStr"/>
@@ -23461,11 +22515,7 @@
       <c r="N248" s="10" t="inlineStr"/>
       <c r="O248" s="10" t="inlineStr"/>
       <c r="P248" s="10" t="inlineStr"/>
-      <c r="Q248" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304108</t>
-        </is>
-      </c>
+      <c r="Q248" s="10" t="inlineStr"/>
       <c r="R248" s="10" t="inlineStr"/>
       <c r="S248" s="10" t="inlineStr">
         <is>
@@ -23501,7 +22551,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="249" s="6">
+    <row r="249" ht="27" customHeight="1" s="6">
       <c r="A249" s="7" t="n">
         <v>142285</v>
       </c>
@@ -23552,11 +22602,7 @@
       <c r="N249" s="10" t="inlineStr"/>
       <c r="O249" s="10" t="inlineStr"/>
       <c r="P249" s="10" t="inlineStr"/>
-      <c r="Q249" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2294473</t>
-        </is>
-      </c>
+      <c r="Q249" s="10" t="inlineStr"/>
       <c r="R249" s="10" t="inlineStr"/>
       <c r="S249" s="10" t="inlineStr">
         <is>
@@ -23618,7 +22664,7 @@
       </c>
       <c r="F250" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G250" s="10" t="inlineStr"/>
@@ -23643,11 +22689,7 @@
       <c r="N250" s="10" t="inlineStr"/>
       <c r="O250" s="10" t="inlineStr"/>
       <c r="P250" s="10" t="inlineStr"/>
-      <c r="Q250" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54788873</t>
-        </is>
-      </c>
+      <c r="Q250" s="10" t="inlineStr"/>
       <c r="R250" s="10" t="inlineStr"/>
       <c r="S250" s="10" t="inlineStr">
         <is>
@@ -23734,11 +22776,7 @@
       <c r="N251" s="10" t="inlineStr"/>
       <c r="O251" s="10" t="inlineStr"/>
       <c r="P251" s="10" t="inlineStr"/>
-      <c r="Q251" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=3390390</t>
-        </is>
-      </c>
+      <c r="Q251" s="10" t="inlineStr"/>
       <c r="R251" s="10" t="inlineStr"/>
       <c r="S251" s="10" t="inlineStr">
         <is>
@@ -23904,11 +22942,7 @@
       <c r="N253" s="10" t="inlineStr"/>
       <c r="O253" s="10" t="inlineStr"/>
       <c r="P253" s="10" t="inlineStr"/>
-      <c r="Q253" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1904464</t>
-        </is>
-      </c>
+      <c r="Q253" s="10" t="inlineStr"/>
       <c r="R253" s="10" t="inlineStr"/>
       <c r="S253" s="10" t="inlineStr">
         <is>
@@ -23995,11 +23029,7 @@
       <c r="N254" s="10" t="inlineStr"/>
       <c r="O254" s="10" t="inlineStr"/>
       <c r="P254" s="10" t="inlineStr"/>
-      <c r="Q254" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2055120</t>
-        </is>
-      </c>
+      <c r="Q254" s="10" t="inlineStr"/>
       <c r="R254" s="10" t="inlineStr"/>
       <c r="S254" s="10" t="inlineStr">
         <is>
@@ -24035,7 +23065,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="255" s="6">
+    <row r="255" ht="27" customHeight="1" s="6">
       <c r="A255" s="7" t="n">
         <v>142291</v>
       </c>
@@ -24061,7 +23091,7 @@
       </c>
       <c r="F255" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1911 </t>
+          <t>1911</t>
         </is>
       </c>
       <c r="G255" s="10" t="inlineStr">
@@ -24094,11 +23124,7 @@
       <c r="N255" s="10" t="inlineStr"/>
       <c r="O255" s="10" t="inlineStr"/>
       <c r="P255" s="10" t="inlineStr"/>
-      <c r="Q255" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304101</t>
-        </is>
-      </c>
+      <c r="Q255" s="10" t="inlineStr"/>
       <c r="R255" s="10" t="inlineStr"/>
       <c r="S255" s="10" t="inlineStr">
         <is>
@@ -24160,7 +23186,7 @@
       </c>
       <c r="F256" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1905 </t>
+          <t>1905</t>
         </is>
       </c>
       <c r="G256" s="10" t="inlineStr"/>
@@ -24185,11 +23211,7 @@
       <c r="N256" s="10" t="inlineStr"/>
       <c r="O256" s="10" t="inlineStr"/>
       <c r="P256" s="10" t="inlineStr"/>
-      <c r="Q256" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57098775</t>
-        </is>
-      </c>
+      <c r="Q256" s="10" t="inlineStr"/>
       <c r="R256" s="10" t="inlineStr"/>
       <c r="S256" s="10" t="inlineStr">
         <is>
@@ -24272,11 +23294,7 @@
       <c r="N257" s="10" t="inlineStr"/>
       <c r="O257" s="10" t="inlineStr"/>
       <c r="P257" s="10" t="inlineStr"/>
-      <c r="Q257" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304099</t>
-        </is>
-      </c>
+      <c r="Q257" s="10" t="inlineStr"/>
       <c r="R257" s="10" t="inlineStr"/>
       <c r="S257" s="10" t="inlineStr">
         <is>
@@ -24312,7 +23330,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="258" s="6">
+    <row r="258" ht="27" customHeight="1" s="6">
       <c r="A258" s="7" t="n">
         <v>142294</v>
       </c>
@@ -24363,11 +23381,7 @@
       <c r="N258" s="10" t="inlineStr"/>
       <c r="O258" s="10" t="inlineStr"/>
       <c r="P258" s="10" t="inlineStr"/>
-      <c r="Q258" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304098</t>
-        </is>
-      </c>
+      <c r="Q258" s="10" t="inlineStr"/>
       <c r="R258" s="10" t="inlineStr"/>
       <c r="S258" s="10" t="inlineStr">
         <is>
@@ -24450,11 +23464,7 @@
       <c r="N259" s="10" t="inlineStr"/>
       <c r="O259" s="10" t="inlineStr"/>
       <c r="P259" s="10" t="inlineStr"/>
-      <c r="Q259" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304097</t>
-        </is>
-      </c>
+      <c r="Q259" s="10" t="inlineStr"/>
       <c r="R259" s="10" t="inlineStr"/>
       <c r="S259" s="10" t="inlineStr">
         <is>
@@ -24516,7 +23526,7 @@
       </c>
       <c r="F260" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1908 </t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G260" s="10" t="inlineStr"/>
@@ -24541,11 +23551,7 @@
       <c r="N260" s="10" t="inlineStr"/>
       <c r="O260" s="10" t="inlineStr"/>
       <c r="P260" s="10" t="inlineStr"/>
-      <c r="Q260" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65964972</t>
-        </is>
-      </c>
+      <c r="Q260" s="10" t="inlineStr"/>
       <c r="R260" s="10" t="inlineStr"/>
       <c r="S260" s="10" t="inlineStr">
         <is>
@@ -24581,7 +23587,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="261" s="6">
+    <row r="261" ht="27" customHeight="1" s="6">
       <c r="A261" s="7" t="n">
         <v>142297</v>
       </c>
@@ -24636,11 +23642,7 @@
       <c r="N261" s="10" t="inlineStr"/>
       <c r="O261" s="10" t="inlineStr"/>
       <c r="P261" s="10" t="inlineStr"/>
-      <c r="Q261" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1151836974</t>
-        </is>
-      </c>
+      <c r="Q261" s="10" t="inlineStr"/>
       <c r="R261" s="10" t="inlineStr"/>
       <c r="S261" s="10" t="inlineStr">
         <is>
@@ -24676,7 +23678,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="262" s="6">
+    <row r="262" ht="27" customHeight="1" s="6">
       <c r="A262" s="7" t="n">
         <v>142299</v>
       </c>
@@ -24702,7 +23704,7 @@
       </c>
       <c r="F262" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G262" s="10" t="inlineStr"/>
@@ -24735,11 +23737,7 @@
       <c r="N262" s="10" t="inlineStr"/>
       <c r="O262" s="10" t="inlineStr"/>
       <c r="P262" s="10" t="inlineStr"/>
-      <c r="Q262" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304093</t>
-        </is>
-      </c>
+      <c r="Q262" s="10" t="inlineStr"/>
       <c r="R262" s="10" t="inlineStr"/>
       <c r="S262" s="10" t="inlineStr">
         <is>
@@ -24830,11 +23828,7 @@
       <c r="N263" s="10" t="inlineStr"/>
       <c r="O263" s="10" t="inlineStr"/>
       <c r="P263" s="10" t="inlineStr"/>
-      <c r="Q263" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1080783</t>
-        </is>
-      </c>
+      <c r="Q263" s="10" t="inlineStr"/>
       <c r="R263" s="10" t="inlineStr"/>
       <c r="S263" s="10" t="inlineStr">
         <is>
@@ -24870,7 +23864,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="264" s="6">
+    <row r="264" ht="27" customHeight="1" s="6">
       <c r="A264" s="7" t="n">
         <v>142300</v>
       </c>
@@ -24896,7 +23890,7 @@
       </c>
       <c r="F264" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G264" s="10" t="inlineStr">
@@ -24929,11 +23923,7 @@
       <c r="N264" s="10" t="inlineStr"/>
       <c r="O264" s="10" t="inlineStr"/>
       <c r="P264" s="10" t="inlineStr"/>
-      <c r="Q264" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1342775</t>
-        </is>
-      </c>
+      <c r="Q264" s="10" t="inlineStr"/>
       <c r="R264" s="10" t="inlineStr"/>
       <c r="S264" s="10" t="inlineStr">
         <is>
@@ -25016,11 +24006,7 @@
       <c r="N265" s="10" t="inlineStr"/>
       <c r="O265" s="10" t="inlineStr"/>
       <c r="P265" s="10" t="inlineStr"/>
-      <c r="Q265" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65027780</t>
-        </is>
-      </c>
+      <c r="Q265" s="10" t="inlineStr"/>
       <c r="R265" s="10" t="inlineStr"/>
       <c r="S265" s="10" t="inlineStr">
         <is>
@@ -25103,11 +24089,7 @@
       <c r="N266" s="10" t="inlineStr"/>
       <c r="O266" s="10" t="inlineStr"/>
       <c r="P266" s="10" t="inlineStr"/>
-      <c r="Q266" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304090</t>
-        </is>
-      </c>
+      <c r="Q266" s="10" t="inlineStr"/>
       <c r="R266" s="10" t="inlineStr"/>
       <c r="S266" s="10" t="inlineStr">
         <is>
@@ -25143,7 +24125,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="267" s="6">
+    <row r="267" ht="27" customHeight="1" s="6">
       <c r="A267" s="7" t="n">
         <v>142303</v>
       </c>
@@ -25169,7 +24151,7 @@
       </c>
       <c r="F267" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1922 </t>
+          <t>1922</t>
         </is>
       </c>
       <c r="G267" s="10" t="inlineStr"/>
@@ -25202,11 +24184,7 @@
       <c r="N267" s="10" t="inlineStr"/>
       <c r="O267" s="10" t="inlineStr"/>
       <c r="P267" s="10" t="inlineStr"/>
-      <c r="Q267" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52625600</t>
-        </is>
-      </c>
+      <c r="Q267" s="10" t="inlineStr"/>
       <c r="R267" s="10" t="inlineStr"/>
       <c r="S267" s="10" t="inlineStr">
         <is>
@@ -25289,11 +24267,7 @@
       <c r="N268" s="10" t="inlineStr"/>
       <c r="O268" s="10" t="inlineStr"/>
       <c r="P268" s="10" t="inlineStr"/>
-      <c r="Q268" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54704275</t>
-        </is>
-      </c>
+      <c r="Q268" s="10" t="inlineStr"/>
       <c r="R268" s="10" t="inlineStr"/>
       <c r="S268" s="10" t="inlineStr">
         <is>
@@ -25329,7 +24303,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="269" s="6">
+    <row r="269" ht="27" customHeight="1" s="6">
       <c r="A269" s="7" t="n">
         <v>142305</v>
       </c>
@@ -25355,7 +24329,7 @@
       </c>
       <c r="F269" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1906 </t>
+          <t>1906</t>
         </is>
       </c>
       <c r="G269" s="10" t="inlineStr"/>
@@ -25388,11 +24362,7 @@
       <c r="N269" s="10" t="inlineStr"/>
       <c r="O269" s="10" t="inlineStr"/>
       <c r="P269" s="10" t="inlineStr"/>
-      <c r="Q269" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304124</t>
-        </is>
-      </c>
+      <c r="Q269" s="10" t="inlineStr"/>
       <c r="R269" s="10" t="inlineStr"/>
       <c r="S269" s="10" t="inlineStr">
         <is>
@@ -25454,7 +24424,7 @@
       </c>
       <c r="F270" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1922 </t>
+          <t>1922</t>
         </is>
       </c>
       <c r="G270" s="10" t="inlineStr"/>
@@ -25479,11 +24449,7 @@
       <c r="N270" s="10" t="inlineStr"/>
       <c r="O270" s="10" t="inlineStr"/>
       <c r="P270" s="10" t="inlineStr"/>
-      <c r="Q270" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58495818</t>
-        </is>
-      </c>
+      <c r="Q270" s="10" t="inlineStr"/>
       <c r="R270" s="10" t="inlineStr"/>
       <c r="S270" s="10" t="inlineStr">
         <is>
@@ -25566,11 +24532,7 @@
       <c r="N271" s="10" t="inlineStr"/>
       <c r="O271" s="10" t="inlineStr"/>
       <c r="P271" s="10" t="inlineStr"/>
-      <c r="Q271" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64929637</t>
-        </is>
-      </c>
+      <c r="Q271" s="10" t="inlineStr"/>
       <c r="R271" s="10" t="inlineStr"/>
       <c r="S271" s="10" t="inlineStr">
         <is>
@@ -25653,11 +24615,7 @@
       <c r="N272" s="10" t="inlineStr"/>
       <c r="O272" s="10" t="inlineStr"/>
       <c r="P272" s="10" t="inlineStr"/>
-      <c r="Q272" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65027786</t>
-        </is>
-      </c>
+      <c r="Q272" s="10" t="inlineStr"/>
       <c r="R272" s="10" t="inlineStr"/>
       <c r="S272" s="10" t="inlineStr">
         <is>
@@ -25719,7 +24677,7 @@
       </c>
       <c r="F273" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G273" s="10" t="inlineStr"/>
@@ -25740,11 +24698,7 @@
       <c r="N273" s="10" t="inlineStr"/>
       <c r="O273" s="10" t="inlineStr"/>
       <c r="P273" s="10" t="inlineStr"/>
-      <c r="Q273" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304120</t>
-        </is>
-      </c>
+      <c r="Q273" s="10" t="inlineStr"/>
       <c r="R273" s="10" t="inlineStr"/>
       <c r="S273" s="10" t="inlineStr">
         <is>
@@ -25827,11 +24781,7 @@
       <c r="N274" s="10" t="inlineStr"/>
       <c r="O274" s="10" t="inlineStr"/>
       <c r="P274" s="10" t="inlineStr"/>
-      <c r="Q274" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64006716</t>
-        </is>
-      </c>
+      <c r="Q274" s="10" t="inlineStr"/>
       <c r="R274" s="10" t="inlineStr"/>
       <c r="S274" s="10" t="inlineStr">
         <is>
@@ -25893,7 +24843,7 @@
       </c>
       <c r="F275" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1907 </t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G275" s="10" t="inlineStr"/>
@@ -25918,11 +24868,7 @@
       <c r="N275" s="10" t="inlineStr"/>
       <c r="O275" s="10" t="inlineStr"/>
       <c r="P275" s="10" t="inlineStr"/>
-      <c r="Q275" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304118</t>
-        </is>
-      </c>
+      <c r="Q275" s="10" t="inlineStr"/>
       <c r="R275" s="10" t="inlineStr"/>
       <c r="S275" s="10" t="inlineStr">
         <is>
@@ -25984,7 +24930,7 @@
       </c>
       <c r="F276" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1907 </t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G276" s="10" t="inlineStr"/>
@@ -26009,11 +24955,7 @@
       <c r="N276" s="10" t="inlineStr"/>
       <c r="O276" s="10" t="inlineStr"/>
       <c r="P276" s="10" t="inlineStr"/>
-      <c r="Q276" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57099399</t>
-        </is>
-      </c>
+      <c r="Q276" s="10" t="inlineStr"/>
       <c r="R276" s="10" t="inlineStr"/>
       <c r="S276" s="10" t="inlineStr">
         <is>
@@ -26075,7 +25017,7 @@
       </c>
       <c r="F277" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G277" s="10" t="inlineStr"/>
@@ -26100,11 +25042,7 @@
       <c r="N277" s="10" t="inlineStr"/>
       <c r="O277" s="10" t="inlineStr"/>
       <c r="P277" s="10" t="inlineStr"/>
-      <c r="Q277" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=59959396</t>
-        </is>
-      </c>
+      <c r="Q277" s="10" t="inlineStr"/>
       <c r="R277" s="10" t="inlineStr"/>
       <c r="S277" s="10" t="inlineStr">
         <is>
@@ -26166,7 +25104,7 @@
       </c>
       <c r="F278" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1911 </t>
+          <t>1911</t>
         </is>
       </c>
       <c r="G278" s="10" t="inlineStr"/>
@@ -26191,11 +25129,7 @@
       <c r="N278" s="10" t="inlineStr"/>
       <c r="O278" s="10" t="inlineStr"/>
       <c r="P278" s="10" t="inlineStr"/>
-      <c r="Q278" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57099281</t>
-        </is>
-      </c>
+      <c r="Q278" s="10" t="inlineStr"/>
       <c r="R278" s="10" t="inlineStr"/>
       <c r="S278" s="10" t="inlineStr">
         <is>
@@ -26257,7 +25191,7 @@
       </c>
       <c r="F279" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1901 </t>
+          <t>1901</t>
         </is>
       </c>
       <c r="G279" s="10" t="inlineStr">
@@ -26286,11 +25220,7 @@
       <c r="N279" s="10" t="inlineStr"/>
       <c r="O279" s="10" t="inlineStr"/>
       <c r="P279" s="10" t="inlineStr"/>
-      <c r="Q279" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304114</t>
-        </is>
-      </c>
+      <c r="Q279" s="10" t="inlineStr"/>
       <c r="R279" s="10" t="inlineStr"/>
       <c r="S279" s="10" t="inlineStr">
         <is>
@@ -26326,7 +25256,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="280" s="6">
+    <row r="280" ht="27" customHeight="1" s="6">
       <c r="A280" s="7" t="n">
         <v>142316</v>
       </c>
@@ -26352,7 +25282,7 @@
       </c>
       <c r="F280" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1917 </t>
+          <t>1917</t>
         </is>
       </c>
       <c r="G280" s="10" t="inlineStr"/>
@@ -26385,11 +25315,7 @@
       <c r="N280" s="10" t="inlineStr"/>
       <c r="O280" s="10" t="inlineStr"/>
       <c r="P280" s="10" t="inlineStr"/>
-      <c r="Q280" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304113</t>
-        </is>
-      </c>
+      <c r="Q280" s="10" t="inlineStr"/>
       <c r="R280" s="10" t="inlineStr"/>
       <c r="S280" s="10" t="inlineStr">
         <is>
@@ -26472,11 +25398,7 @@
       <c r="N281" s="10" t="inlineStr"/>
       <c r="O281" s="10" t="inlineStr"/>
       <c r="P281" s="10" t="inlineStr"/>
-      <c r="Q281" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60671519</t>
-        </is>
-      </c>
+      <c r="Q281" s="10" t="inlineStr"/>
       <c r="R281" s="10" t="inlineStr"/>
       <c r="S281" s="10" t="inlineStr">
         <is>
@@ -26559,11 +25481,7 @@
       <c r="N282" s="10" t="inlineStr"/>
       <c r="O282" s="10" t="inlineStr"/>
       <c r="P282" s="10" t="inlineStr"/>
-      <c r="Q282" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=9490443</t>
-        </is>
-      </c>
+      <c r="Q282" s="10" t="inlineStr"/>
       <c r="R282" s="10" t="inlineStr"/>
       <c r="S282" s="10" t="inlineStr">
         <is>
@@ -26646,11 +25564,7 @@
       <c r="N283" s="10" t="inlineStr"/>
       <c r="O283" s="10" t="inlineStr"/>
       <c r="P283" s="10" t="inlineStr"/>
-      <c r="Q283" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1072124</t>
-        </is>
-      </c>
+      <c r="Q283" s="10" t="inlineStr"/>
       <c r="R283" s="10" t="inlineStr"/>
       <c r="S283" s="10" t="inlineStr">
         <is>
@@ -26686,7 +25600,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="284" s="6">
+    <row r="284" ht="27" customHeight="1" s="6">
       <c r="A284" s="7" t="n">
         <v>142320</v>
       </c>
@@ -26712,12 +25626,12 @@
       </c>
       <c r="F284" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1926 </t>
+          <t>1926</t>
         </is>
       </c>
       <c r="G284" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн</t>
+          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн,  д. Казачья Слодоба</t>
         </is>
       </c>
       <c r="H284" s="10" t="inlineStr">
@@ -26749,11 +25663,7 @@
       <c r="N284" s="10" t="inlineStr"/>
       <c r="O284" s="10" t="inlineStr"/>
       <c r="P284" s="10" t="inlineStr"/>
-      <c r="Q284" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=3909507</t>
-        </is>
-      </c>
+      <c r="Q284" s="10" t="inlineStr"/>
       <c r="R284" s="10" t="inlineStr"/>
       <c r="S284" s="10" t="inlineStr">
         <is>
@@ -26789,7 +25699,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="285" s="6">
+    <row r="285" s="6">
       <c r="A285" s="7" t="n">
         <v>142321</v>
       </c>
@@ -26844,11 +25754,7 @@
       <c r="N285" s="10" t="inlineStr"/>
       <c r="O285" s="10" t="inlineStr"/>
       <c r="P285" s="10" t="inlineStr"/>
-      <c r="Q285" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1155933849</t>
-        </is>
-      </c>
+      <c r="Q285" s="10" t="inlineStr"/>
       <c r="R285" s="10" t="inlineStr"/>
       <c r="S285" s="10" t="inlineStr">
         <is>
@@ -26910,7 +25816,7 @@
       </c>
       <c r="F286" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1924 </t>
+          <t>1924</t>
         </is>
       </c>
       <c r="G286" s="10" t="inlineStr"/>
@@ -26935,11 +25841,7 @@
       <c r="N286" s="10" t="inlineStr"/>
       <c r="O286" s="10" t="inlineStr"/>
       <c r="P286" s="10" t="inlineStr"/>
-      <c r="Q286" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57098776</t>
-        </is>
-      </c>
+      <c r="Q286" s="10" t="inlineStr"/>
       <c r="R286" s="10" t="inlineStr"/>
       <c r="S286" s="10" t="inlineStr">
         <is>
@@ -26975,7 +25877,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="287" s="6">
+    <row r="287" ht="27" customHeight="1" s="6">
       <c r="A287" s="7" t="n">
         <v>142323</v>
       </c>
@@ -27001,7 +25903,7 @@
       </c>
       <c r="F287" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G287" s="10" t="inlineStr">
@@ -27038,11 +25940,7 @@
       <c r="N287" s="10" t="inlineStr"/>
       <c r="O287" s="10" t="inlineStr"/>
       <c r="P287" s="10" t="inlineStr"/>
-      <c r="Q287" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=53233672</t>
-        </is>
-      </c>
+      <c r="Q287" s="10" t="inlineStr"/>
       <c r="R287" s="10" t="inlineStr"/>
       <c r="S287" s="10" t="inlineStr">
         <is>
@@ -27125,11 +26023,7 @@
       <c r="N288" s="10" t="inlineStr"/>
       <c r="O288" s="10" t="inlineStr"/>
       <c r="P288" s="10" t="inlineStr"/>
-      <c r="Q288" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304133</t>
-        </is>
-      </c>
+      <c r="Q288" s="10" t="inlineStr"/>
       <c r="R288" s="10" t="inlineStr"/>
       <c r="S288" s="10" t="inlineStr">
         <is>
@@ -27191,7 +26085,7 @@
       </c>
       <c r="F289" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G289" s="10" t="inlineStr"/>
@@ -27216,11 +26110,7 @@
       <c r="N289" s="10" t="inlineStr"/>
       <c r="O289" s="10" t="inlineStr"/>
       <c r="P289" s="10" t="inlineStr"/>
-      <c r="Q289" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65964980</t>
-        </is>
-      </c>
+      <c r="Q289" s="10" t="inlineStr"/>
       <c r="R289" s="10" t="inlineStr"/>
       <c r="S289" s="10" t="inlineStr">
         <is>
@@ -27282,7 +26172,7 @@
       </c>
       <c r="F290" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1905 </t>
+          <t>1905</t>
         </is>
       </c>
       <c r="G290" s="10" t="inlineStr"/>
@@ -27307,11 +26197,7 @@
       <c r="N290" s="10" t="inlineStr"/>
       <c r="O290" s="10" t="inlineStr"/>
       <c r="P290" s="10" t="inlineStr"/>
-      <c r="Q290" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65964978</t>
-        </is>
-      </c>
+      <c r="Q290" s="10" t="inlineStr"/>
       <c r="R290" s="10" t="inlineStr"/>
       <c r="S290" s="10" t="inlineStr">
         <is>
@@ -27394,11 +26280,7 @@
       <c r="N291" s="10" t="inlineStr"/>
       <c r="O291" s="10" t="inlineStr"/>
       <c r="P291" s="10" t="inlineStr"/>
-      <c r="Q291" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304136</t>
-        </is>
-      </c>
+      <c r="Q291" s="10" t="inlineStr"/>
       <c r="R291" s="10" t="inlineStr"/>
       <c r="S291" s="10" t="inlineStr">
         <is>
@@ -27434,7 +26316,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="292" s="6">
+    <row r="292" ht="27" customHeight="1" s="6">
       <c r="A292" s="7" t="n">
         <v>142328</v>
       </c>
@@ -27460,7 +26342,7 @@
       </c>
       <c r="F292" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G292" s="10" t="inlineStr">
@@ -27497,11 +26379,7 @@
       <c r="N292" s="10" t="inlineStr"/>
       <c r="O292" s="10" t="inlineStr"/>
       <c r="P292" s="10" t="inlineStr"/>
-      <c r="Q292" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=51865905</t>
-        </is>
-      </c>
+      <c r="Q292" s="10" t="inlineStr"/>
       <c r="R292" s="10" t="inlineStr"/>
       <c r="S292" s="10" t="inlineStr">
         <is>
@@ -27563,7 +26441,7 @@
       </c>
       <c r="F293" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G293" s="10" t="inlineStr"/>
@@ -27588,11 +26466,7 @@
       <c r="N293" s="10" t="inlineStr"/>
       <c r="O293" s="10" t="inlineStr"/>
       <c r="P293" s="10" t="inlineStr"/>
-      <c r="Q293" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965182</t>
-        </is>
-      </c>
+      <c r="Q293" s="10" t="inlineStr"/>
       <c r="R293" s="10" t="inlineStr"/>
       <c r="S293" s="10" t="inlineStr">
         <is>
@@ -27628,7 +26502,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="294" s="6">
+    <row r="294" ht="27" customHeight="1" s="6">
       <c r="A294" s="7" t="n">
         <v>142330</v>
       </c>
@@ -27679,11 +26553,7 @@
       <c r="N294" s="10" t="inlineStr"/>
       <c r="O294" s="10" t="inlineStr"/>
       <c r="P294" s="10" t="inlineStr"/>
-      <c r="Q294" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=55343275</t>
-        </is>
-      </c>
+      <c r="Q294" s="10" t="inlineStr"/>
       <c r="R294" s="10" t="inlineStr"/>
       <c r="S294" s="10" t="inlineStr">
         <is>
@@ -27719,7 +26589,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="295" s="6">
+    <row r="295" ht="27" customHeight="1" s="6">
       <c r="A295" s="7" t="n">
         <v>142331</v>
       </c>
@@ -27745,7 +26615,7 @@
       </c>
       <c r="F295" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1898 </t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G295" s="10" t="inlineStr"/>
@@ -27778,11 +26648,7 @@
       <c r="N295" s="10" t="inlineStr"/>
       <c r="O295" s="10" t="inlineStr"/>
       <c r="P295" s="10" t="inlineStr"/>
-      <c r="Q295" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50411689</t>
-        </is>
-      </c>
+      <c r="Q295" s="10" t="inlineStr"/>
       <c r="R295" s="10" t="inlineStr"/>
       <c r="S295" s="10" t="inlineStr">
         <is>
@@ -27844,7 +26710,7 @@
       </c>
       <c r="F296" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1922 </t>
+          <t>1922</t>
         </is>
       </c>
       <c r="G296" s="10" t="inlineStr"/>
@@ -27869,11 +26735,7 @@
       <c r="N296" s="10" t="inlineStr"/>
       <c r="O296" s="10" t="inlineStr"/>
       <c r="P296" s="10" t="inlineStr"/>
-      <c r="Q296" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304141</t>
-        </is>
-      </c>
+      <c r="Q296" s="10" t="inlineStr"/>
       <c r="R296" s="10" t="inlineStr"/>
       <c r="S296" s="10" t="inlineStr">
         <is>
@@ -27935,7 +26797,7 @@
       </c>
       <c r="F297" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G297" s="10" t="inlineStr"/>
@@ -27960,11 +26822,7 @@
       <c r="N297" s="10" t="inlineStr"/>
       <c r="O297" s="10" t="inlineStr"/>
       <c r="P297" s="10" t="inlineStr"/>
-      <c r="Q297" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965183</t>
-        </is>
-      </c>
+      <c r="Q297" s="10" t="inlineStr"/>
       <c r="R297" s="10" t="inlineStr"/>
       <c r="S297" s="10" t="inlineStr">
         <is>
@@ -28026,7 +26884,7 @@
       </c>
       <c r="F298" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G298" s="10" t="inlineStr"/>
@@ -28051,11 +26909,7 @@
       <c r="N298" s="10" t="inlineStr"/>
       <c r="O298" s="10" t="inlineStr"/>
       <c r="P298" s="10" t="inlineStr"/>
-      <c r="Q298" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65964988</t>
-        </is>
-      </c>
+      <c r="Q298" s="10" t="inlineStr"/>
       <c r="R298" s="10" t="inlineStr"/>
       <c r="S298" s="10" t="inlineStr">
         <is>
@@ -28117,7 +26971,7 @@
       </c>
       <c r="F299" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G299" s="10" t="inlineStr"/>
@@ -28142,11 +26996,7 @@
       <c r="N299" s="10" t="inlineStr"/>
       <c r="O299" s="10" t="inlineStr"/>
       <c r="P299" s="10" t="inlineStr"/>
-      <c r="Q299" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65964979</t>
-        </is>
-      </c>
+      <c r="Q299" s="10" t="inlineStr"/>
       <c r="R299" s="10" t="inlineStr"/>
       <c r="S299" s="10" t="inlineStr">
         <is>
@@ -28182,7 +27032,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="300" s="6">
+    <row r="300" ht="27" customHeight="1" s="6">
       <c r="A300" s="7" t="n">
         <v>142336</v>
       </c>
@@ -28208,7 +27058,7 @@
       </c>
       <c r="F300" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G300" s="10" t="inlineStr">
@@ -28241,11 +27091,7 @@
       <c r="N300" s="10" t="inlineStr"/>
       <c r="O300" s="10" t="inlineStr"/>
       <c r="P300" s="10" t="inlineStr"/>
-      <c r="Q300" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304145</t>
-        </is>
-      </c>
+      <c r="Q300" s="10" t="inlineStr"/>
       <c r="R300" s="10" t="inlineStr"/>
       <c r="S300" s="10" t="inlineStr">
         <is>
@@ -28328,11 +27174,7 @@
       <c r="N301" s="10" t="inlineStr"/>
       <c r="O301" s="10" t="inlineStr"/>
       <c r="P301" s="10" t="inlineStr"/>
-      <c r="Q301" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304146</t>
-        </is>
-      </c>
+      <c r="Q301" s="10" t="inlineStr"/>
       <c r="R301" s="10" t="inlineStr"/>
       <c r="S301" s="10" t="inlineStr">
         <is>
@@ -28415,11 +27257,7 @@
       <c r="N302" s="10" t="inlineStr"/>
       <c r="O302" s="10" t="inlineStr"/>
       <c r="P302" s="10" t="inlineStr"/>
-      <c r="Q302" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64807309</t>
-        </is>
-      </c>
+      <c r="Q302" s="10" t="inlineStr"/>
       <c r="R302" s="10" t="inlineStr"/>
       <c r="S302" s="10" t="inlineStr">
         <is>
@@ -28506,11 +27344,7 @@
       <c r="N303" s="10" t="inlineStr"/>
       <c r="O303" s="10" t="inlineStr"/>
       <c r="P303" s="10" t="inlineStr"/>
-      <c r="Q303" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1152053397</t>
-        </is>
-      </c>
+      <c r="Q303" s="10" t="inlineStr"/>
       <c r="R303" s="10" t="inlineStr"/>
       <c r="S303" s="10" t="inlineStr">
         <is>
@@ -28546,7 +27380,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="304" s="6">
+    <row r="304" ht="27" customHeight="1" s="6">
       <c r="A304" s="7" t="n">
         <v>142340</v>
       </c>
@@ -28572,7 +27406,7 @@
       </c>
       <c r="F304" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1915 </t>
+          <t>1915</t>
         </is>
       </c>
       <c r="G304" s="10" t="inlineStr">
@@ -28609,11 +27443,7 @@
       <c r="N304" s="10" t="inlineStr"/>
       <c r="O304" s="10" t="inlineStr"/>
       <c r="P304" s="10" t="inlineStr"/>
-      <c r="Q304" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54207746</t>
-        </is>
-      </c>
+      <c r="Q304" s="10" t="inlineStr"/>
       <c r="R304" s="10" t="inlineStr"/>
       <c r="S304" s="10" t="inlineStr">
         <is>
@@ -28696,11 +27526,7 @@
       <c r="N305" s="10" t="inlineStr"/>
       <c r="O305" s="10" t="inlineStr"/>
       <c r="P305" s="10" t="inlineStr"/>
-      <c r="Q305" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304150</t>
-        </is>
-      </c>
+      <c r="Q305" s="10" t="inlineStr"/>
       <c r="R305" s="10" t="inlineStr"/>
       <c r="S305" s="10" t="inlineStr">
         <is>
@@ -28762,7 +27588,7 @@
       </c>
       <c r="F306" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1896 </t>
+          <t>1896</t>
         </is>
       </c>
       <c r="G306" s="10" t="inlineStr"/>
@@ -28787,11 +27613,7 @@
       <c r="N306" s="10" t="inlineStr"/>
       <c r="O306" s="10" t="inlineStr"/>
       <c r="P306" s="10" t="inlineStr"/>
-      <c r="Q306" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50426492</t>
-        </is>
-      </c>
+      <c r="Q306" s="10" t="inlineStr"/>
       <c r="R306" s="10" t="inlineStr"/>
       <c r="S306" s="10" t="inlineStr">
         <is>
@@ -28827,7 +27649,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="307" s="6">
+    <row r="307" ht="27" customHeight="1" s="6">
       <c r="A307" s="7" t="n">
         <v>142343</v>
       </c>
@@ -28853,7 +27675,7 @@
       </c>
       <c r="F307" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1924 </t>
+          <t>1924</t>
         </is>
       </c>
       <c r="G307" s="10" t="inlineStr">
@@ -28886,11 +27708,7 @@
       <c r="N307" s="10" t="inlineStr"/>
       <c r="O307" s="10" t="inlineStr"/>
       <c r="P307" s="10" t="inlineStr"/>
-      <c r="Q307" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4913359</t>
-        </is>
-      </c>
+      <c r="Q307" s="10" t="inlineStr"/>
       <c r="R307" s="10" t="inlineStr"/>
       <c r="S307" s="10" t="inlineStr">
         <is>
@@ -28973,11 +27791,7 @@
       <c r="N308" s="10" t="inlineStr"/>
       <c r="O308" s="10" t="inlineStr"/>
       <c r="P308" s="10" t="inlineStr"/>
-      <c r="Q308" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60887734</t>
-        </is>
-      </c>
+      <c r="Q308" s="10" t="inlineStr"/>
       <c r="R308" s="10" t="inlineStr"/>
       <c r="S308" s="10" t="inlineStr">
         <is>
@@ -29060,11 +27874,7 @@
       <c r="N309" s="10" t="inlineStr"/>
       <c r="O309" s="10" t="inlineStr"/>
       <c r="P309" s="10" t="inlineStr"/>
-      <c r="Q309" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60887735</t>
-        </is>
-      </c>
+      <c r="Q309" s="10" t="inlineStr"/>
       <c r="R309" s="10" t="inlineStr"/>
       <c r="S309" s="10" t="inlineStr">
         <is>
@@ -29147,11 +27957,7 @@
       <c r="N310" s="10" t="inlineStr"/>
       <c r="O310" s="10" t="inlineStr"/>
       <c r="P310" s="10" t="inlineStr"/>
-      <c r="Q310" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65273337</t>
-        </is>
-      </c>
+      <c r="Q310" s="10" t="inlineStr"/>
       <c r="R310" s="10" t="inlineStr"/>
       <c r="S310" s="10" t="inlineStr">
         <is>
@@ -29213,7 +28019,7 @@
       </c>
       <c r="F311" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1903 </t>
+          <t>1903</t>
         </is>
       </c>
       <c r="G311" s="10" t="inlineStr"/>
@@ -29238,11 +28044,7 @@
       <c r="N311" s="10" t="inlineStr"/>
       <c r="O311" s="10" t="inlineStr"/>
       <c r="P311" s="10" t="inlineStr"/>
-      <c r="Q311" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304156</t>
-        </is>
-      </c>
+      <c r="Q311" s="10" t="inlineStr"/>
       <c r="R311" s="10" t="inlineStr"/>
       <c r="S311" s="10" t="inlineStr">
         <is>
@@ -29278,7 +28080,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="312" s="6">
+    <row r="312" ht="27" customHeight="1" s="6">
       <c r="A312" s="7" t="n">
         <v>142348</v>
       </c>
@@ -29304,7 +28106,7 @@
       </c>
       <c r="F312" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G312" s="10" t="inlineStr"/>
@@ -29337,11 +28139,7 @@
       <c r="N312" s="10" t="inlineStr"/>
       <c r="O312" s="10" t="inlineStr"/>
       <c r="P312" s="10" t="inlineStr"/>
-      <c r="Q312" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1152862412</t>
-        </is>
-      </c>
+      <c r="Q312" s="10" t="inlineStr"/>
       <c r="R312" s="10" t="inlineStr"/>
       <c r="S312" s="10" t="inlineStr">
         <is>
@@ -29403,7 +28201,7 @@
       </c>
       <c r="F313" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1920 </t>
+          <t>1920</t>
         </is>
       </c>
       <c r="G313" s="10" t="inlineStr"/>
@@ -29428,11 +28226,7 @@
       <c r="N313" s="10" t="inlineStr"/>
       <c r="O313" s="10" t="inlineStr"/>
       <c r="P313" s="10" t="inlineStr"/>
-      <c r="Q313" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1100211816</t>
-        </is>
-      </c>
+      <c r="Q313" s="10" t="inlineStr"/>
       <c r="R313" s="10" t="inlineStr"/>
       <c r="S313" s="10" t="inlineStr">
         <is>
@@ -29515,11 +28309,7 @@
       <c r="N314" s="10" t="inlineStr"/>
       <c r="O314" s="10" t="inlineStr"/>
       <c r="P314" s="10" t="inlineStr"/>
-      <c r="Q314" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304160</t>
-        </is>
-      </c>
+      <c r="Q314" s="10" t="inlineStr"/>
       <c r="R314" s="10" t="inlineStr"/>
       <c r="S314" s="10" t="inlineStr">
         <is>
@@ -29602,11 +28392,7 @@
       <c r="N315" s="10" t="inlineStr"/>
       <c r="O315" s="10" t="inlineStr"/>
       <c r="P315" s="10" t="inlineStr"/>
-      <c r="Q315" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304184</t>
-        </is>
-      </c>
+      <c r="Q315" s="10" t="inlineStr"/>
       <c r="R315" s="10" t="inlineStr"/>
       <c r="S315" s="10" t="inlineStr">
         <is>
@@ -29689,11 +28475,7 @@
       <c r="N316" s="10" t="inlineStr"/>
       <c r="O316" s="10" t="inlineStr"/>
       <c r="P316" s="10" t="inlineStr"/>
-      <c r="Q316" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=6934572</t>
-        </is>
-      </c>
+      <c r="Q316" s="10" t="inlineStr"/>
       <c r="R316" s="10" t="inlineStr"/>
       <c r="S316" s="10" t="inlineStr">
         <is>
@@ -29780,11 +28562,7 @@
       <c r="N317" s="10" t="inlineStr"/>
       <c r="O317" s="10" t="inlineStr"/>
       <c r="P317" s="10" t="inlineStr"/>
-      <c r="Q317" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2705139</t>
-        </is>
-      </c>
+      <c r="Q317" s="10" t="inlineStr"/>
       <c r="R317" s="10" t="inlineStr"/>
       <c r="S317" s="10" t="inlineStr">
         <is>
@@ -29846,7 +28624,7 @@
       </c>
       <c r="F318" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G318" s="10" t="inlineStr"/>
@@ -29875,11 +28653,7 @@
       <c r="N318" s="10" t="inlineStr"/>
       <c r="O318" s="10" t="inlineStr"/>
       <c r="P318" s="10" t="inlineStr"/>
-      <c r="Q318" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=51611684</t>
-        </is>
-      </c>
+      <c r="Q318" s="10" t="inlineStr"/>
       <c r="R318" s="10" t="inlineStr"/>
       <c r="S318" s="10" t="inlineStr">
         <is>
@@ -29941,7 +28715,7 @@
       </c>
       <c r="F319" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1904 </t>
+          <t>1904</t>
         </is>
       </c>
       <c r="G319" s="10" t="inlineStr"/>
@@ -29970,11 +28744,7 @@
       <c r="N319" s="10" t="inlineStr"/>
       <c r="O319" s="10" t="inlineStr"/>
       <c r="P319" s="10" t="inlineStr"/>
-      <c r="Q319" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=266568318</t>
-        </is>
-      </c>
+      <c r="Q319" s="10" t="inlineStr"/>
       <c r="R319" s="10" t="inlineStr"/>
       <c r="S319" s="10" t="inlineStr">
         <is>
@@ -30036,7 +28806,7 @@
       </c>
       <c r="F320" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1916 </t>
+          <t>1916</t>
         </is>
       </c>
       <c r="G320" s="10" t="inlineStr"/>
@@ -30053,11 +28823,7 @@
       <c r="N320" s="10" t="inlineStr"/>
       <c r="O320" s="10" t="inlineStr"/>
       <c r="P320" s="10" t="inlineStr"/>
-      <c r="Q320" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304178</t>
-        </is>
-      </c>
+      <c r="Q320" s="10" t="inlineStr"/>
       <c r="R320" s="10" t="inlineStr"/>
       <c r="S320" s="10" t="inlineStr">
         <is>
@@ -30119,7 +28885,7 @@
       </c>
       <c r="F321" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1925 </t>
+          <t>1925</t>
         </is>
       </c>
       <c r="G321" s="10" t="inlineStr"/>
@@ -30144,11 +28910,7 @@
       <c r="N321" s="10" t="inlineStr"/>
       <c r="O321" s="10" t="inlineStr"/>
       <c r="P321" s="10" t="inlineStr"/>
-      <c r="Q321" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304177</t>
-        </is>
-      </c>
+      <c r="Q321" s="10" t="inlineStr"/>
       <c r="R321" s="10" t="inlineStr"/>
       <c r="S321" s="10" t="inlineStr">
         <is>
@@ -30235,11 +28997,7 @@
       <c r="N322" s="10" t="inlineStr"/>
       <c r="O322" s="10" t="inlineStr"/>
       <c r="P322" s="10" t="inlineStr"/>
-      <c r="Q322" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1910757464</t>
-        </is>
-      </c>
+      <c r="Q322" s="10" t="inlineStr"/>
       <c r="R322" s="10" t="inlineStr"/>
       <c r="S322" s="10" t="inlineStr">
         <is>
@@ -30301,7 +29059,7 @@
       </c>
       <c r="F323" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G323" s="10" t="inlineStr"/>
@@ -30326,11 +29084,7 @@
       <c r="N323" s="10" t="inlineStr"/>
       <c r="O323" s="10" t="inlineStr"/>
       <c r="P323" s="10" t="inlineStr"/>
-      <c r="Q323" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1588904</t>
-        </is>
-      </c>
+      <c r="Q323" s="10" t="inlineStr"/>
       <c r="R323" s="10" t="inlineStr"/>
       <c r="S323" s="10" t="inlineStr">
         <is>
@@ -30417,11 +29171,7 @@
       <c r="N324" s="10" t="inlineStr"/>
       <c r="O324" s="10" t="inlineStr"/>
       <c r="P324" s="10" t="inlineStr"/>
-      <c r="Q324" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2132655</t>
-        </is>
-      </c>
+      <c r="Q324" s="10" t="inlineStr"/>
       <c r="R324" s="10" t="inlineStr"/>
       <c r="S324" s="10" t="inlineStr">
         <is>
@@ -30483,7 +29233,7 @@
       </c>
       <c r="F325" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1922 </t>
+          <t>1922</t>
         </is>
       </c>
       <c r="G325" s="10" t="inlineStr"/>
@@ -30508,11 +29258,7 @@
       <c r="N325" s="10" t="inlineStr"/>
       <c r="O325" s="10" t="inlineStr"/>
       <c r="P325" s="10" t="inlineStr"/>
-      <c r="Q325" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170772</t>
-        </is>
-      </c>
+      <c r="Q325" s="10" t="inlineStr"/>
       <c r="R325" s="10" t="inlineStr"/>
       <c r="S325" s="10" t="inlineStr">
         <is>
@@ -30595,11 +29341,7 @@
       <c r="N326" s="10" t="inlineStr"/>
       <c r="O326" s="10" t="inlineStr"/>
       <c r="P326" s="10" t="inlineStr"/>
-      <c r="Q326" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64086719</t>
-        </is>
-      </c>
+      <c r="Q326" s="10" t="inlineStr"/>
       <c r="R326" s="10" t="inlineStr"/>
       <c r="S326" s="10" t="inlineStr">
         <is>
@@ -30635,7 +29377,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="327" s="6">
+    <row r="327" ht="27" customHeight="1" s="6">
       <c r="A327" s="7" t="n">
         <v>142364</v>
       </c>
@@ -30690,11 +29432,7 @@
       <c r="N327" s="10" t="inlineStr"/>
       <c r="O327" s="10" t="inlineStr"/>
       <c r="P327" s="10" t="inlineStr"/>
-      <c r="Q327" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52536695</t>
-        </is>
-      </c>
+      <c r="Q327" s="10" t="inlineStr"/>
       <c r="R327" s="10" t="inlineStr"/>
       <c r="S327" s="10" t="inlineStr">
         <is>
@@ -30756,7 +29494,7 @@
       </c>
       <c r="F328" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1925 </t>
+          <t>1925</t>
         </is>
       </c>
       <c r="G328" s="10" t="inlineStr"/>
@@ -30781,11 +29519,7 @@
       <c r="N328" s="10" t="inlineStr"/>
       <c r="O328" s="10" t="inlineStr"/>
       <c r="P328" s="10" t="inlineStr"/>
-      <c r="Q328" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170789</t>
-        </is>
-      </c>
+      <c r="Q328" s="10" t="inlineStr"/>
       <c r="R328" s="10" t="inlineStr"/>
       <c r="S328" s="10" t="inlineStr">
         <is>
@@ -30872,11 +29606,7 @@
       <c r="N329" s="10" t="inlineStr"/>
       <c r="O329" s="10" t="inlineStr"/>
       <c r="P329" s="10" t="inlineStr"/>
-      <c r="Q329" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2868844</t>
-        </is>
-      </c>
+      <c r="Q329" s="10" t="inlineStr"/>
       <c r="R329" s="10" t="inlineStr"/>
       <c r="S329" s="10" t="inlineStr">
         <is>
@@ -30912,7 +29642,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="330" s="6">
+    <row r="330" ht="27" customHeight="1" s="6">
       <c r="A330" s="7" t="n">
         <v>142367</v>
       </c>
@@ -30938,12 +29668,12 @@
       </c>
       <c r="F330" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1908 </t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G330" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн</t>
+          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн,  д. Марфино</t>
         </is>
       </c>
       <c r="H330" s="10" t="inlineStr">
@@ -30975,11 +29705,7 @@
       <c r="N330" s="10" t="inlineStr"/>
       <c r="O330" s="10" t="inlineStr"/>
       <c r="P330" s="10" t="inlineStr"/>
-      <c r="Q330" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4778285</t>
-        </is>
-      </c>
+      <c r="Q330" s="10" t="inlineStr"/>
       <c r="R330" s="10" t="inlineStr"/>
       <c r="S330" s="10" t="inlineStr">
         <is>
@@ -31041,7 +29767,7 @@
       </c>
       <c r="F331" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1904 </t>
+          <t>1904</t>
         </is>
       </c>
       <c r="G331" s="10" t="inlineStr"/>
@@ -31066,11 +29792,7 @@
       <c r="N331" s="10" t="inlineStr"/>
       <c r="O331" s="10" t="inlineStr"/>
       <c r="P331" s="10" t="inlineStr"/>
-      <c r="Q331" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58495673</t>
-        </is>
-      </c>
+      <c r="Q331" s="10" t="inlineStr"/>
       <c r="R331" s="10" t="inlineStr"/>
       <c r="S331" s="10" t="inlineStr">
         <is>
@@ -31132,7 +29854,7 @@
       </c>
       <c r="F332" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G332" s="10" t="inlineStr"/>
@@ -31157,11 +29879,7 @@
       <c r="N332" s="10" t="inlineStr"/>
       <c r="O332" s="10" t="inlineStr"/>
       <c r="P332" s="10" t="inlineStr"/>
-      <c r="Q332" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57682503</t>
-        </is>
-      </c>
+      <c r="Q332" s="10" t="inlineStr"/>
       <c r="R332" s="10" t="inlineStr"/>
       <c r="S332" s="10" t="inlineStr">
         <is>
@@ -31223,7 +29941,7 @@
       </c>
       <c r="F333" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1920 </t>
+          <t>1920</t>
         </is>
       </c>
       <c r="G333" s="10" t="inlineStr">
@@ -31252,11 +29970,7 @@
       <c r="N333" s="10" t="inlineStr"/>
       <c r="O333" s="10" t="inlineStr"/>
       <c r="P333" s="10" t="inlineStr"/>
-      <c r="Q333" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304165</t>
-        </is>
-      </c>
+      <c r="Q333" s="10" t="inlineStr"/>
       <c r="R333" s="10" t="inlineStr"/>
       <c r="S333" s="10" t="inlineStr">
         <is>
@@ -31318,7 +30032,7 @@
       </c>
       <c r="F334" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G334" s="10" t="inlineStr"/>
@@ -31343,11 +30057,7 @@
       <c r="N334" s="10" t="inlineStr"/>
       <c r="O334" s="10" t="inlineStr"/>
       <c r="P334" s="10" t="inlineStr"/>
-      <c r="Q334" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=3242432</t>
-        </is>
-      </c>
+      <c r="Q334" s="10" t="inlineStr"/>
       <c r="R334" s="10" t="inlineStr"/>
       <c r="S334" s="10" t="inlineStr">
         <is>
@@ -31408,7 +30118,11 @@
         </is>
       </c>
       <c r="F335" s="10" t="inlineStr"/>
-      <c r="G335" s="10" t="inlineStr"/>
+      <c r="G335" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 31. 07. 42 г.</t>
+        </is>
+      </c>
       <c r="H335" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> рядовой</t>
@@ -31492,7 +30206,7 @@
       </c>
       <c r="F336" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1902 </t>
+          <t>1902</t>
         </is>
       </c>
       <c r="G336" s="10" t="inlineStr"/>
@@ -31517,11 +30231,7 @@
       <c r="N336" s="10" t="inlineStr"/>
       <c r="O336" s="10" t="inlineStr"/>
       <c r="P336" s="10" t="inlineStr"/>
-      <c r="Q336" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965363</t>
-        </is>
-      </c>
+      <c r="Q336" s="10" t="inlineStr"/>
       <c r="R336" s="10" t="inlineStr"/>
       <c r="S336" s="10" t="inlineStr">
         <is>
@@ -31583,7 +30293,7 @@
       </c>
       <c r="F337" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1925 </t>
+          <t>1925</t>
         </is>
       </c>
       <c r="G337" s="10" t="inlineStr"/>
@@ -31592,7 +30302,7 @@
       <c r="J337" s="10" t="inlineStr"/>
       <c r="K337" s="10" t="inlineStr">
         <is>
-          <t>в1943</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="L337" s="12" t="inlineStr">
@@ -31604,11 +30314,7 @@
       <c r="N337" s="10" t="inlineStr"/>
       <c r="O337" s="10" t="inlineStr"/>
       <c r="P337" s="10" t="inlineStr"/>
-      <c r="Q337" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=8472699</t>
-        </is>
-      </c>
+      <c r="Q337" s="10" t="inlineStr"/>
       <c r="R337" s="10" t="inlineStr"/>
       <c r="S337" s="10" t="inlineStr">
         <is>
@@ -31644,7 +30350,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="338" s="6">
+    <row r="338" ht="27" customHeight="1" s="6">
       <c r="A338" s="7" t="n">
         <v>142375</v>
       </c>
@@ -31695,11 +30401,7 @@
       <c r="N338" s="10" t="inlineStr"/>
       <c r="O338" s="10" t="inlineStr"/>
       <c r="P338" s="10" t="inlineStr"/>
-      <c r="Q338" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54728167</t>
-        </is>
-      </c>
+      <c r="Q338" s="10" t="inlineStr"/>
       <c r="R338" s="10" t="inlineStr"/>
       <c r="S338" s="10" t="inlineStr">
         <is>
@@ -31782,11 +30484,7 @@
       <c r="N339" s="10" t="inlineStr"/>
       <c r="O339" s="10" t="inlineStr"/>
       <c r="P339" s="10" t="inlineStr"/>
-      <c r="Q339" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60671448</t>
-        </is>
-      </c>
+      <c r="Q339" s="10" t="inlineStr"/>
       <c r="R339" s="10" t="inlineStr"/>
       <c r="S339" s="10" t="inlineStr">
         <is>
@@ -31848,7 +30546,7 @@
       </c>
       <c r="F340" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G340" s="10" t="inlineStr"/>
@@ -31869,11 +30567,7 @@
       <c r="N340" s="10" t="inlineStr"/>
       <c r="O340" s="10" t="inlineStr"/>
       <c r="P340" s="10" t="inlineStr"/>
-      <c r="Q340" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304192</t>
-        </is>
-      </c>
+      <c r="Q340" s="10" t="inlineStr"/>
       <c r="R340" s="10" t="inlineStr"/>
       <c r="S340" s="10" t="inlineStr">
         <is>
@@ -31960,11 +30654,7 @@
       <c r="N341" s="10" t="inlineStr"/>
       <c r="O341" s="10" t="inlineStr"/>
       <c r="P341" s="10" t="inlineStr"/>
-      <c r="Q341" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304191</t>
-        </is>
-      </c>
+      <c r="Q341" s="10" t="inlineStr"/>
       <c r="R341" s="10" t="inlineStr"/>
       <c r="S341" s="10" t="inlineStr">
         <is>
@@ -32026,7 +30716,7 @@
       </c>
       <c r="F342" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1912 </t>
+          <t>1912</t>
         </is>
       </c>
       <c r="G342" s="10" t="inlineStr"/>
@@ -32051,11 +30741,7 @@
       <c r="N342" s="10" t="inlineStr"/>
       <c r="O342" s="10" t="inlineStr"/>
       <c r="P342" s="10" t="inlineStr"/>
-      <c r="Q342" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58170851</t>
-        </is>
-      </c>
+      <c r="Q342" s="10" t="inlineStr"/>
       <c r="R342" s="10" t="inlineStr"/>
       <c r="S342" s="10" t="inlineStr">
         <is>
@@ -32117,7 +30803,7 @@
       </c>
       <c r="F343" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1899 </t>
+          <t>1899</t>
         </is>
       </c>
       <c r="G343" s="10" t="inlineStr"/>
@@ -32130,7 +30816,7 @@
       <c r="J343" s="10" t="inlineStr"/>
       <c r="K343" s="10" t="inlineStr">
         <is>
-          <t>в1943</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="L343" s="12" t="inlineStr">
@@ -32142,11 +30828,7 @@
       <c r="N343" s="10" t="inlineStr"/>
       <c r="O343" s="10" t="inlineStr"/>
       <c r="P343" s="10" t="inlineStr"/>
-      <c r="Q343" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304188</t>
-        </is>
-      </c>
+      <c r="Q343" s="10" t="inlineStr"/>
       <c r="R343" s="10" t="inlineStr"/>
       <c r="S343" s="10" t="inlineStr">
         <is>
@@ -32208,7 +30890,7 @@
       </c>
       <c r="F344" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1908 </t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G344" s="10" t="inlineStr"/>
@@ -32233,11 +30915,7 @@
       <c r="N344" s="10" t="inlineStr"/>
       <c r="O344" s="10" t="inlineStr"/>
       <c r="P344" s="10" t="inlineStr"/>
-      <c r="Q344" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304189</t>
-        </is>
-      </c>
+      <c r="Q344" s="10" t="inlineStr"/>
       <c r="R344" s="10" t="inlineStr"/>
       <c r="S344" s="10" t="inlineStr">
         <is>
@@ -32299,7 +30977,7 @@
       </c>
       <c r="F345" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1908 </t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G345" s="10" t="inlineStr"/>
@@ -32324,11 +31002,7 @@
       <c r="N345" s="10" t="inlineStr"/>
       <c r="O345" s="10" t="inlineStr"/>
       <c r="P345" s="10" t="inlineStr"/>
-      <c r="Q345" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304187</t>
-        </is>
-      </c>
+      <c r="Q345" s="10" t="inlineStr"/>
       <c r="R345" s="10" t="inlineStr"/>
       <c r="S345" s="10" t="inlineStr">
         <is>
@@ -32390,7 +31064,7 @@
       </c>
       <c r="F346" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1905 </t>
+          <t>1905</t>
         </is>
       </c>
       <c r="G346" s="10" t="inlineStr"/>
@@ -32403,7 +31077,7 @@
       <c r="J346" s="10" t="inlineStr"/>
       <c r="K346" s="10" t="inlineStr">
         <is>
-          <t>в1945</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="L346" s="12" t="inlineStr">
@@ -32415,11 +31089,7 @@
       <c r="N346" s="10" t="inlineStr"/>
       <c r="O346" s="10" t="inlineStr"/>
       <c r="P346" s="10" t="inlineStr"/>
-      <c r="Q346" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57356122</t>
-        </is>
-      </c>
+      <c r="Q346" s="10" t="inlineStr"/>
       <c r="R346" s="10" t="inlineStr"/>
       <c r="S346" s="10" t="inlineStr">
         <is>
@@ -32481,7 +31151,7 @@
       </c>
       <c r="F347" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1907 </t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G347" s="10" t="inlineStr"/>
@@ -32494,7 +31164,7 @@
       <c r="J347" s="10" t="inlineStr"/>
       <c r="K347" s="10" t="inlineStr">
         <is>
-          <t>в1943</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="L347" s="12" t="inlineStr">
@@ -32506,11 +31176,7 @@
       <c r="N347" s="10" t="inlineStr"/>
       <c r="O347" s="10" t="inlineStr"/>
       <c r="P347" s="10" t="inlineStr"/>
-      <c r="Q347" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304185</t>
-        </is>
-      </c>
+      <c r="Q347" s="10" t="inlineStr"/>
       <c r="R347" s="10" t="inlineStr"/>
       <c r="S347" s="10" t="inlineStr">
         <is>
@@ -32572,7 +31238,7 @@
       </c>
       <c r="F348" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1920 </t>
+          <t>1920</t>
         </is>
       </c>
       <c r="G348" s="10" t="inlineStr"/>
@@ -32597,11 +31263,7 @@
       <c r="N348" s="10" t="inlineStr"/>
       <c r="O348" s="10" t="inlineStr"/>
       <c r="P348" s="10" t="inlineStr"/>
-      <c r="Q348" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213305</t>
-        </is>
-      </c>
+      <c r="Q348" s="10" t="inlineStr"/>
       <c r="R348" s="10" t="inlineStr"/>
       <c r="S348" s="10" t="inlineStr">
         <is>
@@ -32663,7 +31325,7 @@
       </c>
       <c r="F349" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G349" s="10" t="inlineStr"/>
@@ -32676,7 +31338,7 @@
       <c r="J349" s="10" t="inlineStr"/>
       <c r="K349" s="10" t="inlineStr">
         <is>
-          <t>в1942</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="L349" s="12" t="inlineStr">
@@ -32688,11 +31350,7 @@
       <c r="N349" s="10" t="inlineStr"/>
       <c r="O349" s="10" t="inlineStr"/>
       <c r="P349" s="10" t="inlineStr"/>
-      <c r="Q349" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304197</t>
-        </is>
-      </c>
+      <c r="Q349" s="10" t="inlineStr"/>
       <c r="R349" s="10" t="inlineStr"/>
       <c r="S349" s="10" t="inlineStr">
         <is>
@@ -32728,7 +31386,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="350" s="6">
+    <row r="350" ht="27" customHeight="1" s="6">
       <c r="A350" s="7" t="n">
         <v>142387</v>
       </c>
@@ -32755,12 +31413,12 @@
       <c r="F350" s="10" t="inlineStr"/>
       <c r="G350" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Каверинский рн</t>
+          <t xml:space="preserve"> Рязанская обл.,  Каверинский рн,  рядовой</t>
         </is>
       </c>
       <c r="H350" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> рядовой</t>
+          <t>рядовой</t>
         </is>
       </c>
       <c r="I350" s="10" t="inlineStr"/>
@@ -32787,11 +31445,7 @@
       <c r="N350" s="10" t="inlineStr"/>
       <c r="O350" s="10" t="inlineStr"/>
       <c r="P350" s="10" t="inlineStr"/>
-      <c r="Q350" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=266067814</t>
-        </is>
-      </c>
+      <c r="Q350" s="10" t="inlineStr"/>
       <c r="R350" s="10" t="inlineStr"/>
       <c r="S350" s="10" t="inlineStr">
         <is>
@@ -32878,11 +31532,7 @@
       <c r="N351" s="10" t="inlineStr"/>
       <c r="O351" s="10" t="inlineStr"/>
       <c r="P351" s="10" t="inlineStr"/>
-      <c r="Q351" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=3311402</t>
-        </is>
-      </c>
+      <c r="Q351" s="10" t="inlineStr"/>
       <c r="R351" s="10" t="inlineStr"/>
       <c r="S351" s="10" t="inlineStr">
         <is>
@@ -32944,7 +31594,7 @@
       </c>
       <c r="F352" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G352" s="10" t="inlineStr"/>
@@ -32965,11 +31615,7 @@
       <c r="N352" s="10" t="inlineStr"/>
       <c r="O352" s="10" t="inlineStr"/>
       <c r="P352" s="10" t="inlineStr"/>
-      <c r="Q352" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304200</t>
-        </is>
-      </c>
+      <c r="Q352" s="10" t="inlineStr"/>
       <c r="R352" s="10" t="inlineStr"/>
       <c r="S352" s="10" t="inlineStr">
         <is>
@@ -33005,7 +31651,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="353" s="6">
+    <row r="353" ht="27" customHeight="1" s="6">
       <c r="A353" s="7" t="n">
         <v>142390</v>
       </c>
@@ -33031,12 +31677,12 @@
       </c>
       <c r="F353" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G353" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн</t>
+          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн,  д. Ур</t>
         </is>
       </c>
       <c r="H353" s="10" t="inlineStr">
@@ -33064,11 +31710,7 @@
       <c r="N353" s="10" t="inlineStr"/>
       <c r="O353" s="10" t="inlineStr"/>
       <c r="P353" s="10" t="inlineStr"/>
-      <c r="Q353" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50214141</t>
-        </is>
-      </c>
+      <c r="Q353" s="10" t="inlineStr"/>
       <c r="R353" s="10" t="inlineStr"/>
       <c r="S353" s="10" t="inlineStr">
         <is>
@@ -33151,11 +31793,7 @@
       <c r="N354" s="10" t="inlineStr"/>
       <c r="O354" s="10" t="inlineStr"/>
       <c r="P354" s="10" t="inlineStr"/>
-      <c r="Q354" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304202</t>
-        </is>
-      </c>
+      <c r="Q354" s="10" t="inlineStr"/>
       <c r="R354" s="10" t="inlineStr"/>
       <c r="S354" s="10" t="inlineStr">
         <is>
@@ -33317,11 +31955,7 @@
       <c r="N356" s="10" t="inlineStr"/>
       <c r="O356" s="10" t="inlineStr"/>
       <c r="P356" s="10" t="inlineStr"/>
-      <c r="Q356" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304204</t>
-        </is>
-      </c>
+      <c r="Q356" s="10" t="inlineStr"/>
       <c r="R356" s="10" t="inlineStr"/>
       <c r="S356" s="10" t="inlineStr">
         <is>
@@ -33404,11 +32038,7 @@
       <c r="N357" s="10" t="inlineStr"/>
       <c r="O357" s="10" t="inlineStr"/>
       <c r="P357" s="10" t="inlineStr"/>
-      <c r="Q357" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=61430758</t>
-        </is>
-      </c>
+      <c r="Q357" s="10" t="inlineStr"/>
       <c r="R357" s="10" t="inlineStr"/>
       <c r="S357" s="10" t="inlineStr">
         <is>
@@ -33495,11 +32125,7 @@
       <c r="N358" s="10" t="inlineStr"/>
       <c r="O358" s="10" t="inlineStr"/>
       <c r="P358" s="10" t="inlineStr"/>
-      <c r="Q358" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=266853989</t>
-        </is>
-      </c>
+      <c r="Q358" s="10" t="inlineStr"/>
       <c r="R358" s="10" t="inlineStr"/>
       <c r="S358" s="10" t="inlineStr">
         <is>
@@ -33582,11 +32208,7 @@
       <c r="N359" s="10" t="inlineStr"/>
       <c r="O359" s="10" t="inlineStr"/>
       <c r="P359" s="10" t="inlineStr"/>
-      <c r="Q359" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58328852</t>
-        </is>
-      </c>
+      <c r="Q359" s="10" t="inlineStr"/>
       <c r="R359" s="10" t="inlineStr"/>
       <c r="S359" s="10" t="inlineStr">
         <is>
@@ -33673,11 +32295,7 @@
       <c r="N360" s="10" t="inlineStr"/>
       <c r="O360" s="10" t="inlineStr"/>
       <c r="P360" s="10" t="inlineStr"/>
-      <c r="Q360" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=265955776</t>
-        </is>
-      </c>
+      <c r="Q360" s="10" t="inlineStr"/>
       <c r="R360" s="10" t="inlineStr"/>
       <c r="S360" s="10" t="inlineStr">
         <is>
@@ -33760,11 +32378,7 @@
       <c r="N361" s="10" t="inlineStr"/>
       <c r="O361" s="10" t="inlineStr"/>
       <c r="P361" s="10" t="inlineStr"/>
-      <c r="Q361" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=62204066</t>
-        </is>
-      </c>
+      <c r="Q361" s="10" t="inlineStr"/>
       <c r="R361" s="10" t="inlineStr"/>
       <c r="S361" s="10" t="inlineStr">
         <is>
@@ -33847,11 +32461,7 @@
       <c r="N362" s="10" t="inlineStr"/>
       <c r="O362" s="10" t="inlineStr"/>
       <c r="P362" s="10" t="inlineStr"/>
-      <c r="Q362" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60671454</t>
-        </is>
-      </c>
+      <c r="Q362" s="10" t="inlineStr"/>
       <c r="R362" s="10" t="inlineStr"/>
       <c r="S362" s="10" t="inlineStr">
         <is>
@@ -33934,11 +32544,7 @@
       <c r="N363" s="10" t="inlineStr"/>
       <c r="O363" s="10" t="inlineStr"/>
       <c r="P363" s="10" t="inlineStr"/>
-      <c r="Q363" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304234</t>
-        </is>
-      </c>
+      <c r="Q363" s="10" t="inlineStr"/>
       <c r="R363" s="10" t="inlineStr"/>
       <c r="S363" s="10" t="inlineStr">
         <is>
@@ -34021,11 +32627,7 @@
       <c r="N364" s="10" t="inlineStr"/>
       <c r="O364" s="10" t="inlineStr"/>
       <c r="P364" s="10" t="inlineStr"/>
-      <c r="Q364" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304233</t>
-        </is>
-      </c>
+      <c r="Q364" s="10" t="inlineStr"/>
       <c r="R364" s="10" t="inlineStr"/>
       <c r="S364" s="10" t="inlineStr">
         <is>
@@ -34108,11 +32710,7 @@
       <c r="N365" s="10" t="inlineStr"/>
       <c r="O365" s="10" t="inlineStr"/>
       <c r="P365" s="10" t="inlineStr"/>
-      <c r="Q365" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=59409454</t>
-        </is>
-      </c>
+      <c r="Q365" s="10" t="inlineStr"/>
       <c r="R365" s="10" t="inlineStr"/>
       <c r="S365" s="10" t="inlineStr">
         <is>
@@ -34195,11 +32793,7 @@
       <c r="N366" s="10" t="inlineStr"/>
       <c r="O366" s="10" t="inlineStr"/>
       <c r="P366" s="10" t="inlineStr"/>
-      <c r="Q366" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64807089</t>
-        </is>
-      </c>
+      <c r="Q366" s="10" t="inlineStr"/>
       <c r="R366" s="10" t="inlineStr"/>
       <c r="S366" s="10" t="inlineStr">
         <is>
@@ -34282,11 +32876,7 @@
       <c r="N367" s="10" t="inlineStr"/>
       <c r="O367" s="10" t="inlineStr"/>
       <c r="P367" s="10" t="inlineStr"/>
-      <c r="Q367" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2807106</t>
-        </is>
-      </c>
+      <c r="Q367" s="10" t="inlineStr"/>
       <c r="R367" s="10" t="inlineStr"/>
       <c r="S367" s="10" t="inlineStr">
         <is>
@@ -34348,7 +32938,7 @@
       </c>
       <c r="F368" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G368" s="10" t="inlineStr"/>
@@ -34373,11 +32963,7 @@
       <c r="N368" s="10" t="inlineStr"/>
       <c r="O368" s="10" t="inlineStr"/>
       <c r="P368" s="10" t="inlineStr"/>
-      <c r="Q368" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58495841</t>
-        </is>
-      </c>
+      <c r="Q368" s="10" t="inlineStr"/>
       <c r="R368" s="10" t="inlineStr"/>
       <c r="S368" s="10" t="inlineStr">
         <is>
@@ -34460,11 +33046,7 @@
       <c r="N369" s="10" t="inlineStr"/>
       <c r="O369" s="10" t="inlineStr"/>
       <c r="P369" s="10" t="inlineStr"/>
-      <c r="Q369" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57098781</t>
-        </is>
-      </c>
+      <c r="Q369" s="10" t="inlineStr"/>
       <c r="R369" s="10" t="inlineStr"/>
       <c r="S369" s="10" t="inlineStr">
         <is>
@@ -34500,7 +33082,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="370" s="6">
+    <row r="370" ht="27" customHeight="1" s="6">
       <c r="A370" s="7" t="n">
         <v>142407</v>
       </c>
@@ -34526,7 +33108,7 @@
       </c>
       <c r="F370" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1905 </t>
+          <t>1905</t>
         </is>
       </c>
       <c r="G370" s="10" t="inlineStr">
@@ -34563,11 +33145,7 @@
       <c r="N370" s="10" t="inlineStr"/>
       <c r="O370" s="10" t="inlineStr"/>
       <c r="P370" s="10" t="inlineStr"/>
-      <c r="Q370" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50321687</t>
-        </is>
-      </c>
+      <c r="Q370" s="10" t="inlineStr"/>
       <c r="R370" s="10" t="inlineStr"/>
       <c r="S370" s="10" t="inlineStr">
         <is>
@@ -34650,11 +33228,7 @@
       <c r="N371" s="10" t="inlineStr"/>
       <c r="O371" s="10" t="inlineStr"/>
       <c r="P371" s="10" t="inlineStr"/>
-      <c r="Q371" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304226</t>
-        </is>
-      </c>
+      <c r="Q371" s="10" t="inlineStr"/>
       <c r="R371" s="10" t="inlineStr"/>
       <c r="S371" s="10" t="inlineStr">
         <is>
@@ -34737,11 +33311,7 @@
       <c r="N372" s="10" t="inlineStr"/>
       <c r="O372" s="10" t="inlineStr"/>
       <c r="P372" s="10" t="inlineStr"/>
-      <c r="Q372" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304225</t>
-        </is>
-      </c>
+      <c r="Q372" s="10" t="inlineStr"/>
       <c r="R372" s="10" t="inlineStr"/>
       <c r="S372" s="10" t="inlineStr">
         <is>
@@ -34824,11 +33394,7 @@
       <c r="N373" s="10" t="inlineStr"/>
       <c r="O373" s="10" t="inlineStr"/>
       <c r="P373" s="10" t="inlineStr"/>
-      <c r="Q373" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60887732</t>
-        </is>
-      </c>
+      <c r="Q373" s="10" t="inlineStr"/>
       <c r="R373" s="10" t="inlineStr"/>
       <c r="S373" s="10" t="inlineStr">
         <is>
@@ -34911,11 +33477,7 @@
       <c r="N374" s="10" t="inlineStr"/>
       <c r="O374" s="10" t="inlineStr"/>
       <c r="P374" s="10" t="inlineStr"/>
-      <c r="Q374" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304222</t>
-        </is>
-      </c>
+      <c r="Q374" s="10" t="inlineStr"/>
       <c r="R374" s="10" t="inlineStr"/>
       <c r="S374" s="10" t="inlineStr">
         <is>
@@ -34994,11 +33556,7 @@
       <c r="N375" s="10" t="inlineStr"/>
       <c r="O375" s="10" t="inlineStr"/>
       <c r="P375" s="10" t="inlineStr"/>
-      <c r="Q375" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=66198313</t>
-        </is>
-      </c>
+      <c r="Q375" s="10" t="inlineStr"/>
       <c r="R375" s="10" t="inlineStr"/>
       <c r="S375" s="10" t="inlineStr">
         <is>
@@ -35081,11 +33639,7 @@
       <c r="N376" s="10" t="inlineStr"/>
       <c r="O376" s="10" t="inlineStr"/>
       <c r="P376" s="10" t="inlineStr"/>
-      <c r="Q376" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304220</t>
-        </is>
-      </c>
+      <c r="Q376" s="10" t="inlineStr"/>
       <c r="R376" s="10" t="inlineStr"/>
       <c r="S376" s="10" t="inlineStr">
         <is>
@@ -35121,7 +33675,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="377" s="6">
+    <row r="377" s="6">
       <c r="A377" s="7" t="n">
         <v>142414</v>
       </c>
@@ -35147,7 +33701,7 @@
       </c>
       <c r="F377" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1904 </t>
+          <t>1904</t>
         </is>
       </c>
       <c r="G377" s="10" t="inlineStr"/>
@@ -35176,11 +33730,7 @@
       <c r="N377" s="10" t="inlineStr"/>
       <c r="O377" s="10" t="inlineStr"/>
       <c r="P377" s="10" t="inlineStr"/>
-      <c r="Q377" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304219</t>
-        </is>
-      </c>
+      <c r="Q377" s="10" t="inlineStr"/>
       <c r="R377" s="10" t="inlineStr"/>
       <c r="S377" s="10" t="inlineStr">
         <is>
@@ -35263,11 +33813,7 @@
       <c r="N378" s="10" t="inlineStr"/>
       <c r="O378" s="10" t="inlineStr"/>
       <c r="P378" s="10" t="inlineStr"/>
-      <c r="Q378" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60887738</t>
-        </is>
-      </c>
+      <c r="Q378" s="10" t="inlineStr"/>
       <c r="R378" s="10" t="inlineStr"/>
       <c r="S378" s="10" t="inlineStr">
         <is>
@@ -35329,7 +33875,7 @@
       </c>
       <c r="F379" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G379" s="10" t="inlineStr"/>
@@ -35354,11 +33900,7 @@
       <c r="N379" s="10" t="inlineStr"/>
       <c r="O379" s="10" t="inlineStr"/>
       <c r="P379" s="10" t="inlineStr"/>
-      <c r="Q379" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965186</t>
-        </is>
-      </c>
+      <c r="Q379" s="10" t="inlineStr"/>
       <c r="R379" s="10" t="inlineStr"/>
       <c r="S379" s="10" t="inlineStr">
         <is>
@@ -35429,7 +33971,7 @@
       <c r="J380" s="10" t="inlineStr"/>
       <c r="K380" s="10" t="inlineStr">
         <is>
-          <t>05.12.1941</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="L380" s="12" t="inlineStr">
@@ -35441,11 +33983,7 @@
       <c r="N380" s="10" t="inlineStr"/>
       <c r="O380" s="10" t="inlineStr"/>
       <c r="P380" s="10" t="inlineStr"/>
-      <c r="Q380" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304223</t>
-        </is>
-      </c>
+      <c r="Q380" s="10" t="inlineStr"/>
       <c r="R380" s="10" t="inlineStr"/>
       <c r="S380" s="10" t="inlineStr">
         <is>
@@ -35507,7 +34045,7 @@
       </c>
       <c r="F381" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G381" s="10" t="inlineStr"/>
@@ -35536,11 +34074,7 @@
       <c r="N381" s="10" t="inlineStr"/>
       <c r="O381" s="10" t="inlineStr"/>
       <c r="P381" s="10" t="inlineStr"/>
-      <c r="Q381" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304183</t>
-        </is>
-      </c>
+      <c r="Q381" s="10" t="inlineStr"/>
       <c r="R381" s="10" t="inlineStr"/>
       <c r="S381" s="10" t="inlineStr">
         <is>
@@ -35602,7 +34136,7 @@
       </c>
       <c r="F382" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G382" s="10" t="inlineStr"/>
@@ -35627,11 +34161,7 @@
       <c r="N382" s="10" t="inlineStr"/>
       <c r="O382" s="10" t="inlineStr"/>
       <c r="P382" s="10" t="inlineStr"/>
-      <c r="Q382" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304216</t>
-        </is>
-      </c>
+      <c r="Q382" s="10" t="inlineStr"/>
       <c r="R382" s="10" t="inlineStr"/>
       <c r="S382" s="10" t="inlineStr">
         <is>
@@ -35693,7 +34223,7 @@
       </c>
       <c r="F383" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1904 </t>
+          <t>1904</t>
         </is>
       </c>
       <c r="G383" s="10" t="inlineStr"/>
@@ -35718,11 +34248,7 @@
       <c r="N383" s="10" t="inlineStr"/>
       <c r="O383" s="10" t="inlineStr"/>
       <c r="P383" s="10" t="inlineStr"/>
-      <c r="Q383" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304215</t>
-        </is>
-      </c>
+      <c r="Q383" s="10" t="inlineStr"/>
       <c r="R383" s="10" t="inlineStr"/>
       <c r="S383" s="10" t="inlineStr">
         <is>
@@ -35784,7 +34310,7 @@
       </c>
       <c r="F384" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G384" s="10" t="inlineStr"/>
@@ -35809,11 +34335,7 @@
       <c r="N384" s="10" t="inlineStr"/>
       <c r="O384" s="10" t="inlineStr"/>
       <c r="P384" s="10" t="inlineStr"/>
-      <c r="Q384" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304214</t>
-        </is>
-      </c>
+      <c r="Q384" s="10" t="inlineStr"/>
       <c r="R384" s="10" t="inlineStr"/>
       <c r="S384" s="10" t="inlineStr">
         <is>
@@ -35849,7 +34371,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="385" s="6">
+    <row r="385" ht="27" customHeight="1" s="6">
       <c r="A385" s="7" t="n">
         <v>142420</v>
       </c>
@@ -35875,7 +34397,7 @@
       </c>
       <c r="F385" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1916 </t>
+          <t>1916</t>
         </is>
       </c>
       <c r="G385" s="10" t="inlineStr">
@@ -35912,11 +34434,7 @@
       <c r="N385" s="10" t="inlineStr"/>
       <c r="O385" s="10" t="inlineStr"/>
       <c r="P385" s="10" t="inlineStr"/>
-      <c r="Q385" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304213</t>
-        </is>
-      </c>
+      <c r="Q385" s="10" t="inlineStr"/>
       <c r="R385" s="10" t="inlineStr"/>
       <c r="S385" s="10" t="inlineStr">
         <is>
@@ -35952,7 +34470,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="386" s="6">
+    <row r="386" s="6">
       <c r="A386" s="7" t="n">
         <v>142421</v>
       </c>
@@ -35978,7 +34496,7 @@
       </c>
       <c r="F386" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G386" s="10" t="inlineStr">
@@ -36003,11 +34521,7 @@
       <c r="N386" s="10" t="inlineStr"/>
       <c r="O386" s="10" t="inlineStr"/>
       <c r="P386" s="10" t="inlineStr"/>
-      <c r="Q386" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213286</t>
-        </is>
-      </c>
+      <c r="Q386" s="10" t="inlineStr"/>
       <c r="R386" s="10" t="inlineStr"/>
       <c r="S386" s="10" t="inlineStr">
         <is>
@@ -36043,7 +34557,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="387" s="6">
+    <row r="387" ht="27" customHeight="1" s="6">
       <c r="A387" s="7" t="n">
         <v>142422</v>
       </c>
@@ -36069,7 +34583,7 @@
       </c>
       <c r="F387" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G387" s="10" t="inlineStr">
@@ -36098,11 +34612,7 @@
       <c r="N387" s="10" t="inlineStr"/>
       <c r="O387" s="10" t="inlineStr"/>
       <c r="P387" s="10" t="inlineStr"/>
-      <c r="Q387" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213287</t>
-        </is>
-      </c>
+      <c r="Q387" s="10" t="inlineStr"/>
       <c r="R387" s="10" t="inlineStr"/>
       <c r="S387" s="10" t="inlineStr">
         <is>
@@ -36138,7 +34648,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="388" s="6">
+    <row r="388" ht="27" customHeight="1" s="6">
       <c r="A388" s="7" t="n">
         <v>142423</v>
       </c>
@@ -36164,12 +34674,12 @@
       </c>
       <c r="F388" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1920 </t>
+          <t>1920</t>
         </is>
       </c>
       <c r="G388" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн</t>
+          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн,  д. Тархань</t>
         </is>
       </c>
       <c r="H388" s="10" t="inlineStr">
@@ -36193,11 +34703,7 @@
       <c r="N388" s="10" t="inlineStr"/>
       <c r="O388" s="10" t="inlineStr"/>
       <c r="P388" s="10" t="inlineStr"/>
-      <c r="Q388" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213514</t>
-        </is>
-      </c>
+      <c r="Q388" s="10" t="inlineStr"/>
       <c r="R388" s="10" t="inlineStr"/>
       <c r="S388" s="10" t="inlineStr">
         <is>
@@ -36276,11 +34782,7 @@
       <c r="N389" s="10" t="inlineStr"/>
       <c r="O389" s="10" t="inlineStr"/>
       <c r="P389" s="10" t="inlineStr"/>
-      <c r="Q389" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=80288720</t>
-        </is>
-      </c>
+      <c r="Q389" s="10" t="inlineStr"/>
       <c r="R389" s="10" t="inlineStr"/>
       <c r="S389" s="10" t="inlineStr">
         <is>
@@ -36367,11 +34869,7 @@
       <c r="N390" s="10" t="inlineStr"/>
       <c r="O390" s="10" t="inlineStr"/>
       <c r="P390" s="10" t="inlineStr"/>
-      <c r="Q390" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=3019222</t>
-        </is>
-      </c>
+      <c r="Q390" s="10" t="inlineStr"/>
       <c r="R390" s="10" t="inlineStr"/>
       <c r="S390" s="10" t="inlineStr">
         <is>
@@ -36462,11 +34960,7 @@
       <c r="N391" s="10" t="inlineStr"/>
       <c r="O391" s="10" t="inlineStr"/>
       <c r="P391" s="10" t="inlineStr"/>
-      <c r="Q391" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304239</t>
-        </is>
-      </c>
+      <c r="Q391" s="10" t="inlineStr"/>
       <c r="R391" s="10" t="inlineStr"/>
       <c r="S391" s="10" t="inlineStr">
         <is>
@@ -36585,7 +35079,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="393" s="6">
+    <row r="393" ht="27" customHeight="1" s="6">
       <c r="A393" s="7" t="n">
         <v>142427</v>
       </c>
@@ -36611,10 +35105,14 @@
       </c>
       <c r="F393" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1925 </t>
-        </is>
-      </c>
-      <c r="G393" s="10" t="inlineStr"/>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="G393" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> г. Минск</t>
+        </is>
+      </c>
       <c r="H393" s="10" t="inlineStr">
         <is>
           <t>сержант</t>
@@ -36644,11 +35142,7 @@
       <c r="N393" s="10" t="inlineStr"/>
       <c r="O393" s="10" t="inlineStr"/>
       <c r="P393" s="10" t="inlineStr"/>
-      <c r="Q393" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304241</t>
-        </is>
-      </c>
+      <c r="Q393" s="10" t="inlineStr"/>
       <c r="R393" s="10" t="inlineStr"/>
       <c r="S393" s="10" t="inlineStr">
         <is>
@@ -36731,11 +35225,7 @@
       <c r="N394" s="10" t="inlineStr"/>
       <c r="O394" s="10" t="inlineStr"/>
       <c r="P394" s="10" t="inlineStr"/>
-      <c r="Q394" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=60671499</t>
-        </is>
-      </c>
+      <c r="Q394" s="10" t="inlineStr"/>
       <c r="R394" s="10" t="inlineStr"/>
       <c r="S394" s="10" t="inlineStr">
         <is>
@@ -36818,11 +35308,7 @@
       <c r="N395" s="10" t="inlineStr"/>
       <c r="O395" s="10" t="inlineStr"/>
       <c r="P395" s="10" t="inlineStr"/>
-      <c r="Q395" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304243</t>
-        </is>
-      </c>
+      <c r="Q395" s="10" t="inlineStr"/>
       <c r="R395" s="10" t="inlineStr"/>
       <c r="S395" s="10" t="inlineStr">
         <is>
@@ -36909,11 +35395,7 @@
       <c r="N396" s="10" t="inlineStr"/>
       <c r="O396" s="10" t="inlineStr"/>
       <c r="P396" s="10" t="inlineStr"/>
-      <c r="Q396" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=7012446</t>
-        </is>
-      </c>
+      <c r="Q396" s="10" t="inlineStr"/>
       <c r="R396" s="10" t="inlineStr"/>
       <c r="S396" s="10" t="inlineStr">
         <is>
@@ -36975,7 +35457,7 @@
       </c>
       <c r="F397" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1915 </t>
+          <t>1915</t>
         </is>
       </c>
       <c r="G397" s="10" t="inlineStr"/>
@@ -37000,11 +35482,7 @@
       <c r="N397" s="10" t="inlineStr"/>
       <c r="O397" s="10" t="inlineStr"/>
       <c r="P397" s="10" t="inlineStr"/>
-      <c r="Q397" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965407</t>
-        </is>
-      </c>
+      <c r="Q397" s="10" t="inlineStr"/>
       <c r="R397" s="10" t="inlineStr"/>
       <c r="S397" s="10" t="inlineStr">
         <is>
@@ -37040,7 +35518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="398" s="6">
+    <row r="398" s="6">
       <c r="A398" s="7" t="n">
         <v>142432</v>
       </c>
@@ -37091,11 +35569,7 @@
       <c r="N398" s="10" t="inlineStr"/>
       <c r="O398" s="10" t="inlineStr"/>
       <c r="P398" s="10" t="inlineStr"/>
-      <c r="Q398" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=3439624</t>
-        </is>
-      </c>
+      <c r="Q398" s="10" t="inlineStr"/>
       <c r="R398" s="10" t="inlineStr"/>
       <c r="S398" s="10" t="inlineStr">
         <is>
@@ -37131,7 +35605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="399" s="6">
+    <row r="399" ht="27" customHeight="1" s="6">
       <c r="A399" s="7" t="n">
         <v>142433</v>
       </c>
@@ -37158,12 +35632,12 @@
       <c r="F399" s="10" t="inlineStr"/>
       <c r="G399" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн</t>
+          <t xml:space="preserve"> Рязанская обл.,  Шацкий рн,  рядовой</t>
         </is>
       </c>
       <c r="H399" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> рядовой</t>
+          <t>рядовой</t>
         </is>
       </c>
       <c r="I399" s="10" t="inlineStr"/>
@@ -37186,11 +35660,7 @@
       <c r="N399" s="10" t="inlineStr"/>
       <c r="O399" s="10" t="inlineStr"/>
       <c r="P399" s="10" t="inlineStr"/>
-      <c r="Q399" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304247</t>
-        </is>
-      </c>
+      <c r="Q399" s="10" t="inlineStr"/>
       <c r="R399" s="10" t="inlineStr"/>
       <c r="S399" s="10" t="inlineStr">
         <is>
@@ -37226,7 +35696,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="400" s="6">
+    <row r="400" ht="27" customHeight="1" s="6">
       <c r="A400" s="7" t="n">
         <v>142434</v>
       </c>
@@ -37281,11 +35751,7 @@
       <c r="N400" s="10" t="inlineStr"/>
       <c r="O400" s="10" t="inlineStr"/>
       <c r="P400" s="10" t="inlineStr"/>
-      <c r="Q400" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=265828805</t>
-        </is>
-      </c>
+      <c r="Q400" s="10" t="inlineStr"/>
       <c r="R400" s="10" t="inlineStr"/>
       <c r="S400" s="10" t="inlineStr">
         <is>
@@ -37321,7 +35787,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="401" s="6">
+    <row r="401" ht="27" customHeight="1" s="6">
       <c r="A401" s="7" t="n">
         <v>142435</v>
       </c>
@@ -37347,7 +35813,7 @@
       </c>
       <c r="F401" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G401" s="10" t="inlineStr"/>
@@ -37376,11 +35842,7 @@
       <c r="N401" s="10" t="inlineStr"/>
       <c r="O401" s="10" t="inlineStr"/>
       <c r="P401" s="10" t="inlineStr"/>
-      <c r="Q401" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304249</t>
-        </is>
-      </c>
+      <c r="Q401" s="10" t="inlineStr"/>
       <c r="R401" s="10" t="inlineStr"/>
       <c r="S401" s="10" t="inlineStr">
         <is>
@@ -37416,7 +35878,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="402" s="6">
+    <row r="402" ht="27" customHeight="1" s="6">
       <c r="A402" s="7" t="n">
         <v>142436</v>
       </c>
@@ -37442,12 +35904,12 @@
       </c>
       <c r="F402" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G402" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  Сасовский рн</t>
+          <t xml:space="preserve"> Рязанская обл.,  Сасовский рн,  д. Лотказино</t>
         </is>
       </c>
       <c r="H402" s="10" t="inlineStr">
@@ -37475,11 +35937,7 @@
       <c r="N402" s="10" t="inlineStr"/>
       <c r="O402" s="10" t="inlineStr"/>
       <c r="P402" s="10" t="inlineStr"/>
-      <c r="Q402" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52946088</t>
-        </is>
-      </c>
+      <c r="Q402" s="10" t="inlineStr"/>
       <c r="R402" s="10" t="inlineStr"/>
       <c r="S402" s="10" t="inlineStr">
         <is>
@@ -37515,7 +35973,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="403" s="6">
+    <row r="403" ht="27" customHeight="1" s="6">
       <c r="A403" s="7" t="n">
         <v>142437</v>
       </c>
@@ -37541,10 +35999,14 @@
       </c>
       <c r="F403" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1923 </t>
-        </is>
-      </c>
-      <c r="G403" s="10" t="inlineStr"/>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="G403" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> г. Смоленск</t>
+        </is>
+      </c>
       <c r="H403" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> рядовой</t>
@@ -37574,11 +36036,7 @@
       <c r="N403" s="10" t="inlineStr"/>
       <c r="O403" s="10" t="inlineStr"/>
       <c r="P403" s="10" t="inlineStr"/>
-      <c r="Q403" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304251</t>
-        </is>
-      </c>
+      <c r="Q403" s="10" t="inlineStr"/>
       <c r="R403" s="10" t="inlineStr"/>
       <c r="S403" s="10" t="inlineStr">
         <is>
@@ -37665,11 +36123,7 @@
       <c r="N404" s="10" t="inlineStr"/>
       <c r="O404" s="10" t="inlineStr"/>
       <c r="P404" s="10" t="inlineStr"/>
-      <c r="Q404" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304252</t>
-        </is>
-      </c>
+      <c r="Q404" s="10" t="inlineStr"/>
       <c r="R404" s="10" t="inlineStr"/>
       <c r="S404" s="10" t="inlineStr">
         <is>
@@ -37731,7 +36185,7 @@
       </c>
       <c r="F405" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G405" s="10" t="inlineStr"/>
@@ -37756,11 +36210,7 @@
       <c r="N405" s="10" t="inlineStr"/>
       <c r="O405" s="10" t="inlineStr"/>
       <c r="P405" s="10" t="inlineStr"/>
-      <c r="Q405" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=59409446</t>
-        </is>
-      </c>
+      <c r="Q405" s="10" t="inlineStr"/>
       <c r="R405" s="10" t="inlineStr"/>
       <c r="S405" s="10" t="inlineStr">
         <is>
@@ -37822,7 +36272,7 @@
       </c>
       <c r="F406" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1910 </t>
+          <t>1910</t>
         </is>
       </c>
       <c r="G406" s="10" t="inlineStr"/>
@@ -37847,11 +36297,7 @@
       <c r="N406" s="10" t="inlineStr"/>
       <c r="O406" s="10" t="inlineStr"/>
       <c r="P406" s="10" t="inlineStr"/>
-      <c r="Q406" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=59409448</t>
-        </is>
-      </c>
+      <c r="Q406" s="10" t="inlineStr"/>
       <c r="R406" s="10" t="inlineStr"/>
       <c r="S406" s="10" t="inlineStr">
         <is>
@@ -37913,7 +36359,7 @@
       </c>
       <c r="F407" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G407" s="10" t="inlineStr"/>
@@ -37926,7 +36372,7 @@
       <c r="J407" s="10" t="inlineStr"/>
       <c r="K407" s="10" t="inlineStr">
         <is>
-          <t>в1942</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="L407" s="12" t="inlineStr">
@@ -37938,11 +36384,7 @@
       <c r="N407" s="10" t="inlineStr"/>
       <c r="O407" s="10" t="inlineStr"/>
       <c r="P407" s="10" t="inlineStr"/>
-      <c r="Q407" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304255</t>
-        </is>
-      </c>
+      <c r="Q407" s="10" t="inlineStr"/>
       <c r="R407" s="10" t="inlineStr"/>
       <c r="S407" s="10" t="inlineStr">
         <is>
@@ -38025,11 +36467,7 @@
       <c r="N408" s="10" t="inlineStr"/>
       <c r="O408" s="10" t="inlineStr"/>
       <c r="P408" s="10" t="inlineStr"/>
-      <c r="Q408" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=2735478</t>
-        </is>
-      </c>
+      <c r="Q408" s="10" t="inlineStr"/>
       <c r="R408" s="10" t="inlineStr"/>
       <c r="S408" s="10" t="inlineStr">
         <is>
@@ -38065,7 +36503,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="409" s="6">
+    <row r="409" ht="27" customHeight="1" s="6">
       <c r="A409" s="7" t="n">
         <v>142443</v>
       </c>
@@ -38092,7 +36530,7 @@
       <c r="F409" s="10" t="inlineStr"/>
       <c r="G409" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Рязанская обл.,  рядовой</t>
+          <t xml:space="preserve"> Рязанская обл.,  рядовой,  961 сп</t>
         </is>
       </c>
       <c r="H409" s="10" t="inlineStr">
@@ -38103,7 +36541,7 @@
       <c r="I409" s="10" t="inlineStr"/>
       <c r="J409" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 961 стрелковый полк  274 стрелковая дивизия </t>
+          <t xml:space="preserve"> 274 стрелковая дивизия </t>
         </is>
       </c>
       <c r="K409" s="10" t="inlineStr">
@@ -38124,11 +36562,7 @@
       <c r="N409" s="10" t="inlineStr"/>
       <c r="O409" s="10" t="inlineStr"/>
       <c r="P409" s="10" t="inlineStr"/>
-      <c r="Q409" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1854636</t>
-        </is>
-      </c>
+      <c r="Q409" s="10" t="inlineStr"/>
       <c r="R409" s="10" t="inlineStr"/>
       <c r="S409" s="10" t="inlineStr">
         <is>
@@ -38215,11 +36649,7 @@
       <c r="N410" s="10" t="inlineStr"/>
       <c r="O410" s="10" t="inlineStr"/>
       <c r="P410" s="10" t="inlineStr"/>
-      <c r="Q410" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65794404</t>
-        </is>
-      </c>
+      <c r="Q410" s="10" t="inlineStr"/>
       <c r="R410" s="10" t="inlineStr"/>
       <c r="S410" s="10" t="inlineStr">
         <is>
@@ -38281,7 +36711,7 @@
       </c>
       <c r="F411" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G411" s="10" t="inlineStr"/>
@@ -38306,11 +36736,7 @@
       <c r="N411" s="10" t="inlineStr"/>
       <c r="O411" s="10" t="inlineStr"/>
       <c r="P411" s="10" t="inlineStr"/>
-      <c r="Q411" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4604545</t>
-        </is>
-      </c>
+      <c r="Q411" s="10" t="inlineStr"/>
       <c r="R411" s="10" t="inlineStr"/>
       <c r="S411" s="10" t="inlineStr">
         <is>
@@ -38372,7 +36798,7 @@
       </c>
       <c r="F412" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1924 </t>
+          <t>1924</t>
         </is>
       </c>
       <c r="G412" s="10" t="inlineStr"/>
@@ -38397,11 +36823,7 @@
       <c r="N412" s="10" t="inlineStr"/>
       <c r="O412" s="10" t="inlineStr"/>
       <c r="P412" s="10" t="inlineStr"/>
-      <c r="Q412" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58495746</t>
-        </is>
-      </c>
+      <c r="Q412" s="10" t="inlineStr"/>
       <c r="R412" s="10" t="inlineStr"/>
       <c r="S412" s="10" t="inlineStr">
         <is>
@@ -38437,7 +36859,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="413" s="6">
+    <row r="413" ht="27" customHeight="1" s="6">
       <c r="A413" s="7" t="n">
         <v>142447</v>
       </c>
@@ -38463,7 +36885,7 @@
       </c>
       <c r="F413" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1916 </t>
+          <t>1916</t>
         </is>
       </c>
       <c r="G413" s="10" t="inlineStr">
@@ -38496,11 +36918,7 @@
       <c r="N413" s="10" t="inlineStr"/>
       <c r="O413" s="10" t="inlineStr"/>
       <c r="P413" s="10" t="inlineStr"/>
-      <c r="Q413" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50112540</t>
-        </is>
-      </c>
+      <c r="Q413" s="10" t="inlineStr"/>
       <c r="R413" s="10" t="inlineStr"/>
       <c r="S413" s="10" t="inlineStr">
         <is>
@@ -38583,11 +37001,7 @@
       <c r="N414" s="10" t="inlineStr"/>
       <c r="O414" s="10" t="inlineStr"/>
       <c r="P414" s="10" t="inlineStr"/>
-      <c r="Q414" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304273</t>
-        </is>
-      </c>
+      <c r="Q414" s="10" t="inlineStr"/>
       <c r="R414" s="10" t="inlineStr"/>
       <c r="S414" s="10" t="inlineStr">
         <is>
@@ -38623,7 +37037,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="415" s="6">
+    <row r="415" ht="27" customHeight="1" s="6">
       <c r="A415" s="7" t="n">
         <v>142449</v>
       </c>
@@ -38666,7 +37080,7 @@
       </c>
       <c r="K415" s="10" t="inlineStr">
         <is>
-          <t>в1942</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="L415" s="12" t="inlineStr">
@@ -38769,11 +37183,7 @@
       <c r="N416" s="10" t="inlineStr"/>
       <c r="O416" s="10" t="inlineStr"/>
       <c r="P416" s="10" t="inlineStr"/>
-      <c r="Q416" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=54493985</t>
-        </is>
-      </c>
+      <c r="Q416" s="10" t="inlineStr"/>
       <c r="R416" s="10" t="inlineStr"/>
       <c r="S416" s="10" t="inlineStr">
         <is>
@@ -38856,11 +37266,7 @@
       <c r="N417" s="10" t="inlineStr"/>
       <c r="O417" s="10" t="inlineStr"/>
       <c r="P417" s="10" t="inlineStr"/>
-      <c r="Q417" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=8317856</t>
-        </is>
-      </c>
+      <c r="Q417" s="10" t="inlineStr"/>
       <c r="R417" s="10" t="inlineStr"/>
       <c r="S417" s="10" t="inlineStr">
         <is>
@@ -38939,11 +37345,7 @@
       <c r="N418" s="10" t="inlineStr"/>
       <c r="O418" s="10" t="inlineStr"/>
       <c r="P418" s="10" t="inlineStr"/>
-      <c r="Q418" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57002271</t>
-        </is>
-      </c>
+      <c r="Q418" s="10" t="inlineStr"/>
       <c r="R418" s="10" t="inlineStr"/>
       <c r="S418" s="10" t="inlineStr">
         <is>
@@ -38979,7 +37381,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="419" s="6">
+    <row r="419" ht="27" customHeight="1" s="6">
       <c r="A419" s="7" t="n">
         <v>142471</v>
       </c>
@@ -39005,7 +37407,7 @@
       </c>
       <c r="F419" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1912 </t>
+          <t>1912</t>
         </is>
       </c>
       <c r="G419" s="10" t="inlineStr"/>
@@ -39034,11 +37436,7 @@
       <c r="N419" s="10" t="inlineStr"/>
       <c r="O419" s="10" t="inlineStr"/>
       <c r="P419" s="10" t="inlineStr"/>
-      <c r="Q419" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304300</t>
-        </is>
-      </c>
+      <c r="Q419" s="10" t="inlineStr"/>
       <c r="R419" s="10" t="inlineStr"/>
       <c r="S419" s="10" t="inlineStr">
         <is>
@@ -39074,7 +37472,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="420" s="6">
+    <row r="420" ht="27" customHeight="1" s="6">
       <c r="A420" s="7" t="n">
         <v>142453</v>
       </c>
@@ -39100,7 +37498,7 @@
       </c>
       <c r="F420" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G420" s="10" t="inlineStr">
@@ -39129,11 +37527,7 @@
       <c r="N420" s="10" t="inlineStr"/>
       <c r="O420" s="10" t="inlineStr"/>
       <c r="P420" s="10" t="inlineStr"/>
-      <c r="Q420" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58213076</t>
-        </is>
-      </c>
+      <c r="Q420" s="10" t="inlineStr"/>
       <c r="R420" s="10" t="inlineStr"/>
       <c r="S420" s="10" t="inlineStr">
         <is>
@@ -39169,7 +37563,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="421" s="6">
+    <row r="421" ht="27" customHeight="1" s="6">
       <c r="A421" s="7" t="n">
         <v>142454</v>
       </c>
@@ -39195,7 +37589,7 @@
       </c>
       <c r="F421" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1913 </t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G421" s="10" t="inlineStr">
@@ -39232,11 +37626,7 @@
       <c r="N421" s="10" t="inlineStr"/>
       <c r="O421" s="10" t="inlineStr"/>
       <c r="P421" s="10" t="inlineStr"/>
-      <c r="Q421" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=50629313</t>
-        </is>
-      </c>
+      <c r="Q421" s="10" t="inlineStr"/>
       <c r="R421" s="10" t="inlineStr"/>
       <c r="S421" s="10" t="inlineStr">
         <is>
@@ -39319,11 +37709,7 @@
       <c r="N422" s="10" t="inlineStr"/>
       <c r="O422" s="10" t="inlineStr"/>
       <c r="P422" s="10" t="inlineStr"/>
-      <c r="Q422" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64546530</t>
-        </is>
-      </c>
+      <c r="Q422" s="10" t="inlineStr"/>
       <c r="R422" s="10" t="inlineStr"/>
       <c r="S422" s="10" t="inlineStr">
         <is>
@@ -39385,7 +37771,7 @@
       </c>
       <c r="F423" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1898 </t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G423" s="10" t="inlineStr"/>
@@ -39410,11 +37796,7 @@
       <c r="N423" s="10" t="inlineStr"/>
       <c r="O423" s="10" t="inlineStr"/>
       <c r="P423" s="10" t="inlineStr"/>
-      <c r="Q423" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=59409444</t>
-        </is>
-      </c>
+      <c r="Q423" s="10" t="inlineStr"/>
       <c r="R423" s="10" t="inlineStr"/>
       <c r="S423" s="10" t="inlineStr">
         <is>
@@ -39497,11 +37879,7 @@
       <c r="N424" s="10" t="inlineStr"/>
       <c r="O424" s="10" t="inlineStr"/>
       <c r="P424" s="10" t="inlineStr"/>
-      <c r="Q424" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64546531</t>
-        </is>
-      </c>
+      <c r="Q424" s="10" t="inlineStr"/>
       <c r="R424" s="10" t="inlineStr"/>
       <c r="S424" s="10" t="inlineStr">
         <is>
@@ -39563,7 +37941,7 @@
       </c>
       <c r="F425" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1904 </t>
+          <t>1904</t>
         </is>
       </c>
       <c r="G425" s="10" t="inlineStr"/>
@@ -39592,11 +37970,7 @@
       <c r="N425" s="10" t="inlineStr"/>
       <c r="O425" s="10" t="inlineStr"/>
       <c r="P425" s="10" t="inlineStr"/>
-      <c r="Q425" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1910909549</t>
-        </is>
-      </c>
+      <c r="Q425" s="10" t="inlineStr"/>
       <c r="R425" s="10" t="inlineStr"/>
       <c r="S425" s="10" t="inlineStr">
         <is>
@@ -39679,11 +38053,7 @@
       <c r="N426" s="10" t="inlineStr"/>
       <c r="O426" s="10" t="inlineStr"/>
       <c r="P426" s="10" t="inlineStr"/>
-      <c r="Q426" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=266761008</t>
-        </is>
-      </c>
+      <c r="Q426" s="10" t="inlineStr"/>
       <c r="R426" s="10" t="inlineStr"/>
       <c r="S426" s="10" t="inlineStr">
         <is>
@@ -39774,11 +38144,7 @@
       <c r="N427" s="10" t="inlineStr"/>
       <c r="O427" s="10" t="inlineStr"/>
       <c r="P427" s="10" t="inlineStr"/>
-      <c r="Q427" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304260</t>
-        </is>
-      </c>
+      <c r="Q427" s="10" t="inlineStr"/>
       <c r="R427" s="10" t="inlineStr"/>
       <c r="S427" s="10" t="inlineStr">
         <is>
@@ -39840,7 +38206,7 @@
       </c>
       <c r="F428" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G428" s="10" t="inlineStr"/>
@@ -39865,11 +38231,7 @@
       <c r="N428" s="10" t="inlineStr"/>
       <c r="O428" s="10" t="inlineStr"/>
       <c r="P428" s="10" t="inlineStr"/>
-      <c r="Q428" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=9398677</t>
-        </is>
-      </c>
+      <c r="Q428" s="10" t="inlineStr"/>
       <c r="R428" s="10" t="inlineStr"/>
       <c r="S428" s="10" t="inlineStr">
         <is>
@@ -39956,11 +38318,7 @@
       <c r="N429" s="10" t="inlineStr"/>
       <c r="O429" s="10" t="inlineStr"/>
       <c r="P429" s="10" t="inlineStr"/>
-      <c r="Q429" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=4351056</t>
-        </is>
-      </c>
+      <c r="Q429" s="10" t="inlineStr"/>
       <c r="R429" s="10" t="inlineStr"/>
       <c r="S429" s="10" t="inlineStr">
         <is>
@@ -40022,7 +38380,7 @@
       </c>
       <c r="F430" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1892 </t>
+          <t>1892</t>
         </is>
       </c>
       <c r="G430" s="10" t="inlineStr"/>
@@ -40051,11 +38409,7 @@
       <c r="N430" s="10" t="inlineStr"/>
       <c r="O430" s="10" t="inlineStr"/>
       <c r="P430" s="10" t="inlineStr"/>
-      <c r="Q430" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=1910909740</t>
-        </is>
-      </c>
+      <c r="Q430" s="10" t="inlineStr"/>
       <c r="R430" s="10" t="inlineStr"/>
       <c r="S430" s="10" t="inlineStr">
         <is>
@@ -40117,7 +38471,7 @@
       </c>
       <c r="F431" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1912 </t>
+          <t>1912</t>
         </is>
       </c>
       <c r="G431" s="10" t="inlineStr"/>
@@ -40142,11 +38496,7 @@
       <c r="N431" s="10" t="inlineStr"/>
       <c r="O431" s="10" t="inlineStr"/>
       <c r="P431" s="10" t="inlineStr"/>
-      <c r="Q431" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304279</t>
-        </is>
-      </c>
+      <c r="Q431" s="10" t="inlineStr"/>
       <c r="R431" s="10" t="inlineStr"/>
       <c r="S431" s="10" t="inlineStr">
         <is>
@@ -40208,7 +38558,7 @@
       </c>
       <c r="F432" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1895 </t>
+          <t>1895</t>
         </is>
       </c>
       <c r="G432" s="10" t="inlineStr"/>
@@ -40221,7 +38571,7 @@
       <c r="J432" s="10" t="inlineStr"/>
       <c r="K432" s="10" t="inlineStr">
         <is>
-          <t>в1942</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="L432" s="12" t="inlineStr">
@@ -40233,11 +38583,7 @@
       <c r="N432" s="10" t="inlineStr"/>
       <c r="O432" s="10" t="inlineStr"/>
       <c r="P432" s="10" t="inlineStr"/>
-      <c r="Q432" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965259</t>
-        </is>
-      </c>
+      <c r="Q432" s="10" t="inlineStr"/>
       <c r="R432" s="10" t="inlineStr"/>
       <c r="S432" s="10" t="inlineStr">
         <is>
@@ -40299,7 +38645,7 @@
       </c>
       <c r="F433" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1921 </t>
+          <t>1921</t>
         </is>
       </c>
       <c r="G433" s="10" t="inlineStr"/>
@@ -40324,11 +38670,7 @@
       <c r="N433" s="10" t="inlineStr"/>
       <c r="O433" s="10" t="inlineStr"/>
       <c r="P433" s="10" t="inlineStr"/>
-      <c r="Q433" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965251</t>
-        </is>
-      </c>
+      <c r="Q433" s="10" t="inlineStr"/>
       <c r="R433" s="10" t="inlineStr"/>
       <c r="S433" s="10" t="inlineStr">
         <is>
@@ -40411,11 +38753,7 @@
       <c r="N434" s="10" t="inlineStr"/>
       <c r="O434" s="10" t="inlineStr"/>
       <c r="P434" s="10" t="inlineStr"/>
-      <c r="Q434" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=64806953</t>
-        </is>
-      </c>
+      <c r="Q434" s="10" t="inlineStr"/>
       <c r="R434" s="10" t="inlineStr"/>
       <c r="S434" s="10" t="inlineStr">
         <is>
@@ -40498,11 +38836,7 @@
       <c r="N435" s="10" t="inlineStr"/>
       <c r="O435" s="10" t="inlineStr"/>
       <c r="P435" s="10" t="inlineStr"/>
-      <c r="Q435" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=459304303</t>
-        </is>
-      </c>
+      <c r="Q435" s="10" t="inlineStr"/>
       <c r="R435" s="10" t="inlineStr"/>
       <c r="S435" s="10" t="inlineStr">
         <is>
@@ -40589,11 +38923,7 @@
       <c r="N436" s="10" t="inlineStr"/>
       <c r="O436" s="10" t="inlineStr"/>
       <c r="P436" s="10" t="inlineStr"/>
-      <c r="Q436" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=589444482</t>
-        </is>
-      </c>
+      <c r="Q436" s="10" t="inlineStr"/>
       <c r="R436" s="10" t="inlineStr"/>
       <c r="S436" s="10" t="inlineStr">
         <is>
@@ -40655,7 +38985,7 @@
       </c>
       <c r="F437" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1915 </t>
+          <t>1915</t>
         </is>
       </c>
       <c r="G437" s="10" t="inlineStr"/>
@@ -40680,11 +39010,7 @@
       <c r="N437" s="10" t="inlineStr"/>
       <c r="O437" s="10" t="inlineStr"/>
       <c r="P437" s="10" t="inlineStr"/>
-      <c r="Q437" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57099332</t>
-        </is>
-      </c>
+      <c r="Q437" s="10" t="inlineStr"/>
       <c r="R437" s="10" t="inlineStr"/>
       <c r="S437" s="10" t="inlineStr">
         <is>
@@ -40746,7 +39072,7 @@
       </c>
       <c r="F438" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1912 </t>
+          <t>1912</t>
         </is>
       </c>
       <c r="G438" s="10" t="inlineStr"/>
@@ -40771,11 +39097,7 @@
       <c r="N438" s="10" t="inlineStr"/>
       <c r="O438" s="10" t="inlineStr"/>
       <c r="P438" s="10" t="inlineStr"/>
-      <c r="Q438" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965081</t>
-        </is>
-      </c>
+      <c r="Q438" s="10" t="inlineStr"/>
       <c r="R438" s="10" t="inlineStr"/>
       <c r="S438" s="10" t="inlineStr">
         <is>
@@ -40858,11 +39180,7 @@
       <c r="N439" s="10" t="inlineStr"/>
       <c r="O439" s="10" t="inlineStr"/>
       <c r="P439" s="10" t="inlineStr"/>
-      <c r="Q439" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=458056731</t>
-        </is>
-      </c>
+      <c r="Q439" s="10" t="inlineStr"/>
       <c r="R439" s="10" t="inlineStr"/>
       <c r="S439" s="10" t="inlineStr">
         <is>
@@ -40924,7 +39242,7 @@
       </c>
       <c r="F440" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1918 </t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G440" s="10" t="inlineStr"/>
@@ -40949,11 +39267,7 @@
       <c r="N440" s="10" t="inlineStr"/>
       <c r="O440" s="10" t="inlineStr"/>
       <c r="P440" s="10" t="inlineStr"/>
-      <c r="Q440" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=57099333</t>
-        </is>
-      </c>
+      <c r="Q440" s="10" t="inlineStr"/>
       <c r="R440" s="10" t="inlineStr"/>
       <c r="S440" s="10" t="inlineStr">
         <is>
@@ -41015,7 +39329,7 @@
       </c>
       <c r="F441" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1914 </t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G441" s="10" t="inlineStr"/>
@@ -41040,11 +39354,7 @@
       <c r="N441" s="10" t="inlineStr"/>
       <c r="O441" s="10" t="inlineStr"/>
       <c r="P441" s="10" t="inlineStr"/>
-      <c r="Q441" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=59419565</t>
-        </is>
-      </c>
+      <c r="Q441" s="10" t="inlineStr"/>
       <c r="R441" s="10" t="inlineStr"/>
       <c r="S441" s="10" t="inlineStr">
         <is>
@@ -41106,7 +39416,7 @@
       </c>
       <c r="F442" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1919 </t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G442" s="10" t="inlineStr"/>
@@ -41131,11 +39441,7 @@
       <c r="N442" s="10" t="inlineStr"/>
       <c r="O442" s="10" t="inlineStr"/>
       <c r="P442" s="10" t="inlineStr"/>
-      <c r="Q442" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965373</t>
-        </is>
-      </c>
+      <c r="Q442" s="10" t="inlineStr"/>
       <c r="R442" s="10" t="inlineStr"/>
       <c r="S442" s="10" t="inlineStr">
         <is>
@@ -41200,7 +39506,11 @@
           <t xml:space="preserve"> 1906</t>
         </is>
       </c>
-      <c r="G443" s="10" t="inlineStr"/>
+      <c r="G443" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1906 г.</t>
+        </is>
+      </c>
       <c r="H443" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> рядовой</t>
@@ -41222,11 +39532,7 @@
       <c r="N443" s="10" t="inlineStr"/>
       <c r="O443" s="10" t="inlineStr"/>
       <c r="P443" s="10" t="inlineStr"/>
-      <c r="Q443" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=65965367</t>
-        </is>
-      </c>
+      <c r="Q443" s="10" t="inlineStr"/>
       <c r="R443" s="10" t="inlineStr"/>
       <c r="S443" s="10" t="inlineStr">
         <is>
@@ -41262,7 +39568,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="444" s="6">
+    <row r="444" ht="27" customHeight="1" s="6">
       <c r="A444" s="7" t="n">
         <v>142478</v>
       </c>
@@ -41288,7 +39594,7 @@
       </c>
       <c r="F444" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1906 </t>
+          <t>1906</t>
         </is>
       </c>
       <c r="G444" s="10" t="inlineStr">
@@ -41325,11 +39631,7 @@
       <c r="N444" s="10" t="inlineStr"/>
       <c r="O444" s="10" t="inlineStr"/>
       <c r="P444" s="10" t="inlineStr"/>
-      <c r="Q444" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=52332564</t>
-        </is>
-      </c>
+      <c r="Q444" s="10" t="inlineStr"/>
       <c r="R444" s="10" t="inlineStr"/>
       <c r="S444" s="10" t="inlineStr">
         <is>
@@ -41391,7 +39693,7 @@
       </c>
       <c r="F445" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1907 </t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G445" s="10" t="inlineStr"/>
@@ -41416,11 +39718,7 @@
       <c r="N445" s="10" t="inlineStr"/>
       <c r="O445" s="10" t="inlineStr"/>
       <c r="P445" s="10" t="inlineStr"/>
-      <c r="Q445" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=58328848</t>
-        </is>
-      </c>
+      <c r="Q445" s="10" t="inlineStr"/>
       <c r="R445" s="10" t="inlineStr"/>
       <c r="S445" s="10" t="inlineStr">
         <is>
@@ -41503,11 +39801,7 @@
       <c r="N446" s="10" t="inlineStr"/>
       <c r="O446" s="10" t="inlineStr"/>
       <c r="P446" s="10" t="inlineStr"/>
-      <c r="Q446" s="10" t="inlineStr">
-        <is>
-          <t>https://obd-memorial.ru/html/info.htm?id=55516147</t>
-        </is>
-      </c>
+      <c r="Q446" s="10" t="inlineStr"/>
       <c r="R446" s="10" t="inlineStr"/>
       <c r="S446" s="10" t="inlineStr">
         <is>
@@ -41546,18 +39840,18 @@
     <row r="447"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="N2:N446" type="list">
+    <dataValidation sqref="N2:N446" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>ПрЗахоронения</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="L2:L446" type="list">
+    <dataValidation sqref="L2:L446" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>ПрСмерти</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="S2:S446" type="list">
+    <dataValidation sqref="S2:S446" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>Районы</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="180" orientation="portrait" paperSize="9" verticalDpi="180"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
 </file>
 
@@ -41573,10 +39867,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="180" orientation="portrait" paperSize="9" verticalDpi="180"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
 </file>
 
@@ -41592,9 +39886,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="180" orientation="portrait" paperSize="9" verticalDpi="180"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
 </file>